--- a/media/mikroqarz_template.xlsx
+++ b/media/mikroqarz_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\PycharmProjects\payup\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6B2FB-B604-4D60-9011-188B62BC0D6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26243824-43C0-46EB-B235-D290FD895930}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" firstSheet="9" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="915" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="malumot" sheetId="1" r:id="rId1"/>
@@ -4751,79 +4751,106 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4832,40 +4859,34 @@
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -4874,50 +4895,32 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -4925,15 +4928,12 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4946,6 +4946,39 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4955,96 +4988,63 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5079,7 +5079,40 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -5091,40 +5124,7 @@
       <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1786">
@@ -9382,7 +9382,7 @@
   <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49:F49"/>
+      <selection activeCell="B59" sqref="B59:C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -9405,8 +9405,8 @@
       <c r="B2" s="32"/>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
-      <c r="E2" s="319"/>
-      <c r="F2" s="319"/>
+      <c r="E2" s="312"/>
+      <c r="F2" s="312"/>
       <c r="G2" s="15"/>
     </row>
     <row r="3" spans="1:16" ht="77.25" customHeight="1">
@@ -9414,7 +9414,7 @@
       <c r="B3" s="32"/>
       <c r="C3" s="32"/>
       <c r="D3" s="32"/>
-      <c r="E3" s="334" t="str">
+      <c r="E3" s="332" t="str">
         <f>""&amp;malumot!B74&amp;" 
 "&amp;malumot!B65&amp;" shartnomasiga 
 1 sonli ilova"</f>
@@ -9422,7 +9422,7 @@
 mikroqarz shartnomasiga 
 1 sonli ilova</v>
       </c>
-      <c r="F3" s="334"/>
+      <c r="F3" s="332"/>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:16" ht="6.75" customHeight="1">
@@ -9434,36 +9434,36 @@
       <c r="F4" s="32"/>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="320" t="s">
+      <c r="A5" s="313" t="s">
         <v>262</v>
       </c>
-      <c r="B5" s="320"/>
-      <c r="C5" s="320"/>
-      <c r="D5" s="320"/>
-      <c r="E5" s="320"/>
-      <c r="F5" s="320"/>
+      <c r="B5" s="313"/>
+      <c r="C5" s="313"/>
+      <c r="D5" s="313"/>
+      <c r="E5" s="313"/>
+      <c r="F5" s="313"/>
     </row>
     <row r="6" spans="1:16" ht="7.5" customHeight="1"/>
     <row r="7" spans="1:16" ht="15" customHeight="1">
-      <c r="A7" s="321" t="s">
+      <c r="A7" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="322" t="s">
+      <c r="B7" s="315" t="s">
         <v>263</v>
       </c>
-      <c r="C7" s="322" t="s">
+      <c r="C7" s="315" t="s">
         <v>264</v>
       </c>
-      <c r="D7" s="323" t="s">
+      <c r="D7" s="316" t="s">
         <v>265</v>
       </c>
-      <c r="E7" s="323"/>
-      <c r="F7" s="323"/>
+      <c r="E7" s="316"/>
+      <c r="F7" s="316"/>
     </row>
     <row r="8" spans="1:16" s="11" customFormat="1">
-      <c r="A8" s="321"/>
-      <c r="B8" s="322"/>
-      <c r="C8" s="322"/>
+      <c r="A8" s="314"/>
+      <c r="B8" s="315"/>
+      <c r="C8" s="315"/>
       <c r="D8" s="12" t="s">
         <v>266</v>
       </c>
@@ -9573,17 +9573,17 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F11,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F11))</f>
         <v>2051917.76</v>
       </c>
-      <c r="H12" s="333" t="s">
+      <c r="H12" s="334" t="s">
         <v>371</v>
       </c>
-      <c r="I12" s="333"/>
-      <c r="J12" s="333"/>
-      <c r="K12" s="333"/>
-      <c r="L12" s="333"/>
-      <c r="M12" s="333"/>
-      <c r="N12" s="333"/>
-      <c r="O12" s="333"/>
-      <c r="P12" s="333"/>
+      <c r="I12" s="334"/>
+      <c r="J12" s="334"/>
+      <c r="K12" s="334"/>
+      <c r="L12" s="334"/>
+      <c r="M12" s="334"/>
+      <c r="N12" s="334"/>
+      <c r="O12" s="334"/>
+      <c r="P12" s="334"/>
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="13">
@@ -9609,15 +9609,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F12,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F12))</f>
         <v>1894109.4500000002</v>
       </c>
-      <c r="H13" s="333"/>
-      <c r="I13" s="333"/>
-      <c r="J13" s="333"/>
-      <c r="K13" s="333"/>
-      <c r="L13" s="333"/>
-      <c r="M13" s="333"/>
-      <c r="N13" s="333"/>
-      <c r="O13" s="333"/>
-      <c r="P13" s="333"/>
+      <c r="H13" s="334"/>
+      <c r="I13" s="334"/>
+      <c r="J13" s="334"/>
+      <c r="K13" s="334"/>
+      <c r="L13" s="334"/>
+      <c r="M13" s="334"/>
+      <c r="N13" s="334"/>
+      <c r="O13" s="334"/>
+      <c r="P13" s="334"/>
     </row>
     <row r="14" spans="1:16">
       <c r="A14" s="13">
@@ -9643,15 +9643,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F13,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F13))</f>
         <v>1934794.58</v>
       </c>
-      <c r="H14" s="333"/>
-      <c r="I14" s="333"/>
-      <c r="J14" s="333"/>
-      <c r="K14" s="333"/>
-      <c r="L14" s="333"/>
-      <c r="M14" s="333"/>
-      <c r="N14" s="333"/>
-      <c r="O14" s="333"/>
-      <c r="P14" s="333"/>
+      <c r="H14" s="334"/>
+      <c r="I14" s="334"/>
+      <c r="J14" s="334"/>
+      <c r="K14" s="334"/>
+      <c r="L14" s="334"/>
+      <c r="M14" s="334"/>
+      <c r="N14" s="334"/>
+      <c r="O14" s="334"/>
+      <c r="P14" s="334"/>
     </row>
     <row r="15" spans="1:16">
       <c r="A15" s="13">
@@ -9677,15 +9677,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F14,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F14))</f>
         <v>1896575.3</v>
       </c>
-      <c r="H15" s="333"/>
-      <c r="I15" s="333"/>
-      <c r="J15" s="333"/>
-      <c r="K15" s="333"/>
-      <c r="L15" s="333"/>
-      <c r="M15" s="333"/>
-      <c r="N15" s="333"/>
-      <c r="O15" s="333"/>
-      <c r="P15" s="333"/>
+      <c r="H15" s="334"/>
+      <c r="I15" s="334"/>
+      <c r="J15" s="334"/>
+      <c r="K15" s="334"/>
+      <c r="L15" s="334"/>
+      <c r="M15" s="334"/>
+      <c r="N15" s="334"/>
+      <c r="O15" s="334"/>
+      <c r="P15" s="334"/>
     </row>
     <row r="16" spans="1:16">
       <c r="A16" s="13">
@@ -9711,15 +9711,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F15,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F15))</f>
         <v>1822602.5999999999</v>
       </c>
-      <c r="H16" s="333"/>
-      <c r="I16" s="333"/>
-      <c r="J16" s="333"/>
-      <c r="K16" s="333"/>
-      <c r="L16" s="333"/>
-      <c r="M16" s="333"/>
-      <c r="N16" s="333"/>
-      <c r="O16" s="333"/>
-      <c r="P16" s="333"/>
+      <c r="H16" s="334"/>
+      <c r="I16" s="334"/>
+      <c r="J16" s="334"/>
+      <c r="K16" s="334"/>
+      <c r="L16" s="334"/>
+      <c r="M16" s="334"/>
+      <c r="N16" s="334"/>
+      <c r="O16" s="334"/>
+      <c r="P16" s="334"/>
     </row>
     <row r="17" spans="1:16">
       <c r="A17" s="13">
@@ -9745,15 +9745,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F16,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F16))</f>
         <v>1785616.5</v>
       </c>
-      <c r="H17" s="333"/>
-      <c r="I17" s="333"/>
-      <c r="J17" s="333"/>
-      <c r="K17" s="333"/>
-      <c r="L17" s="333"/>
-      <c r="M17" s="333"/>
-      <c r="N17" s="333"/>
-      <c r="O17" s="333"/>
-      <c r="P17" s="333"/>
+      <c r="H17" s="334"/>
+      <c r="I17" s="334"/>
+      <c r="J17" s="334"/>
+      <c r="K17" s="334"/>
+      <c r="L17" s="334"/>
+      <c r="M17" s="334"/>
+      <c r="N17" s="334"/>
+      <c r="O17" s="334"/>
+      <c r="P17" s="334"/>
     </row>
     <row r="18" spans="1:16">
       <c r="A18" s="13">
@@ -9779,15 +9779,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F17,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F17))</f>
         <v>1781917.77</v>
       </c>
-      <c r="H18" s="333"/>
-      <c r="I18" s="333"/>
-      <c r="J18" s="333"/>
-      <c r="K18" s="333"/>
-      <c r="L18" s="333"/>
-      <c r="M18" s="333"/>
-      <c r="N18" s="333"/>
-      <c r="O18" s="333"/>
-      <c r="P18" s="333"/>
+      <c r="H18" s="334"/>
+      <c r="I18" s="334"/>
+      <c r="J18" s="334"/>
+      <c r="K18" s="334"/>
+      <c r="L18" s="334"/>
+      <c r="M18" s="334"/>
+      <c r="N18" s="334"/>
+      <c r="O18" s="334"/>
+      <c r="P18" s="334"/>
     </row>
     <row r="19" spans="1:16">
       <c r="A19" s="13">
@@ -9813,15 +9813,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F18,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F18))</f>
         <v>1743698.49</v>
       </c>
-      <c r="H19" s="333"/>
-      <c r="I19" s="333"/>
-      <c r="J19" s="333"/>
-      <c r="K19" s="333"/>
-      <c r="L19" s="333"/>
-      <c r="M19" s="333"/>
-      <c r="N19" s="333"/>
-      <c r="O19" s="333"/>
-      <c r="P19" s="333"/>
+      <c r="H19" s="334"/>
+      <c r="I19" s="334"/>
+      <c r="J19" s="334"/>
+      <c r="K19" s="334"/>
+      <c r="L19" s="334"/>
+      <c r="M19" s="334"/>
+      <c r="N19" s="334"/>
+      <c r="O19" s="334"/>
+      <c r="P19" s="334"/>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="13">
@@ -9847,15 +9847,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F19,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F19))</f>
         <v>1613013.76</v>
       </c>
-      <c r="H20" s="333"/>
-      <c r="I20" s="333"/>
-      <c r="J20" s="333"/>
-      <c r="K20" s="333"/>
-      <c r="L20" s="333"/>
-      <c r="M20" s="333"/>
-      <c r="N20" s="333"/>
-      <c r="O20" s="333"/>
-      <c r="P20" s="333"/>
+      <c r="H20" s="334"/>
+      <c r="I20" s="334"/>
+      <c r="J20" s="334"/>
+      <c r="K20" s="334"/>
+      <c r="L20" s="334"/>
+      <c r="M20" s="334"/>
+      <c r="N20" s="334"/>
+      <c r="O20" s="334"/>
+      <c r="P20" s="334"/>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="13">
@@ -9881,15 +9881,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F20,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F20))</f>
         <v>1696849.28</v>
       </c>
-      <c r="H21" s="333"/>
-      <c r="I21" s="333"/>
-      <c r="J21" s="333"/>
-      <c r="K21" s="333"/>
-      <c r="L21" s="333"/>
-      <c r="M21" s="333"/>
-      <c r="N21" s="333"/>
-      <c r="O21" s="333"/>
-      <c r="P21" s="333"/>
+      <c r="H21" s="334"/>
+      <c r="I21" s="334"/>
+      <c r="J21" s="334"/>
+      <c r="K21" s="334"/>
+      <c r="L21" s="334"/>
+      <c r="M21" s="334"/>
+      <c r="N21" s="334"/>
+      <c r="O21" s="334"/>
+      <c r="P21" s="334"/>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="13">
@@ -9915,15 +9915,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F21,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F21))</f>
         <v>1572328.6400000001</v>
       </c>
-      <c r="H22" s="333"/>
-      <c r="I22" s="333"/>
-      <c r="J22" s="333"/>
-      <c r="K22" s="333"/>
-      <c r="L22" s="333"/>
-      <c r="M22" s="333"/>
-      <c r="N22" s="333"/>
-      <c r="O22" s="333"/>
-      <c r="P22" s="333"/>
+      <c r="H22" s="334"/>
+      <c r="I22" s="334"/>
+      <c r="J22" s="334"/>
+      <c r="K22" s="334"/>
+      <c r="L22" s="334"/>
+      <c r="M22" s="334"/>
+      <c r="N22" s="334"/>
+      <c r="O22" s="334"/>
+      <c r="P22" s="334"/>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="13">
@@ -9949,15 +9949,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F22,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F22))</f>
         <v>1590821.99</v>
       </c>
-      <c r="H23" s="333"/>
-      <c r="I23" s="333"/>
-      <c r="J23" s="333"/>
-      <c r="K23" s="333"/>
-      <c r="L23" s="333"/>
-      <c r="M23" s="333"/>
-      <c r="N23" s="333"/>
-      <c r="O23" s="333"/>
-      <c r="P23" s="333"/>
+      <c r="H23" s="334"/>
+      <c r="I23" s="334"/>
+      <c r="J23" s="334"/>
+      <c r="K23" s="334"/>
+      <c r="L23" s="334"/>
+      <c r="M23" s="334"/>
+      <c r="N23" s="334"/>
+      <c r="O23" s="334"/>
+      <c r="P23" s="334"/>
     </row>
     <row r="24" spans="1:16">
       <c r="A24" s="13">
@@ -9983,15 +9983,15 @@
         <f>IF(malumot!$B$77=malumot!$C$77,'График дифференц'!F23,IF(malumot!$B$77=malumot!$D$77,'График аннуитет.'!F23))</f>
         <v>1552602.71</v>
       </c>
-      <c r="H24" s="333"/>
-      <c r="I24" s="333"/>
-      <c r="J24" s="333"/>
-      <c r="K24" s="333"/>
-      <c r="L24" s="333"/>
-      <c r="M24" s="333"/>
-      <c r="N24" s="333"/>
-      <c r="O24" s="333"/>
-      <c r="P24" s="333"/>
+      <c r="H24" s="334"/>
+      <c r="I24" s="334"/>
+      <c r="J24" s="334"/>
+      <c r="K24" s="334"/>
+      <c r="L24" s="334"/>
+      <c r="M24" s="334"/>
+      <c r="N24" s="334"/>
+      <c r="O24" s="334"/>
+      <c r="P24" s="334"/>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1">
       <c r="A25" s="13">
@@ -10538,235 +10538,210 @@
       <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="47.25" customHeight="1">
-      <c r="A47" s="291" t="str">
+      <c r="A47" s="290" t="str">
         <f>"*"&amp;malumot!C64&amp;" bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq "&amp;malumot!B65&amp;" qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi."</f>
         <v>*Mikroqarz bo‘yicha to‘lovlar to‘lov jadvalida ko‘rsatilmagan sanalarda to‘langan taqdirda, to‘lov summasi mikroqarz shartnomasining 2.2.-bandiga muvofiq mikroqarz qoldig‘iga hisoblangan foizlar summasiga o‘zgartiriladi.</v>
       </c>
-      <c r="B47" s="291"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
-      <c r="E47" s="291"/>
-      <c r="F47" s="291"/>
+      <c r="B47" s="290"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="290"/>
+      <c r="F47" s="290"/>
     </row>
     <row r="48" spans="1:6" ht="7.5" customHeight="1"/>
     <row r="49" spans="1:6" ht="15" customHeight="1">
-      <c r="A49" s="317" t="s">
+      <c r="A49" s="318" t="s">
         <v>269</v>
       </c>
-      <c r="B49" s="317"/>
-      <c r="C49" s="317"/>
-      <c r="D49" s="317" t="s">
+      <c r="B49" s="318"/>
+      <c r="C49" s="318"/>
+      <c r="D49" s="318" t="s">
         <v>276</v>
       </c>
-      <c r="E49" s="317"/>
-      <c r="F49" s="317"/>
+      <c r="E49" s="318"/>
+      <c r="F49" s="318"/>
     </row>
     <row r="50" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A50" s="318"/>
-      <c r="B50" s="318"/>
-      <c r="C50" s="318"/>
-      <c r="D50" s="318"/>
-      <c r="E50" s="318"/>
-      <c r="F50" s="318"/>
+      <c r="A50" s="319"/>
+      <c r="B50" s="319"/>
+      <c r="C50" s="319"/>
+      <c r="D50" s="319"/>
+      <c r="E50" s="319"/>
+      <c r="F50" s="319"/>
     </row>
     <row r="51" spans="1:6" ht="30" customHeight="1">
-      <c r="A51" s="290" t="str">
+      <c r="A51" s="291" t="str">
         <f>shartnoma!A117</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="B51" s="290"/>
-      <c r="C51" s="290"/>
-      <c r="D51" s="290" t="str">
+      <c r="B51" s="291"/>
+      <c r="C51" s="291"/>
+      <c r="D51" s="291" t="str">
         <f>shartnoma!B117</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="E51" s="290"/>
-      <c r="F51" s="290"/>
+      <c r="E51" s="291"/>
+      <c r="F51" s="291"/>
     </row>
     <row r="52" spans="1:6" ht="39" customHeight="1">
-      <c r="A52" s="313" t="str">
+      <c r="A52" s="317" t="str">
         <f>shartnoma!A119</f>
         <v>Manzil: Toshkent shahri, Olmazor tumani, Sagbon ko'chasi, 30 boshi berk, 6-uy</v>
       </c>
-      <c r="B52" s="313"/>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313" t="str">
+      <c r="B52" s="317"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="317" t="str">
         <f>shartnoma!B119</f>
         <v>Manzil: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY</v>
       </c>
-      <c r="E52" s="313"/>
-      <c r="F52" s="313"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="317"/>
     </row>
     <row r="53" spans="1:6" ht="15" customHeight="1">
-      <c r="A53" s="313" t="str">
+      <c r="A53" s="317" t="str">
         <f>shartnoma!A120</f>
         <v>h/r: №20216000705068380001</v>
       </c>
-      <c r="B53" s="313"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313" t="str">
+      <c r="B53" s="317"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="317" t="str">
         <f>shartnoma!B121</f>
         <v>Pasport: AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E53" s="313"/>
-      <c r="F53" s="313"/>
+      <c r="E53" s="317"/>
+      <c r="F53" s="317"/>
     </row>
     <row r="54" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A54" s="313" t="str">
+      <c r="A54" s="317" t="str">
         <f>shartnoma!A121</f>
         <v>MFO: №01042 в ATB “Kapitalbank” Sergeli filiali</v>
       </c>
-      <c r="B54" s="313"/>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313"/>
-      <c r="E54" s="313"/>
-      <c r="F54" s="313"/>
+      <c r="B54" s="317"/>
+      <c r="C54" s="317"/>
+      <c r="D54" s="317"/>
+      <c r="E54" s="317"/>
+      <c r="F54" s="317"/>
     </row>
     <row r="55" spans="1:6" ht="15" customHeight="1">
-      <c r="A55" s="313" t="str">
+      <c r="A55" s="317" t="str">
         <f>shartnoma!A122</f>
         <v>STIR: 306365847</v>
       </c>
-      <c r="B55" s="313"/>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313" t="str">
+      <c r="B55" s="317"/>
+      <c r="C55" s="317"/>
+      <c r="D55" s="317" t="str">
         <f>shartnoma!B122</f>
         <v>Tel: 91 408 76 67  UZI</v>
       </c>
-      <c r="E55" s="313"/>
-      <c r="F55" s="313"/>
+      <c r="E55" s="317"/>
+      <c r="F55" s="317"/>
     </row>
     <row r="56" spans="1:6" ht="15" customHeight="1">
-      <c r="A56" s="313" t="str">
+      <c r="A56" s="317" t="str">
         <f>shartnoma!A123</f>
         <v>Tel: (78) 113 31 33</v>
       </c>
-      <c r="B56" s="313"/>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313" t="str">
+      <c r="B56" s="317"/>
+      <c r="C56" s="317"/>
+      <c r="D56" s="317" t="str">
         <f>shartnoma!B123</f>
         <v>88 305 76 67 AYOLI</v>
       </c>
-      <c r="E56" s="313"/>
-      <c r="F56" s="313"/>
+      <c r="E56" s="317"/>
+      <c r="F56" s="317"/>
     </row>
     <row r="57" spans="1:6" ht="15" customHeight="1">
-      <c r="A57" s="313" t="str">
+      <c r="A57" s="317" t="str">
         <f>shartnoma!A124</f>
         <v>(78) 113 31 34</v>
       </c>
-      <c r="B57" s="313"/>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313" t="str">
+      <c r="B57" s="317"/>
+      <c r="C57" s="317"/>
+      <c r="D57" s="317" t="str">
         <f>shartnoma!B124</f>
         <v>88 870 76 67 AKASI</v>
       </c>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
+      <c r="E57" s="317"/>
+      <c r="F57" s="317"/>
     </row>
     <row r="58" spans="1:6" ht="23.25" customHeight="1">
-      <c r="A58" s="313"/>
-      <c r="B58" s="313"/>
-      <c r="C58" s="313"/>
-      <c r="D58" s="313" t="str">
+      <c r="A58" s="317"/>
+      <c r="B58" s="317"/>
+      <c r="C58" s="317"/>
+      <c r="D58" s="317" t="str">
         <f>IF(shartnoma!B125=0,"",shartnoma!B125)</f>
         <v/>
       </c>
-      <c r="E58" s="313"/>
-      <c r="F58" s="313"/>
+      <c r="E58" s="317"/>
+      <c r="F58" s="317"/>
     </row>
     <row r="59" spans="1:6" ht="29.25" customHeight="1">
       <c r="A59" s="229"/>
-      <c r="B59" s="332" t="str">
+      <c r="B59" s="333" t="str">
         <f>malumot!A156</f>
         <v>Olmaliq filiali boshlig'i</v>
       </c>
-      <c r="C59" s="332"/>
-      <c r="D59" s="290" t="str">
+      <c r="C59" s="333"/>
+      <c r="D59" s="291" t="str">
         <f>shartnoma!B127</f>
         <v>A.A.NUTFULLAYEV     __________________</v>
       </c>
-      <c r="E59" s="290"/>
-      <c r="F59" s="290"/>
+      <c r="E59" s="291"/>
+      <c r="F59" s="291"/>
     </row>
     <row r="60" spans="1:6" ht="15" customHeight="1">
       <c r="A60" s="229"/>
-      <c r="B60" s="332" t="str">
+      <c r="B60" s="333" t="str">
         <f>malumot!B156</f>
         <v>V. Yerjanov</v>
       </c>
-      <c r="C60" s="332"/>
-      <c r="D60" s="290"/>
-      <c r="E60" s="290"/>
-      <c r="F60" s="290"/>
+      <c r="C60" s="333"/>
+      <c r="D60" s="291"/>
+      <c r="E60" s="291"/>
+      <c r="F60" s="291"/>
     </row>
     <row r="61" spans="1:6" ht="15.75">
       <c r="A61" s="228"/>
       <c r="B61" s="228"/>
       <c r="C61" s="228"/>
-      <c r="D61" s="290"/>
-      <c r="E61" s="290"/>
-      <c r="F61" s="290"/>
+      <c r="D61" s="291"/>
+      <c r="E61" s="291"/>
+      <c r="F61" s="291"/>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="313"/>
-      <c r="B62" s="313"/>
-      <c r="C62" s="313"/>
-      <c r="D62" s="313"/>
-      <c r="E62" s="313"/>
-      <c r="F62" s="313"/>
+      <c r="A62" s="317"/>
+      <c r="B62" s="317"/>
+      <c r="C62" s="317"/>
+      <c r="D62" s="317"/>
+      <c r="E62" s="317"/>
+      <c r="F62" s="317"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="314"/>
-      <c r="B63" s="314"/>
-      <c r="C63" s="314"/>
-      <c r="D63" s="315"/>
-      <c r="E63" s="315"/>
-      <c r="F63" s="315"/>
+      <c r="A63" s="321"/>
+      <c r="B63" s="321"/>
+      <c r="C63" s="321"/>
+      <c r="D63" s="322"/>
+      <c r="E63" s="322"/>
+      <c r="F63" s="322"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="316"/>
-      <c r="B64" s="316"/>
-      <c r="C64" s="316"/>
-      <c r="D64" s="316"/>
-      <c r="E64" s="316"/>
-      <c r="F64" s="316"/>
+      <c r="A64" s="323"/>
+      <c r="B64" s="323"/>
+      <c r="C64" s="323"/>
+      <c r="D64" s="323"/>
+      <c r="E64" s="323"/>
+      <c r="F64" s="323"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="312"/>
-      <c r="B65" s="312"/>
-      <c r="C65" s="312"/>
-      <c r="D65" s="312"/>
-      <c r="E65" s="312"/>
-      <c r="F65" s="312"/>
+      <c r="A65" s="320"/>
+      <c r="B65" s="320"/>
+      <c r="C65" s="320"/>
+      <c r="D65" s="320"/>
+      <c r="E65" s="320"/>
+      <c r="F65" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C7:C8"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:F54"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A47:F47"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
     <mergeCell ref="B59:C59"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="H12:P24"/>
@@ -10783,6 +10758,31 @@
     <mergeCell ref="D61:F61"/>
     <mergeCell ref="A56:C56"/>
     <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A47:F47"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F54"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="E3:F3"/>
   </mergeCells>
   <conditionalFormatting sqref="B9:B44">
     <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
@@ -10808,7 +10808,7 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A20" sqref="A20:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75"/>
@@ -10838,37 +10838,37 @@
       <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="43.5" customHeight="1">
-      <c r="C4" s="335" t="str">
+      <c r="C4" s="336" t="str">
         <f>malumot!B22&amp;" manzilida istiqomat qiluvchi"</f>
         <v>BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY manzilida istiqomat qiluvchi</v>
       </c>
-      <c r="D4" s="335"/>
+      <c r="D4" s="336"/>
     </row>
     <row r="5" spans="1:4" ht="36" customHeight="1">
-      <c r="C5" s="335" t="str">
+      <c r="C5" s="336" t="str">
         <f>malumot!B5&amp;" tomonidan"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH tomonidan</v>
       </c>
-      <c r="D5" s="335"/>
+      <c r="D5" s="336"/>
     </row>
     <row r="6" spans="1:4" ht="51" customHeight="1">
-      <c r="C6" s="277" t="str">
+      <c r="C6" s="278" t="str">
         <f>"Pasport: "&amp;malumot!B16&amp;", "&amp;malumot!B20</f>
         <v>Pasport: AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="D6" s="277"/>
+      <c r="D6" s="278"/>
     </row>
     <row r="7" spans="1:4">
       <c r="C7" s="8"/>
       <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="286" t="s">
+      <c r="A8" s="279" t="s">
         <v>424</v>
       </c>
-      <c r="B8" s="286"/>
-      <c r="C8" s="286"/>
-      <c r="D8" s="286"/>
+      <c r="B8" s="279"/>
+      <c r="C8" s="279"/>
+      <c r="D8" s="279"/>
     </row>
     <row r="9" spans="1:4" ht="67.5" customHeight="1">
       <c r="A9" s="340" t="str">
@@ -10940,18 +10940,18 @@
       <c r="D14" s="144"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="336"/>
-      <c r="B15" s="336"/>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
+      <c r="A15" s="335"/>
+      <c r="B15" s="335"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="335"/>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A16" s="335" t="str">
+      <c r="A16" s="336" t="str">
         <f>malumot!B5</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B16" s="335"/>
-      <c r="C16" s="335"/>
+      <c r="B16" s="336"/>
+      <c r="C16" s="336"/>
       <c r="D16" s="217" t="s">
         <v>438</v>
       </c>
@@ -10976,17 +10976,17 @@
       <c r="D19" s="132"/>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A20" s="335" t="str">
+      <c r="A20" s="336" t="str">
         <f>malumot!B153&amp;" ijrochi direktori"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktori</v>
       </c>
-      <c r="B20" s="335"/>
+      <c r="B20" s="336"/>
       <c r="C20" s="234"/>
       <c r="D20" s="225"/>
     </row>
     <row r="21" spans="1:4" ht="39" customHeight="1">
-      <c r="A21" s="335"/>
-      <c r="B21" s="335"/>
+      <c r="A21" s="336"/>
+      <c r="B21" s="336"/>
       <c r="C21" s="132"/>
       <c r="D21" s="233" t="s">
         <v>419</v>
@@ -11020,181 +11020,209 @@
       <c r="D25" s="132"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="336"/>
-      <c r="B26" s="336"/>
-      <c r="C26" s="336"/>
-      <c r="D26" s="336"/>
+      <c r="A26" s="335"/>
+      <c r="B26" s="335"/>
+      <c r="C26" s="335"/>
+      <c r="D26" s="335"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="336"/>
-      <c r="B27" s="336"/>
-      <c r="C27" s="336"/>
-      <c r="D27" s="336"/>
+      <c r="A27" s="335"/>
+      <c r="B27" s="335"/>
+      <c r="C27" s="335"/>
+      <c r="D27" s="335"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="336"/>
-      <c r="B28" s="336"/>
-      <c r="C28" s="336"/>
-      <c r="D28" s="336"/>
+      <c r="A28" s="335"/>
+      <c r="B28" s="335"/>
+      <c r="C28" s="335"/>
+      <c r="D28" s="335"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="336"/>
-      <c r="B29" s="336"/>
-      <c r="C29" s="336"/>
-      <c r="D29" s="336"/>
+      <c r="A29" s="335"/>
+      <c r="B29" s="335"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="335"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="336"/>
-      <c r="B30" s="336"/>
-      <c r="C30" s="336"/>
-      <c r="D30" s="336"/>
+      <c r="A30" s="335"/>
+      <c r="B30" s="335"/>
+      <c r="C30" s="335"/>
+      <c r="D30" s="335"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="336"/>
-      <c r="B31" s="336"/>
-      <c r="C31" s="336"/>
-      <c r="D31" s="336"/>
+      <c r="A31" s="335"/>
+      <c r="B31" s="335"/>
+      <c r="C31" s="335"/>
+      <c r="D31" s="335"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="336"/>
-      <c r="B32" s="336"/>
-      <c r="C32" s="336"/>
-      <c r="D32" s="336"/>
+      <c r="A32" s="335"/>
+      <c r="B32" s="335"/>
+      <c r="C32" s="335"/>
+      <c r="D32" s="335"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="336"/>
-      <c r="B33" s="336"/>
-      <c r="C33" s="336"/>
-      <c r="D33" s="336"/>
+      <c r="A33" s="335"/>
+      <c r="B33" s="335"/>
+      <c r="C33" s="335"/>
+      <c r="D33" s="335"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="336"/>
-      <c r="B34" s="336"/>
-      <c r="C34" s="336"/>
-      <c r="D34" s="336"/>
+      <c r="A34" s="335"/>
+      <c r="B34" s="335"/>
+      <c r="C34" s="335"/>
+      <c r="D34" s="335"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="336"/>
-      <c r="B35" s="336"/>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
+      <c r="A35" s="335"/>
+      <c r="B35" s="335"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="336"/>
-      <c r="B36" s="336"/>
-      <c r="C36" s="336"/>
-      <c r="D36" s="336"/>
+      <c r="A36" s="335"/>
+      <c r="B36" s="335"/>
+      <c r="C36" s="335"/>
+      <c r="D36" s="335"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="336"/>
-      <c r="B37" s="336"/>
-      <c r="C37" s="336"/>
-      <c r="D37" s="336"/>
+      <c r="A37" s="335"/>
+      <c r="B37" s="335"/>
+      <c r="C37" s="335"/>
+      <c r="D37" s="335"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="336"/>
-      <c r="B38" s="336"/>
-      <c r="C38" s="336"/>
-      <c r="D38" s="336"/>
+      <c r="A38" s="335"/>
+      <c r="B38" s="335"/>
+      <c r="C38" s="335"/>
+      <c r="D38" s="335"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="336"/>
-      <c r="B39" s="336"/>
-      <c r="C39" s="336"/>
-      <c r="D39" s="336"/>
+      <c r="A39" s="335"/>
+      <c r="B39" s="335"/>
+      <c r="C39" s="335"/>
+      <c r="D39" s="335"/>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="336"/>
-      <c r="B40" s="336"/>
-      <c r="C40" s="336"/>
-      <c r="D40" s="336"/>
+      <c r="A40" s="335"/>
+      <c r="B40" s="335"/>
+      <c r="C40" s="335"/>
+      <c r="D40" s="335"/>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="336"/>
-      <c r="B41" s="336"/>
-      <c r="C41" s="336"/>
-      <c r="D41" s="336"/>
+      <c r="A41" s="335"/>
+      <c r="B41" s="335"/>
+      <c r="C41" s="335"/>
+      <c r="D41" s="335"/>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="336"/>
-      <c r="B42" s="336"/>
-      <c r="C42" s="336"/>
-      <c r="D42" s="336"/>
+      <c r="A42" s="335"/>
+      <c r="B42" s="335"/>
+      <c r="C42" s="335"/>
+      <c r="D42" s="335"/>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="336"/>
-      <c r="B43" s="336"/>
-      <c r="C43" s="336"/>
-      <c r="D43" s="336"/>
+      <c r="A43" s="335"/>
+      <c r="B43" s="335"/>
+      <c r="C43" s="335"/>
+      <c r="D43" s="335"/>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="336"/>
-      <c r="B44" s="336"/>
-      <c r="C44" s="336"/>
-      <c r="D44" s="336"/>
+      <c r="A44" s="335"/>
+      <c r="B44" s="335"/>
+      <c r="C44" s="335"/>
+      <c r="D44" s="335"/>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="336"/>
-      <c r="B45" s="336"/>
-      <c r="C45" s="336"/>
-      <c r="D45" s="336"/>
+      <c r="A45" s="335"/>
+      <c r="B45" s="335"/>
+      <c r="C45" s="335"/>
+      <c r="D45" s="335"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="336"/>
-      <c r="B46" s="336"/>
-      <c r="C46" s="336"/>
-      <c r="D46" s="336"/>
+      <c r="A46" s="335"/>
+      <c r="B46" s="335"/>
+      <c r="C46" s="335"/>
+      <c r="D46" s="335"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="336"/>
-      <c r="B47" s="336"/>
-      <c r="C47" s="336"/>
-      <c r="D47" s="336"/>
+      <c r="A47" s="335"/>
+      <c r="B47" s="335"/>
+      <c r="C47" s="335"/>
+      <c r="D47" s="335"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="336"/>
-      <c r="B48" s="336"/>
-      <c r="C48" s="336"/>
-      <c r="D48" s="336"/>
+      <c r="A48" s="335"/>
+      <c r="B48" s="335"/>
+      <c r="C48" s="335"/>
+      <c r="D48" s="335"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="336"/>
-      <c r="B49" s="336"/>
-      <c r="C49" s="336"/>
-      <c r="D49" s="336"/>
+      <c r="A49" s="335"/>
+      <c r="B49" s="335"/>
+      <c r="C49" s="335"/>
+      <c r="D49" s="335"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="336"/>
-      <c r="B50" s="336"/>
-      <c r="C50" s="336"/>
-      <c r="D50" s="336"/>
+      <c r="A50" s="335"/>
+      <c r="B50" s="335"/>
+      <c r="C50" s="335"/>
+      <c r="D50" s="335"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="336"/>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
+      <c r="A51" s="335"/>
+      <c r="B51" s="335"/>
+      <c r="C51" s="335"/>
+      <c r="D51" s="335"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="336"/>
-      <c r="B52" s="336"/>
-      <c r="C52" s="336"/>
-      <c r="D52" s="336"/>
+      <c r="A52" s="335"/>
+      <c r="B52" s="335"/>
+      <c r="C52" s="335"/>
+      <c r="D52" s="335"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="336"/>
-      <c r="B53" s="336"/>
-      <c r="C53" s="336"/>
-      <c r="D53" s="336"/>
+      <c r="A53" s="335"/>
+      <c r="B53" s="335"/>
+      <c r="C53" s="335"/>
+      <c r="D53" s="335"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="336"/>
-      <c r="B54" s="336"/>
-      <c r="C54" s="336"/>
-      <c r="D54" s="336"/>
+      <c r="A54" s="335"/>
+      <c r="B54" s="335"/>
+      <c r="C54" s="335"/>
+      <c r="D54" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="A20:B21"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A45:D45"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A40:D40"/>
     <mergeCell ref="A53:D53"/>
     <mergeCell ref="A54:D54"/>
     <mergeCell ref="C4:D4"/>
@@ -11211,34 +11239,6 @@
     <mergeCell ref="A42:D42"/>
     <mergeCell ref="A43:D43"/>
     <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A45:D45"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A40:D40"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A20:B21"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="A9:D9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -11269,22 +11269,22 @@
   <sheetData>
     <row r="1" spans="2:7" ht="15.75" thickBot="1"/>
     <row r="2" spans="2:7" ht="62.25" customHeight="1">
-      <c r="B2" s="351" t="str">
+      <c r="B2" s="346" t="str">
         <f>malumot!B154</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ</v>
       </c>
-      <c r="C2" s="352"/>
-      <c r="D2" s="352"/>
-      <c r="E2" s="352"/>
-      <c r="F2" s="353"/>
+      <c r="C2" s="347"/>
+      <c r="D2" s="347"/>
+      <c r="E2" s="347"/>
+      <c r="F2" s="348"/>
       <c r="G2" s="36"/>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="344"/>
-      <c r="C3" s="316"/>
-      <c r="D3" s="316"/>
-      <c r="E3" s="316"/>
-      <c r="F3" s="345"/>
+      <c r="B3" s="341"/>
+      <c r="C3" s="323"/>
+      <c r="D3" s="323"/>
+      <c r="E3" s="323"/>
+      <c r="F3" s="342"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7" ht="8.25" customHeight="1">
@@ -11333,42 +11333,42 @@
       <c r="G9" s="37"/>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="344" t="s">
+      <c r="B10" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="316"/>
-      <c r="D10" s="316"/>
-      <c r="E10" s="316"/>
-      <c r="F10" s="345"/>
+      <c r="C10" s="323"/>
+      <c r="D10" s="323"/>
+      <c r="E10" s="323"/>
+      <c r="F10" s="342"/>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="344" t="s">
+      <c r="B11" s="341" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="316"/>
-      <c r="D11" s="316"/>
-      <c r="E11" s="316"/>
-      <c r="F11" s="345"/>
+      <c r="C11" s="323"/>
+      <c r="D11" s="323"/>
+      <c r="E11" s="323"/>
+      <c r="F11" s="342"/>
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="2:7" ht="135" customHeight="1">
-      <c r="B12" s="354" t="str">
+      <c r="B12" s="349" t="str">
         <f>malumot!B5</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="C12" s="355"/>
-      <c r="D12" s="355"/>
-      <c r="E12" s="355"/>
-      <c r="F12" s="356"/>
+      <c r="C12" s="350"/>
+      <c r="D12" s="350"/>
+      <c r="E12" s="350"/>
+      <c r="F12" s="351"/>
       <c r="G12" s="38"/>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="344"/>
-      <c r="C13" s="316"/>
-      <c r="D13" s="316"/>
-      <c r="E13" s="316"/>
-      <c r="F13" s="345"/>
+      <c r="B13" s="341"/>
+      <c r="C13" s="323"/>
+      <c r="D13" s="323"/>
+      <c r="E13" s="323"/>
+      <c r="F13" s="342"/>
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="2:7">
@@ -11404,106 +11404,106 @@
       <c r="G17" s="37"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="344"/>
-      <c r="C18" s="316"/>
-      <c r="D18" s="316"/>
-      <c r="E18" s="316"/>
-      <c r="F18" s="345"/>
+      <c r="B18" s="341"/>
+      <c r="C18" s="323"/>
+      <c r="D18" s="323"/>
+      <c r="E18" s="323"/>
+      <c r="F18" s="342"/>
       <c r="G18" s="37"/>
     </row>
     <row r="19" spans="2:7" ht="20.25">
-      <c r="B19" s="348" t="str">
+      <c r="B19" s="343" t="str">
         <f>""&amp;malumot!C64&amp;" shartnoma "&amp;malumot!B74&amp;""</f>
         <v>Mikroqarz shartnoma 11 mart 2025 y.dan № 23-AL</v>
       </c>
-      <c r="C19" s="349"/>
-      <c r="D19" s="349"/>
-      <c r="E19" s="349"/>
-      <c r="F19" s="350"/>
+      <c r="C19" s="344"/>
+      <c r="D19" s="344"/>
+      <c r="E19" s="344"/>
+      <c r="F19" s="345"/>
       <c r="G19" s="37"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="344"/>
-      <c r="C20" s="316"/>
-      <c r="D20" s="316"/>
-      <c r="E20" s="316"/>
-      <c r="F20" s="345"/>
+      <c r="B20" s="341"/>
+      <c r="C20" s="323"/>
+      <c r="D20" s="323"/>
+      <c r="E20" s="323"/>
+      <c r="F20" s="342"/>
       <c r="G20" s="37"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="344"/>
-      <c r="C21" s="316"/>
-      <c r="D21" s="316"/>
-      <c r="E21" s="316"/>
-      <c r="F21" s="345"/>
+      <c r="B21" s="341"/>
+      <c r="C21" s="323"/>
+      <c r="D21" s="323"/>
+      <c r="E21" s="323"/>
+      <c r="F21" s="342"/>
       <c r="G21" s="37"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="344"/>
-      <c r="C22" s="316"/>
-      <c r="D22" s="316"/>
-      <c r="E22" s="316"/>
-      <c r="F22" s="345"/>
+      <c r="B22" s="341"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="323"/>
+      <c r="E22" s="323"/>
+      <c r="F22" s="342"/>
       <c r="G22" s="37"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="344"/>
-      <c r="C23" s="316"/>
-      <c r="D23" s="316"/>
-      <c r="E23" s="316"/>
-      <c r="F23" s="345"/>
+      <c r="B23" s="341"/>
+      <c r="C23" s="323"/>
+      <c r="D23" s="323"/>
+      <c r="E23" s="323"/>
+      <c r="F23" s="342"/>
       <c r="G23" s="37"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="346" t="str">
+      <c r="B24" s="355" t="str">
         <f>" Foiz stavkasi: "&amp;malumot!B85&amp;"%"</f>
         <v xml:space="preserve"> Foiz stavkasi: 60%</v>
       </c>
-      <c r="C24" s="294"/>
-      <c r="D24" s="294"/>
-      <c r="E24" s="294"/>
-      <c r="F24" s="347"/>
+      <c r="C24" s="293"/>
+      <c r="D24" s="293"/>
+      <c r="E24" s="293"/>
+      <c r="F24" s="356"/>
       <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:7" ht="15" customHeight="1">
-      <c r="B25" s="346" t="str">
+      <c r="B25" s="355" t="str">
         <f>" "&amp;malumot!C64&amp;" muddati: "&amp;malumot!B81&amp;" oy"</f>
         <v xml:space="preserve"> Mikroqarz muddati: 36 oy</v>
       </c>
-      <c r="C25" s="294"/>
-      <c r="D25" s="294"/>
-      <c r="E25" s="294"/>
-      <c r="F25" s="347"/>
+      <c r="C25" s="293"/>
+      <c r="D25" s="293"/>
+      <c r="E25" s="293"/>
+      <c r="F25" s="356"/>
       <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="346" t="str">
+      <c r="B26" s="355" t="str">
         <f>" "&amp;malumot!C64&amp;" miqdori: "&amp;FIXED(malumot!B75,2)&amp;" so'm"</f>
         <v xml:space="preserve"> Mikroqarz miqdori: 27 000 000,00 so'm</v>
       </c>
-      <c r="C26" s="294"/>
-      <c r="D26" s="294"/>
-      <c r="E26" s="294"/>
-      <c r="F26" s="347"/>
+      <c r="C26" s="293"/>
+      <c r="D26" s="293"/>
+      <c r="E26" s="293"/>
+      <c r="F26" s="356"/>
       <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="344"/>
-      <c r="C27" s="316"/>
-      <c r="D27" s="316"/>
-      <c r="E27" s="316"/>
-      <c r="F27" s="345"/>
+      <c r="B27" s="341"/>
+      <c r="C27" s="323"/>
+      <c r="D27" s="323"/>
+      <c r="E27" s="323"/>
+      <c r="F27" s="342"/>
       <c r="G27" s="37"/>
     </row>
     <row r="28" spans="2:7" hidden="1">
       <c r="G28" s="37"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="344"/>
-      <c r="C29" s="316"/>
-      <c r="D29" s="316"/>
-      <c r="E29" s="316"/>
-      <c r="F29" s="345"/>
+      <c r="B29" s="341"/>
+      <c r="C29" s="323"/>
+      <c r="D29" s="323"/>
+      <c r="E29" s="323"/>
+      <c r="F29" s="342"/>
       <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:7" ht="12.75" customHeight="1">
@@ -11587,43 +11587,34 @@
       <c r="G39" s="37"/>
     </row>
     <row r="40" spans="2:7" ht="15.75" thickBot="1">
-      <c r="B40" s="341" t="str">
+      <c r="B40" s="352" t="str">
         <f>"Toshkent sh., "&amp;malumot!B70&amp;""</f>
         <v>Toshkent sh., 11 mart 2025 y.</v>
       </c>
-      <c r="C40" s="342"/>
-      <c r="D40" s="342"/>
-      <c r="E40" s="342"/>
-      <c r="F40" s="343"/>
+      <c r="C40" s="353"/>
+      <c r="D40" s="353"/>
+      <c r="E40" s="353"/>
+      <c r="F40" s="354"/>
       <c r="G40" s="37"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="316"/>
-      <c r="C41" s="316"/>
-      <c r="D41" s="316"/>
-      <c r="E41" s="316"/>
-      <c r="F41" s="316"/>
+      <c r="B41" s="323"/>
+      <c r="C41" s="323"/>
+      <c r="D41" s="323"/>
+      <c r="E41" s="323"/>
+      <c r="F41" s="323"/>
       <c r="G41" s="37"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="316"/>
-      <c r="C42" s="316"/>
-      <c r="D42" s="316"/>
-      <c r="E42" s="316"/>
-      <c r="F42" s="316"/>
+      <c r="B42" s="323"/>
+      <c r="C42" s="323"/>
+      <c r="D42" s="323"/>
+      <c r="E42" s="323"/>
+      <c r="F42" s="323"/>
       <c r="G42" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B13:F13"/>
     <mergeCell ref="B40:F40"/>
     <mergeCell ref="B41:F41"/>
     <mergeCell ref="B42:F42"/>
@@ -11635,6 +11626,15 @@
     <mergeCell ref="B24:F24"/>
     <mergeCell ref="B25:F25"/>
     <mergeCell ref="B26:F26"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -11659,34 +11659,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="358" t="s">
+      <c r="A1" s="361" t="s">
         <v>215</v>
       </c>
-      <c r="B1" s="358"/>
-      <c r="C1" s="358"/>
-      <c r="D1" s="358"/>
-      <c r="E1" s="358"/>
-      <c r="F1" s="358"/>
+      <c r="B1" s="361"/>
+      <c r="C1" s="361"/>
+      <c r="D1" s="361"/>
+      <c r="E1" s="361"/>
+      <c r="F1" s="361"/>
     </row>
     <row r="2" spans="1:6" ht="35.25" customHeight="1">
-      <c r="A2" s="359" t="s">
+      <c r="A2" s="362" t="s">
         <v>323</v>
       </c>
-      <c r="B2" s="359"/>
-      <c r="C2" s="359"/>
-      <c r="D2" s="359"/>
-      <c r="E2" s="359"/>
-      <c r="F2" s="359"/>
+      <c r="B2" s="362"/>
+      <c r="C2" s="362"/>
+      <c r="D2" s="362"/>
+      <c r="E2" s="362"/>
+      <c r="F2" s="362"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="358" t="s">
+      <c r="A3" s="361" t="s">
         <v>216</v>
       </c>
-      <c r="B3" s="358"/>
-      <c r="C3" s="358"/>
-      <c r="D3" s="358"/>
-      <c r="E3" s="358"/>
-      <c r="F3" s="358"/>
+      <c r="B3" s="361"/>
+      <c r="C3" s="361"/>
+      <c r="D3" s="361"/>
+      <c r="E3" s="361"/>
+      <c r="F3" s="361"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="357" t="str">
@@ -11777,14 +11777,14 @@
       <c r="F11" s="357"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="358" t="s">
+      <c r="A12" s="361" t="s">
         <v>217</v>
       </c>
-      <c r="B12" s="358"/>
-      <c r="C12" s="358"/>
-      <c r="D12" s="358"/>
-      <c r="E12" s="358"/>
-      <c r="F12" s="358"/>
+      <c r="B12" s="361"/>
+      <c r="C12" s="361"/>
+      <c r="D12" s="361"/>
+      <c r="E12" s="361"/>
+      <c r="F12" s="361"/>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="357" t="str">
@@ -11842,14 +11842,14 @@
       <c r="F17" s="357"/>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" s="358" t="s">
+      <c r="A18" s="361" t="s">
         <v>218</v>
       </c>
-      <c r="B18" s="358"/>
-      <c r="C18" s="358"/>
-      <c r="D18" s="358"/>
-      <c r="E18" s="358"/>
-      <c r="F18" s="358"/>
+      <c r="B18" s="361"/>
+      <c r="C18" s="361"/>
+      <c r="D18" s="361"/>
+      <c r="E18" s="361"/>
+      <c r="F18" s="361"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="357" t="str">
@@ -11885,14 +11885,14 @@
       <c r="F21" s="357"/>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="358" t="s">
+      <c r="A22" s="361" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="360"/>
-      <c r="C22" s="360"/>
-      <c r="D22" s="360"/>
-      <c r="E22" s="360"/>
-      <c r="F22" s="360"/>
+      <c r="B22" s="358"/>
+      <c r="C22" s="358"/>
+      <c r="D22" s="358"/>
+      <c r="E22" s="358"/>
+      <c r="F22" s="358"/>
     </row>
     <row r="23" spans="1:6" s="21" customFormat="1" ht="25.5">
       <c r="A23" s="20" t="s">
@@ -12061,37 +12061,37 @@
       <c r="F33" s="357"/>
     </row>
     <row r="34" spans="1:6" ht="12.75" customHeight="1">
-      <c r="A34" s="360" t="s">
+      <c r="A34" s="358" t="s">
         <v>233</v>
       </c>
-      <c r="B34" s="360"/>
-      <c r="C34" s="360"/>
+      <c r="B34" s="358"/>
+      <c r="C34" s="358"/>
       <c r="D34" s="129" t="s">
         <v>156</v>
       </c>
-      <c r="E34" s="360" t="s">
+      <c r="E34" s="358" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="360"/>
+      <c r="F34" s="358"/>
     </row>
     <row r="35" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A35" s="361"/>
-      <c r="B35" s="361"/>
-      <c r="C35" s="361"/>
-      <c r="D35" s="362" t="str">
+      <c r="A35" s="359"/>
+      <c r="B35" s="359"/>
+      <c r="C35" s="359"/>
+      <c r="D35" s="360" t="str">
         <f>malumot!B2</f>
         <v>11.03.2025</v>
       </c>
-      <c r="E35" s="361"/>
-      <c r="F35" s="361"/>
+      <c r="E35" s="359"/>
+      <c r="F35" s="359"/>
     </row>
     <row r="36" spans="1:6" ht="25.5" customHeight="1">
-      <c r="A36" s="361"/>
-      <c r="B36" s="361"/>
-      <c r="C36" s="361"/>
-      <c r="D36" s="362"/>
-      <c r="E36" s="361"/>
-      <c r="F36" s="361"/>
+      <c r="A36" s="359"/>
+      <c r="B36" s="359"/>
+      <c r="C36" s="359"/>
+      <c r="D36" s="360"/>
+      <c r="E36" s="359"/>
+      <c r="F36" s="359"/>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="357"/>
@@ -12151,24 +12151,13 @@
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="E35:F36"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="A37:F37"/>
-    <mergeCell ref="A38:F38"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="A40:F40"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="A28:F28"/>
@@ -12185,13 +12174,24 @@
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="E35:F36"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A38:F38"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
@@ -12222,11 +12222,11 @@
       <c r="B3" s="363"/>
     </row>
     <row r="4" spans="1:2" ht="92.25" customHeight="1">
-      <c r="A4" s="291" t="str">
+      <c r="A4" s="290" t="str">
         <f>"     Men, fuqaro "&amp;malumot!B5&amp;" "&amp;malumot!B155&amp;" bilan "&amp;malumot!B69&amp;" sanasidagi "&amp;malumot!B66&amp;"-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk "&amp;malumot!B131&amp;" rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman."</f>
         <v xml:space="preserve">     Men, fuqaro NUTFULLAYEV AKBARJON AXMEDOVICH «CLEVER MIKROMOLIYA TASHKILOTI» MChJ bilan 11 mart 2025 y. sanasidagi № 23-AL-sonli shartnomaning garov ta'minoti sifatida taqdim etilayotgan mulk CHANGAN CHANGAN SC 1027SB rusumli avtotransport vositasini qonunga xilof ravishda o‘zlashtirmaslikka, yashirmaslikka, nobud qilmaslikka yoki unga shikast yetkazmaslik majburiyatini olaman.</v>
       </c>
-      <c r="B4" s="291"/>
+      <c r="B4" s="290"/>
     </row>
     <row r="5" spans="1:2" ht="56.25" customHeight="1">
       <c r="A5" s="364" t="s">
@@ -12271,7 +12271,7 @@
   </sheetPr>
   <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A29" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -12285,13 +12285,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="66.75" customHeight="1">
-      <c r="C1" s="365" t="str">
+      <c r="C1" s="367" t="str">
         <f>""&amp;malumot!B153&amp;"ning
 "&amp;malumot!A156&amp;""</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning
 Olmaliq filiali boshlig'i</v>
       </c>
-      <c r="D1" s="365"/>
+      <c r="D1" s="367"/>
     </row>
     <row r="2" spans="1:4">
       <c r="C2" s="8"/>
@@ -12301,118 +12301,118 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="286" t="str">
+      <c r="A4" s="279" t="str">
         <f>""&amp;malumot!C64&amp;" olish uchun Ariza"</f>
         <v>Mikroqarz olish uchun Ariza</v>
       </c>
-      <c r="B4" s="286"/>
-      <c r="C4" s="286"/>
-      <c r="D4" s="286"/>
+      <c r="B4" s="279"/>
+      <c r="C4" s="279"/>
+      <c r="D4" s="279"/>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="286"/>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
+      <c r="A5" s="279"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
     </row>
     <row r="6" spans="1:4" ht="36" customHeight="1">
-      <c r="A6" s="336" t="str">
+      <c r="A6" s="335" t="str">
         <f>""&amp;malumot!B28&amp;".-da yashovchi O‘zbekiston Respublikasi fuqarosi "&amp;malumot!B8&amp;"dan. "</f>
         <v xml:space="preserve">BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY.-da yashovchi O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICHdan. </v>
       </c>
-      <c r="B6" s="336"/>
-      <c r="C6" s="336"/>
-      <c r="D6" s="336"/>
+      <c r="B6" s="335"/>
+      <c r="C6" s="335"/>
+      <c r="D6" s="335"/>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A7" s="336" t="str">
+      <c r="A7" s="335" t="str">
         <f>"Tug'ilgan kuni: "&amp;malumot!B15&amp;""</f>
         <v>Tug'ilgan kuni: 14.09.1989 y</v>
       </c>
-      <c r="B7" s="336"/>
-      <c r="C7" s="336"/>
-      <c r="D7" s="336"/>
+      <c r="B7" s="335"/>
+      <c r="C7" s="335"/>
+      <c r="D7" s="335"/>
     </row>
     <row r="8" spans="1:4" ht="33" customHeight="1">
-      <c r="A8" s="336" t="str">
+      <c r="A8" s="335" t="str">
         <f>"Pasport seriyasi: "&amp;malumot!B16&amp;" "&amp;malumot!B20&amp;""</f>
         <v>Pasport seriyasi: AA 9481167 BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="B8" s="336"/>
-      <c r="C8" s="336"/>
-      <c r="D8" s="336"/>
+      <c r="B8" s="335"/>
+      <c r="C8" s="335"/>
+      <c r="D8" s="335"/>
     </row>
     <row r="9" spans="1:4" ht="16.5" customHeight="1">
-      <c r="A9" s="336" t="str">
+      <c r="A9" s="335" t="str">
         <f>"Asosiy ish joyi : "&amp;malumot!B58&amp;""</f>
         <v>Asosiy ish joyi : Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B9" s="336"/>
-      <c r="C9" s="336"/>
-      <c r="D9" s="336"/>
+      <c r="B9" s="335"/>
+      <c r="C9" s="335"/>
+      <c r="D9" s="335"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A10" s="336" t="str">
+      <c r="A10" s="335" t="str">
         <f>"Lavozimi: "&amp;malumot!B59&amp;""</f>
         <v>Lavozimi: Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B10" s="336"/>
-      <c r="C10" s="336"/>
-      <c r="D10" s="336"/>
+      <c r="B10" s="335"/>
+      <c r="C10" s="335"/>
+      <c r="D10" s="335"/>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="336" t="str">
+      <c r="A11" s="335" t="str">
         <f>"O’rtacha oylik daromadi: "&amp;FIXED(malumot!B60,2)&amp;" so'm."</f>
         <v>O’rtacha oylik daromadi: 10 000 000,00 so'm.</v>
       </c>
-      <c r="B11" s="336"/>
-      <c r="C11" s="336"/>
-      <c r="D11" s="336"/>
+      <c r="B11" s="335"/>
+      <c r="C11" s="335"/>
+      <c r="D11" s="335"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="336" t="str">
+      <c r="A12" s="335" t="str">
         <f>"Menga quyidagi shartlarda "&amp;malumot!B65&amp;" berishingizni so’rayman:"</f>
         <v>Menga quyidagi shartlarda mikroqarz berishingizni so’rayman:</v>
       </c>
-      <c r="B12" s="336"/>
-      <c r="C12" s="336"/>
-      <c r="D12" s="336"/>
+      <c r="B12" s="335"/>
+      <c r="C12" s="335"/>
+      <c r="D12" s="335"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="336" t="str">
+      <c r="A13" s="335" t="str">
         <f>""&amp;malumot!C64&amp;" summasi: "&amp;FIXED(malumot!B75,2)&amp;" ("&amp;malumot!B76&amp;") so'm."</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B13" s="336"/>
-      <c r="C13" s="336"/>
-      <c r="D13" s="336"/>
+      <c r="B13" s="335"/>
+      <c r="C13" s="335"/>
+      <c r="D13" s="335"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="336" t="str">
+      <c r="A14" s="335" t="str">
         <f>""&amp;malumot!C64&amp;" muddati: "&amp;malumot!B81&amp;" ("&amp;malumot!B82&amp;") oy."</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B14" s="336"/>
-      <c r="C14" s="336"/>
-      <c r="D14" s="336"/>
+      <c r="B14" s="335"/>
+      <c r="C14" s="335"/>
+      <c r="D14" s="335"/>
     </row>
     <row r="15" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A15" s="336" t="str">
+      <c r="A15" s="335" t="str">
         <f>""&amp;malumot!C64&amp;"dan foydalanganlik uchun foiz stavkasi: yillik  "&amp;malumot!B85&amp;"% ("&amp;malumot!B86&amp;") foiz"</f>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B15" s="336"/>
-      <c r="C15" s="336"/>
-      <c r="D15" s="336"/>
+      <c r="B15" s="335"/>
+      <c r="C15" s="335"/>
+      <c r="D15" s="335"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="336" t="str">
+      <c r="A16" s="335" t="str">
         <f>""&amp;malumot!C64&amp;" bo'yicha asosiy qarz va foizlarni to'lash:"</f>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B16" s="336"/>
-      <c r="C16" s="336"/>
-      <c r="D16" s="336"/>
+      <c r="B16" s="335"/>
+      <c r="C16" s="335"/>
+      <c r="D16" s="335"/>
     </row>
     <row r="17" spans="1:5" ht="20.25" hidden="1" customHeight="1">
       <c r="A17" s="366" t="str">
@@ -12442,22 +12442,22 @@
       <c r="D19" s="366"/>
     </row>
     <row r="20" spans="1:5" ht="33.75" hidden="1" customHeight="1">
-      <c r="A20" s="336" t="str">
+      <c r="A20" s="335" t="str">
         <f>IF(DAY(malumot!E67)&lt;15,"   ","  Oxirgi yakuniy to'lov "&amp;malumot!B65&amp;" shartnomasi tuzilgan kundan boshlab oxirgi oyning oxirgi kunida amalga oshiriladi")</f>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B20" s="336"/>
-      <c r="C20" s="336"/>
-      <c r="D20" s="336"/>
+      <c r="B20" s="335"/>
+      <c r="C20" s="335"/>
+      <c r="D20" s="335"/>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="336" t="str">
+      <c r="A21" s="335" t="str">
         <f>""&amp;malumot!C64&amp;" ta’minoti::"</f>
         <v>Mikroqarz ta’minoti::</v>
       </c>
-      <c r="B21" s="336"/>
-      <c r="C21" s="336"/>
-      <c r="D21" s="336"/>
+      <c r="B21" s="335"/>
+      <c r="C21" s="335"/>
+      <c r="D21" s="335"/>
     </row>
     <row r="22" spans="1:5" ht="72.75" customHeight="1">
       <c r="A22" s="366" t="str">
@@ -12524,10 +12524,10 @@
       <c r="D28" s="366"/>
     </row>
     <row r="29" spans="1:5" ht="10.5" customHeight="1">
-      <c r="A29" s="336"/>
-      <c r="B29" s="336"/>
-      <c r="C29" s="336"/>
-      <c r="D29" s="336"/>
+      <c r="A29" s="335"/>
+      <c r="B29" s="335"/>
+      <c r="C29" s="335"/>
+      <c r="D29" s="335"/>
     </row>
     <row r="30" spans="1:5" ht="53.25" customHeight="1">
       <c r="A30" s="366" t="str">
@@ -12563,47 +12563,47 @@
       <c r="D33" s="366"/>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="336" t="str">
+      <c r="A34" s="335" t="str">
         <f>"Ariza berilgan sana: "&amp;TEXT(malumot!B2,"ДД.ММ.ГГГГ")&amp;"y."</f>
         <v>Ariza berilgan sana: 11.03.2025y.</v>
       </c>
-      <c r="B34" s="336"/>
-      <c r="C34" s="336"/>
-      <c r="D34" s="336"/>
+      <c r="B34" s="335"/>
+      <c r="C34" s="335"/>
+      <c r="D34" s="335"/>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="336"/>
-      <c r="B35" s="336"/>
-      <c r="C35" s="336"/>
-      <c r="D35" s="336"/>
+      <c r="A35" s="335"/>
+      <c r="B35" s="335"/>
+      <c r="C35" s="335"/>
+      <c r="D35" s="335"/>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="336" t="s">
+      <c r="A36" s="335" t="s">
         <v>249</v>
       </c>
-      <c r="B36" s="336"/>
-      <c r="C36" s="336"/>
-      <c r="D36" s="336"/>
+      <c r="B36" s="335"/>
+      <c r="C36" s="335"/>
+      <c r="D36" s="335"/>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="336"/>
-      <c r="B37" s="336"/>
-      <c r="C37" s="336"/>
-      <c r="D37" s="336"/>
+      <c r="A37" s="335"/>
+      <c r="B37" s="335"/>
+      <c r="C37" s="335"/>
+      <c r="D37" s="335"/>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="336"/>
-      <c r="B38" s="336"/>
-      <c r="C38" s="336"/>
-      <c r="D38" s="336"/>
+      <c r="A38" s="335"/>
+      <c r="B38" s="335"/>
+      <c r="C38" s="335"/>
+      <c r="D38" s="335"/>
     </row>
     <row r="39" spans="1:4" ht="15.75" customHeight="1">
-      <c r="A39" s="335" t="str">
+      <c r="A39" s="336" t="str">
         <f>malumot!B5</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B39" s="335"/>
-      <c r="C39" s="335"/>
+      <c r="B39" s="336"/>
+      <c r="C39" s="336"/>
       <c r="D39" s="236" t="s">
         <v>438</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="C42" s="132"/>
       <c r="D42" s="132"/>
     </row>
-    <row r="43" spans="1:4" ht="31.5">
+    <row r="43" spans="1:4" ht="42" customHeight="1">
       <c r="A43" s="272" t="str">
         <f>malumot!A156</f>
         <v>Olmaliq filiali boshlig'i</v>
@@ -12651,205 +12651,259 @@
       <c r="D45" s="271"/>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="367"/>
-      <c r="B46" s="367"/>
-      <c r="C46" s="367"/>
-      <c r="D46" s="367"/>
+      <c r="A46" s="365"/>
+      <c r="B46" s="365"/>
+      <c r="C46" s="365"/>
+      <c r="D46" s="365"/>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="367"/>
-      <c r="B47" s="367"/>
-      <c r="C47" s="367"/>
-      <c r="D47" s="367"/>
+      <c r="A47" s="365"/>
+      <c r="B47" s="365"/>
+      <c r="C47" s="365"/>
+      <c r="D47" s="365"/>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="367"/>
-      <c r="B48" s="367"/>
-      <c r="C48" s="367"/>
-      <c r="D48" s="367"/>
+      <c r="A48" s="365"/>
+      <c r="B48" s="365"/>
+      <c r="C48" s="365"/>
+      <c r="D48" s="365"/>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="367"/>
-      <c r="B49" s="367"/>
-      <c r="C49" s="367"/>
-      <c r="D49" s="367"/>
+      <c r="A49" s="365"/>
+      <c r="B49" s="365"/>
+      <c r="C49" s="365"/>
+      <c r="D49" s="365"/>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="336"/>
-      <c r="B50" s="336"/>
-      <c r="C50" s="336"/>
-      <c r="D50" s="336"/>
+      <c r="A50" s="335"/>
+      <c r="B50" s="335"/>
+      <c r="C50" s="335"/>
+      <c r="D50" s="335"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="336"/>
-      <c r="B51" s="336"/>
-      <c r="C51" s="336"/>
-      <c r="D51" s="336"/>
+      <c r="A51" s="335"/>
+      <c r="B51" s="335"/>
+      <c r="C51" s="335"/>
+      <c r="D51" s="335"/>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="336"/>
-      <c r="B52" s="336"/>
-      <c r="C52" s="336"/>
-      <c r="D52" s="336"/>
+      <c r="A52" s="335"/>
+      <c r="B52" s="335"/>
+      <c r="C52" s="335"/>
+      <c r="D52" s="335"/>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="336"/>
-      <c r="B53" s="336"/>
-      <c r="C53" s="336"/>
-      <c r="D53" s="336"/>
+      <c r="A53" s="335"/>
+      <c r="B53" s="335"/>
+      <c r="C53" s="335"/>
+      <c r="D53" s="335"/>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="336"/>
-      <c r="B54" s="336"/>
-      <c r="C54" s="336"/>
-      <c r="D54" s="336"/>
+      <c r="A54" s="335"/>
+      <c r="B54" s="335"/>
+      <c r="C54" s="335"/>
+      <c r="D54" s="335"/>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="336"/>
-      <c r="B55" s="336"/>
-      <c r="C55" s="336"/>
-      <c r="D55" s="336"/>
+      <c r="A55" s="335"/>
+      <c r="B55" s="335"/>
+      <c r="C55" s="335"/>
+      <c r="D55" s="335"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="336"/>
-      <c r="B56" s="336"/>
-      <c r="C56" s="336"/>
-      <c r="D56" s="336"/>
+      <c r="A56" s="335"/>
+      <c r="B56" s="335"/>
+      <c r="C56" s="335"/>
+      <c r="D56" s="335"/>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="336"/>
-      <c r="B57" s="336"/>
-      <c r="C57" s="336"/>
-      <c r="D57" s="336"/>
+      <c r="A57" s="335"/>
+      <c r="B57" s="335"/>
+      <c r="C57" s="335"/>
+      <c r="D57" s="335"/>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="336"/>
-      <c r="B58" s="336"/>
-      <c r="C58" s="336"/>
-      <c r="D58" s="336"/>
+      <c r="A58" s="335"/>
+      <c r="B58" s="335"/>
+      <c r="C58" s="335"/>
+      <c r="D58" s="335"/>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="336"/>
-      <c r="B59" s="336"/>
-      <c r="C59" s="336"/>
-      <c r="D59" s="336"/>
+      <c r="A59" s="335"/>
+      <c r="B59" s="335"/>
+      <c r="C59" s="335"/>
+      <c r="D59" s="335"/>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="336"/>
-      <c r="B60" s="336"/>
-      <c r="C60" s="336"/>
-      <c r="D60" s="336"/>
+      <c r="A60" s="335"/>
+      <c r="B60" s="335"/>
+      <c r="C60" s="335"/>
+      <c r="D60" s="335"/>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="336"/>
-      <c r="B61" s="336"/>
-      <c r="C61" s="336"/>
-      <c r="D61" s="336"/>
+      <c r="A61" s="335"/>
+      <c r="B61" s="335"/>
+      <c r="C61" s="335"/>
+      <c r="D61" s="335"/>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="336"/>
-      <c r="B62" s="336"/>
-      <c r="C62" s="336"/>
-      <c r="D62" s="336"/>
+      <c r="A62" s="335"/>
+      <c r="B62" s="335"/>
+      <c r="C62" s="335"/>
+      <c r="D62" s="335"/>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="336"/>
-      <c r="B63" s="336"/>
-      <c r="C63" s="336"/>
-      <c r="D63" s="336"/>
+      <c r="A63" s="335"/>
+      <c r="B63" s="335"/>
+      <c r="C63" s="335"/>
+      <c r="D63" s="335"/>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="336"/>
-      <c r="B64" s="336"/>
-      <c r="C64" s="336"/>
-      <c r="D64" s="336"/>
+      <c r="A64" s="335"/>
+      <c r="B64" s="335"/>
+      <c r="C64" s="335"/>
+      <c r="D64" s="335"/>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="336"/>
-      <c r="B65" s="336"/>
-      <c r="C65" s="336"/>
-      <c r="D65" s="336"/>
+      <c r="A65" s="335"/>
+      <c r="B65" s="335"/>
+      <c r="C65" s="335"/>
+      <c r="D65" s="335"/>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="336"/>
-      <c r="B66" s="336"/>
-      <c r="C66" s="336"/>
-      <c r="D66" s="336"/>
+      <c r="A66" s="335"/>
+      <c r="B66" s="335"/>
+      <c r="C66" s="335"/>
+      <c r="D66" s="335"/>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="336"/>
-      <c r="B67" s="336"/>
-      <c r="C67" s="336"/>
-      <c r="D67" s="336"/>
+      <c r="A67" s="335"/>
+      <c r="B67" s="335"/>
+      <c r="C67" s="335"/>
+      <c r="D67" s="335"/>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="336"/>
-      <c r="B68" s="336"/>
-      <c r="C68" s="336"/>
-      <c r="D68" s="336"/>
+      <c r="A68" s="335"/>
+      <c r="B68" s="335"/>
+      <c r="C68" s="335"/>
+      <c r="D68" s="335"/>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="336"/>
-      <c r="B69" s="336"/>
-      <c r="C69" s="336"/>
-      <c r="D69" s="336"/>
+      <c r="A69" s="335"/>
+      <c r="B69" s="335"/>
+      <c r="C69" s="335"/>
+      <c r="D69" s="335"/>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="336"/>
-      <c r="B70" s="336"/>
-      <c r="C70" s="336"/>
-      <c r="D70" s="336"/>
+      <c r="A70" s="335"/>
+      <c r="B70" s="335"/>
+      <c r="C70" s="335"/>
+      <c r="D70" s="335"/>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="336"/>
-      <c r="B71" s="336"/>
-      <c r="C71" s="336"/>
-      <c r="D71" s="336"/>
+      <c r="A71" s="335"/>
+      <c r="B71" s="335"/>
+      <c r="C71" s="335"/>
+      <c r="D71" s="335"/>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="336"/>
-      <c r="B72" s="336"/>
-      <c r="C72" s="336"/>
-      <c r="D72" s="336"/>
+      <c r="A72" s="335"/>
+      <c r="B72" s="335"/>
+      <c r="C72" s="335"/>
+      <c r="D72" s="335"/>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="336"/>
-      <c r="B73" s="336"/>
-      <c r="C73" s="336"/>
-      <c r="D73" s="336"/>
+      <c r="A73" s="335"/>
+      <c r="B73" s="335"/>
+      <c r="C73" s="335"/>
+      <c r="D73" s="335"/>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="336"/>
-      <c r="B74" s="336"/>
-      <c r="C74" s="336"/>
-      <c r="D74" s="336"/>
+      <c r="A74" s="335"/>
+      <c r="B74" s="335"/>
+      <c r="C74" s="335"/>
+      <c r="D74" s="335"/>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="336"/>
-      <c r="B75" s="336"/>
-      <c r="C75" s="336"/>
-      <c r="D75" s="336"/>
+      <c r="A75" s="335"/>
+      <c r="B75" s="335"/>
+      <c r="C75" s="335"/>
+      <c r="D75" s="335"/>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="336"/>
-      <c r="B76" s="336"/>
-      <c r="C76" s="336"/>
-      <c r="D76" s="336"/>
+      <c r="A76" s="335"/>
+      <c r="B76" s="335"/>
+      <c r="C76" s="335"/>
+      <c r="D76" s="335"/>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="336"/>
-      <c r="B77" s="336"/>
-      <c r="C77" s="336"/>
-      <c r="D77" s="336"/>
+      <c r="A77" s="335"/>
+      <c r="B77" s="335"/>
+      <c r="C77" s="335"/>
+      <c r="D77" s="335"/>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="336"/>
-      <c r="B78" s="336"/>
-      <c r="C78" s="336"/>
-      <c r="D78" s="336"/>
+      <c r="A78" s="335"/>
+      <c r="B78" s="335"/>
+      <c r="C78" s="335"/>
+      <c r="D78" s="335"/>
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A30:D30"/>
+    <mergeCell ref="A31:D31"/>
+    <mergeCell ref="A32:D32"/>
+    <mergeCell ref="A33:D33"/>
+    <mergeCell ref="A28:D28"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A34:D34"/>
+    <mergeCell ref="A35:D35"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D37"/>
+    <mergeCell ref="A38:D38"/>
+    <mergeCell ref="A46:D46"/>
+    <mergeCell ref="A47:D47"/>
+    <mergeCell ref="A48:D48"/>
+    <mergeCell ref="A49:D49"/>
+    <mergeCell ref="A50:D50"/>
+    <mergeCell ref="A51:D51"/>
+    <mergeCell ref="A52:D52"/>
+    <mergeCell ref="A53:D53"/>
+    <mergeCell ref="A54:D54"/>
+    <mergeCell ref="A55:D55"/>
+    <mergeCell ref="A63:D63"/>
+    <mergeCell ref="A64:D64"/>
+    <mergeCell ref="A65:D65"/>
+    <mergeCell ref="A56:D56"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A58:D58"/>
+    <mergeCell ref="A59:D59"/>
+    <mergeCell ref="A60:D60"/>
     <mergeCell ref="A76:D76"/>
     <mergeCell ref="A77:D77"/>
     <mergeCell ref="A78:D78"/>
@@ -12866,60 +12920,6 @@
     <mergeCell ref="A70:D70"/>
     <mergeCell ref="A61:D61"/>
     <mergeCell ref="A62:D62"/>
-    <mergeCell ref="A63:D63"/>
-    <mergeCell ref="A64:D64"/>
-    <mergeCell ref="A65:D65"/>
-    <mergeCell ref="A56:D56"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A58:D58"/>
-    <mergeCell ref="A59:D59"/>
-    <mergeCell ref="A60:D60"/>
-    <mergeCell ref="A51:D51"/>
-    <mergeCell ref="A52:D52"/>
-    <mergeCell ref="A53:D53"/>
-    <mergeCell ref="A54:D54"/>
-    <mergeCell ref="A55:D55"/>
-    <mergeCell ref="A46:D46"/>
-    <mergeCell ref="A47:D47"/>
-    <mergeCell ref="A48:D48"/>
-    <mergeCell ref="A49:D49"/>
-    <mergeCell ref="A50:D50"/>
-    <mergeCell ref="A34:D34"/>
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D37"/>
-    <mergeCell ref="A38:D38"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:D15"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
@@ -12931,10 +12931,10 @@
   <sheetPr codeName="Лист8">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A5:C32"/>
+  <dimension ref="A5:XFD32"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A12" zoomScale="160" zoomScaleNormal="100" zoomScaleSheetLayoutView="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15.75" zeroHeight="1"/>
@@ -12942,7 +12942,8 @@
     <col min="1" max="1" width="26" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.28515625" style="4" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" style="4" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="4" hidden="1"/>
+    <col min="4" max="16383" width="9.140625" style="4" hidden="1"/>
+    <col min="16384" max="16384" width="1.7109375" style="4" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="5" spans="1:3"/>
@@ -13206,44 +13207,44 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="373" t="str">
+      <c r="A13" s="370" t="str">
         <f>buyruq!A21:E21</f>
         <v>-* ko'chmas mulk egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B13" s="373"/>
-      <c r="C13" s="373"/>
-      <c r="D13" s="373"/>
-      <c r="E13" s="373"/>
+      <c r="B13" s="370"/>
+      <c r="C13" s="370"/>
+      <c r="D13" s="370"/>
+      <c r="E13" s="370"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="373" t="str">
+      <c r="A14" s="370" t="str">
         <f>buyruq!A22:E22</f>
         <v>-* reest raqami: 13.12.2020 yildan 1718238/R-A1419303</v>
       </c>
-      <c r="B14" s="373"/>
-      <c r="C14" s="373"/>
-      <c r="D14" s="373"/>
-      <c r="E14" s="373"/>
+      <c r="B14" s="370"/>
+      <c r="C14" s="370"/>
+      <c r="D14" s="370"/>
+      <c r="E14" s="370"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="373" t="str">
+      <c r="A15" s="370" t="str">
         <f>buyruq!A23:E23</f>
         <v>-*  kadastr raqami: 16.12.2020 yildan №14:13:02:01:03:1179:0006:058</v>
       </c>
-      <c r="B15" s="373"/>
-      <c r="C15" s="373"/>
-      <c r="D15" s="373"/>
-      <c r="E15" s="373"/>
+      <c r="B15" s="370"/>
+      <c r="C15" s="370"/>
+      <c r="D15" s="370"/>
+      <c r="E15" s="370"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="373" t="str">
+      <c r="A16" s="370" t="str">
         <f>buyruq!A24:E24</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B16" s="373"/>
-      <c r="C16" s="373"/>
-      <c r="D16" s="373"/>
-      <c r="E16" s="373"/>
+      <c r="B16" s="370"/>
+      <c r="C16" s="370"/>
+      <c r="D16" s="370"/>
+      <c r="E16" s="370"/>
     </row>
     <row r="17" spans="1:5" ht="3" customHeight="1"/>
     <row r="19" spans="1:5" ht="59.25" hidden="1" customHeight="1">
@@ -13285,7 +13286,7 @@
         <f>dalolatnoma!D33</f>
         <v>#REF!</v>
       </c>
-      <c r="E20" s="329" t="str">
+      <c r="E20" s="326" t="str">
         <f>""&amp;FIXED(malumot!C142,2)&amp;" ("&amp;malumot!C143&amp;")"</f>
         <v>40 500 000,00 (qirq million besh yuz ming so'm)</v>
       </c>
@@ -13307,7 +13308,7 @@
         <f>dalolatnoma!D34</f>
         <v>0</v>
       </c>
-      <c r="E21" s="330"/>
+      <c r="E21" s="327"/>
     </row>
     <row r="22" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A22" s="12" t="e">
@@ -13326,7 +13327,7 @@
         <f>dalolatnoma!D35</f>
         <v>#REF!</v>
       </c>
-      <c r="E22" s="330"/>
+      <c r="E22" s="327"/>
     </row>
     <row r="23" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A23" s="12" t="e">
@@ -13345,7 +13346,7 @@
         <f>dalolatnoma!D36</f>
         <v>#REF!</v>
       </c>
-      <c r="E23" s="330"/>
+      <c r="E23" s="327"/>
     </row>
     <row r="24" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A24" s="12" t="e">
@@ -13364,7 +13365,7 @@
         <f>dalolatnoma!D37</f>
         <v>#REF!</v>
       </c>
-      <c r="E24" s="330"/>
+      <c r="E24" s="327"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" hidden="1" customHeight="1">
       <c r="A25" s="12" t="e">
@@ -13383,7 +13384,7 @@
         <f>dalolatnoma!D38</f>
         <v>#REF!</v>
       </c>
-      <c r="E25" s="330"/>
+      <c r="E25" s="327"/>
     </row>
     <row r="26" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A26" s="12" t="e">
@@ -13402,7 +13403,7 @@
         <f>dalolatnoma!D39</f>
         <v>#REF!</v>
       </c>
-      <c r="E26" s="330"/>
+      <c r="E26" s="327"/>
     </row>
     <row r="27" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A27" s="12" t="e">
@@ -13421,7 +13422,7 @@
         <f>dalolatnoma!D40</f>
         <v>#REF!</v>
       </c>
-      <c r="E27" s="330"/>
+      <c r="E27" s="327"/>
     </row>
     <row r="28" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A28" s="12" t="e">
@@ -13440,7 +13441,7 @@
         <f>dalolatnoma!D41</f>
         <v>#REF!</v>
       </c>
-      <c r="E28" s="330"/>
+      <c r="E28" s="327"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A29" s="12" t="e">
@@ -13459,7 +13460,7 @@
         <f>dalolatnoma!D42</f>
         <v>#REF!</v>
       </c>
-      <c r="E29" s="330"/>
+      <c r="E29" s="327"/>
     </row>
     <row r="30" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A30" s="12" t="e">
@@ -13478,7 +13479,7 @@
         <f>dalolatnoma!D43</f>
         <v>#REF!</v>
       </c>
-      <c r="E30" s="331"/>
+      <c r="E30" s="328"/>
     </row>
     <row r="31" spans="1:5" ht="17.25" hidden="1" customHeight="1">
       <c r="A31" s="12" t="e">
@@ -13550,7 +13551,7 @@
       <c r="E36" s="17"/>
     </row>
     <row r="37" spans="1:5" s="117" customFormat="1" ht="51" customHeight="1">
-      <c r="A37" s="372" t="str">
+      <c r="A37" s="368" t="str">
         <f>dalolatnoma!A46:E46</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
 - №5 от 11 yanvar 2021 г., заключенного с ООО «Clever Mikrokredit Tashkiloti» и TULYAGANOV XODJIAKBAR IRGASHEVICH, по согласованной залоговой стоимость - 15 000 000,00 (on besh million) сум.
@@ -13574,10 +13575,10 @@
 0
 0</v>
       </c>
-      <c r="B37" s="372"/>
-      <c r="C37" s="372"/>
-      <c r="D37" s="372"/>
-      <c r="E37" s="372"/>
+      <c r="B37" s="368"/>
+      <c r="C37" s="368"/>
+      <c r="D37" s="368"/>
+      <c r="E37" s="368"/>
     </row>
     <row r="38" spans="1:5" ht="40.5" customHeight="1">
       <c r="A38" s="369" t="str">
@@ -13600,50 +13601,57 @@
       <c r="E39" s="369"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="370"/>
-      <c r="B40" s="370"/>
-      <c r="C40" s="370"/>
-      <c r="D40" s="370"/>
-      <c r="E40" s="370"/>
+      <c r="A40" s="372"/>
+      <c r="B40" s="372"/>
+      <c r="C40" s="372"/>
+      <c r="D40" s="372"/>
+      <c r="E40" s="372"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="371" t="s">
+      <c r="A41" s="373" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="371"/>
-      <c r="C41" s="371"/>
-      <c r="D41" s="371"/>
-      <c r="E41" s="371"/>
+      <c r="B41" s="373"/>
+      <c r="C41" s="373"/>
+      <c r="D41" s="373"/>
+      <c r="E41" s="373"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="370"/>
-      <c r="B42" s="370"/>
-      <c r="C42" s="370"/>
-      <c r="D42" s="370"/>
-      <c r="E42" s="370"/>
+      <c r="A42" s="372"/>
+      <c r="B42" s="372"/>
+      <c r="C42" s="372"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="371" t="s">
+      <c r="A43" s="373" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="371"/>
-      <c r="C43" s="371"/>
-      <c r="D43" s="371"/>
-      <c r="E43" s="371"/>
+      <c r="B43" s="373"/>
+      <c r="C43" s="373"/>
+      <c r="D43" s="373"/>
+      <c r="E43" s="373"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" customHeight="1">
-      <c r="A44" s="368" t="s">
+      <c r="A44" s="371" t="s">
         <v>38</v>
       </c>
-      <c r="B44" s="368"/>
-      <c r="C44" s="368"/>
-      <c r="D44" s="368"/>
+      <c r="B44" s="371"/>
+      <c r="C44" s="371"/>
+      <c r="D44" s="371"/>
       <c r="E44" s="97" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A44:D44"/>
+    <mergeCell ref="A38:E38"/>
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A40:E40"/>
+    <mergeCell ref="A41:E41"/>
+    <mergeCell ref="A42:E42"/>
+    <mergeCell ref="A43:E43"/>
     <mergeCell ref="A37:E37"/>
     <mergeCell ref="E20:E30"/>
     <mergeCell ref="A9:E9"/>
@@ -13655,13 +13663,6 @@
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A14:E14"/>
     <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A44:D44"/>
-    <mergeCell ref="A38:E38"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A40:E40"/>
-    <mergeCell ref="A41:E41"/>
-    <mergeCell ref="A42:E42"/>
-    <mergeCell ref="A43:E43"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13677,7 +13678,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:XFD28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -13938,11 +13939,6 @@
     <row r="35" s="26" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A13:H13"/>
-    <mergeCell ref="A14:H14"/>
-    <mergeCell ref="A7:H7"/>
-    <mergeCell ref="A2:H3"/>
-    <mergeCell ref="A15:H15"/>
     <mergeCell ref="A17:H17"/>
     <mergeCell ref="A8:H8"/>
     <mergeCell ref="A9:B9"/>
@@ -13955,6 +13951,11 @@
     <mergeCell ref="G10:H10"/>
     <mergeCell ref="A11:H11"/>
     <mergeCell ref="A12:H12"/>
+    <mergeCell ref="A13:H13"/>
+    <mergeCell ref="A14:H14"/>
+    <mergeCell ref="A7:H7"/>
+    <mergeCell ref="A2:H3"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -13969,8 +13970,8 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -14226,13 +14227,6 @@
     <row r="34" s="26" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -14243,6 +14237,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -14273,48 +14274,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="276" t="str">
+      <c r="A1" s="289" t="str">
         <f>""&amp;malumot!C64&amp;" shartnoma "&amp;malumot!B66&amp;""</f>
         <v>Mikroqarz shartnoma № 23-AL</v>
       </c>
-      <c r="B1" s="276"/>
+      <c r="B1" s="289"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="276" t="str">
+      <c r="A3" s="289" t="str">
         <f>"Toshkent shahri                                                                               "&amp;malumot!B70&amp;""</f>
         <v>Toshkent shahri                                                                               11 mart 2025 y.</v>
       </c>
-      <c r="B3" s="276"/>
+      <c r="B3" s="289"/>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="58"/>
     </row>
     <row r="5" spans="1:3" ht="113.25" customHeight="1">
-      <c r="A5" s="277" t="str">
+      <c r="A5" s="278" t="str">
         <f>""&amp;malumot!B153&amp;", bundan buyon «Mikromoliya tashkiloti» deb nomlanuvchi, ishonchnoma asosida xarakat qiluvchi "&amp;malumot!A156&amp;" "&amp;malumot!B156&amp;"  bir tomondan va o‘z manfaati yo‘lida hamda o‘z nomidan harakat qiluvchi O‘zbekiston Respublikasi fuqarosi "&amp;malumot!B5&amp;"  (pasport raqami "&amp;malumot!B16&amp;", "&amp;malumot!C20&amp;" ), bundan buyon «Qarz oluvchi» deb nomlanuvchi, boshqa tomondan, birgalikda “Tomonlar” yoki alohida “Tomon” deb nomlanuvchilar, Qarz oluvchi tomonidan "&amp;TEXT(malumot!B2,"ДД.ММ.ГГГГ")&amp;" yil,"&amp;malumot!B65&amp;" olish uchun ariza berilganligini hisobga olib, ushbu "&amp;malumot!C64&amp;" shartnomasini (bundan keyin – «Shartnoma») quyidagilar haqida tuzdilar:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ, bundan buyon «Mikromoliya tashkiloti» deb nomlanuvchi, ishonchnoma asosida xarakat qiluvchi Olmaliq filiali boshlig'i V. Yerjanov  bir tomondan va o‘z manfaati yo‘lida hamda o‘z nomidan harakat qiluvchi O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH  (pasport raqami AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan ), bundan buyon «Qarz oluvchi» deb nomlanuvchi, boshqa tomondan, birgalikda “Tomonlar” yoki alohida “Tomon” deb nomlanuvchilar, Qarz oluvchi tomonidan 11.03.2025 yil,mikroqarz olish uchun ariza berilganligini hisobga olib, ushbu Mikroqarz shartnomasini (bundan keyin – «Shartnoma») quyidagilar haqida tuzdilar:</v>
       </c>
-      <c r="B5" s="277"/>
+      <c r="B5" s="278"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="276" t="s">
+      <c r="A7" s="289" t="s">
         <v>260</v>
       </c>
-      <c r="B7" s="276"/>
+      <c r="B7" s="289"/>
     </row>
     <row r="8" spans="1:3" ht="51.75" customHeight="1">
-      <c r="A8" s="277" t="str">
+      <c r="A8" s="278" t="str">
         <f>"1.1. Mikromoliya tashkiloti Qarz oluvchiga umumiy miqdori "&amp;FIXED(malumot!B75,2)&amp;" ("&amp;malumot!C76&amp;") bo‘lgan "&amp;malumot!B65&amp;"ni "&amp;malumot!B71&amp;" dan "&amp;malumot!B73&amp;" gacha bo'lgan muddatga naqd pul va/yoki o'tkazmasi shaklida ajratadi."</f>
         <v>1.1. Mikromoliya tashkiloti Qarz oluvchiga umumiy miqdori 27 000 000,00 (Yigirma yetti million so'm) bo‘lgan mikroqarzni 11 mart 2025 y. dan 11 mart 2028 y. gacha bo'lgan muddatga naqd pul va/yoki o'tkazmasi shaklida ajratadi.</v>
       </c>
-      <c r="B8" s="277"/>
+      <c r="B8" s="278"/>
     </row>
     <row r="9" spans="1:3" ht="36" customHeight="1">
-      <c r="A9" s="277" t="str">
+      <c r="A9" s="278" t="str">
         <f>"1.2. Qarz oluvchi to‘lovlilik, muddatlilik va ta’minlanganlik tamoyillariga amal qilgan holda "&amp;malumot!B65&amp;"dan foydalanish majburiyatini o‘z zimmasiga oladi."</f>
         <v>1.2. Qarz oluvchi to‘lovlilik, muddatlilik va ta’minlanganlik tamoyillariga amal qilgan holda mikroqarzdan foydalanish majburiyatini o‘z zimmasiga oladi.</v>
       </c>
-      <c r="B9" s="277"/>
+      <c r="B9" s="278"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="27"/>
@@ -14328,46 +14329,46 @@
       <c r="C11" s="56"/>
     </row>
     <row r="12" spans="1:3" ht="36" customHeight="1">
-      <c r="A12" s="277" t="str">
+      <c r="A12" s="278" t="str">
         <f>"2.1. Ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan summa miqdoridagi "&amp;malumot!B65&amp;" Mikromoliya tashkiloti kassasidan naqd pul shaklida va/yoki plastik kartaga o‘tkazish yuli bilan beriladi."</f>
         <v>2.1. Ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan summa miqdoridagi mikroqarz Mikromoliya tashkiloti kassasidan naqd pul shaklida va/yoki plastik kartaga o‘tkazish yuli bilan beriladi.</v>
       </c>
-      <c r="B12" s="277"/>
+      <c r="B12" s="278"/>
     </row>
     <row r="13" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A13" s="277" t="str">
+      <c r="A13" s="278" t="str">
         <f>"2.2. "&amp;malumot!C64&amp;" berish ushbu Shartnoma tuzilgan va Qarz oluvchi tomonidan ushbu shartnomaning 3-bo‘limiga muvofiq garov ta'minoti ta'minlangandan so‘ng 10 kalendar kundan kechiktirmay amalga oshiriladi."</f>
         <v>2.2. Mikroqarz berish ushbu Shartnoma tuzilgan va Qarz oluvchi tomonidan ushbu shartnomaning 3-bo‘limiga muvofiq garov ta'minoti ta'minlangandan so‘ng 10 kalendar kundan kechiktirmay amalga oshiriladi.</v>
       </c>
-      <c r="B13" s="277"/>
+      <c r="B13" s="278"/>
     </row>
     <row r="14" spans="1:3" ht="35.25" customHeight="1">
-      <c r="A14" s="277" t="str">
+      <c r="A14" s="278" t="str">
         <f>"2.3. "&amp;malumot!C64&amp;" Qarz oluvchi tomonidan ushbu Shartnomaning ajralmas qismi hisoblanadigan 1-ilovasida ko‘rsatilgan to‘lov jadvalida (bundan keyin - To‘lov jadvali) belgilangan miqdor, tartib va muddatlarda qaytariladi."</f>
         <v>2.3. Mikroqarz Qarz oluvchi tomonidan ushbu Shartnomaning ajralmas qismi hisoblanadigan 1-ilovasida ko‘rsatilgan to‘lov jadvalida (bundan keyin - To‘lov jadvali) belgilangan miqdor, tartib va muddatlarda qaytariladi.</v>
       </c>
-      <c r="B14" s="277"/>
+      <c r="B14" s="278"/>
     </row>
     <row r="15" spans="1:3" ht="69.75" customHeight="1">
-      <c r="A15" s="277" t="str">
+      <c r="A15" s="278" t="str">
         <f>"2.4. Mikromoliya tashkiloti, "&amp;malumot!B65&amp;" berilgan vaqtdan boshlab, "&amp;malumot!B65&amp;" miqdorining qoldiq summasiga "&amp;malumot!B85&amp;"% ("&amp;malumot!C86&amp;") foiz yillik va yiliga 365/366 kunlik hisobidan foizlar hisoblaydi. To'lov jadvaliga muvofiq asosiy qarz bo'yicha navbatdagi to'lov buzilgan hollarda, "&amp;"foiz stavkasi oshiriladi va  Mikromoliya tashkiloti "&amp;malumot!B65&amp;"ning muddati o'tgan asosiy qarz summasiga yillik "&amp;malumot!B88&amp;" ("&amp;malumot!B89&amp;") foiz miqdorida foizlar hisoblaydi."</f>
         <v>2.4. Mikromoliya tashkiloti, mikroqarz berilgan vaqtdan boshlab, mikroqarz miqdorining qoldiq summasiga 60% (Oltmish) foiz yillik va yiliga 365/366 kunlik hisobidan foizlar hisoblaydi. To'lov jadvaliga muvofiq asosiy qarz bo'yicha navbatdagi to'lov buzilgan hollarda, foiz stavkasi oshiriladi va  Mikromoliya tashkiloti mikroqarzning muddati o'tgan asosiy qarz summasiga yillik 100 (bir yuz) foiz miqdorida foizlar hisoblaydi.</v>
       </c>
-      <c r="B15" s="277"/>
+      <c r="B15" s="278"/>
     </row>
     <row r="16" spans="1:3" ht="160.5" customHeight="1">
-      <c r="A16" s="277" t="s">
+      <c r="A16" s="278" t="s">
         <v>327</v>
       </c>
-      <c r="B16" s="277"/>
+      <c r="B16" s="278"/>
     </row>
     <row r="17" spans="1:11" ht="150.75" customHeight="1">
-      <c r="A17" s="277" t="str">
+      <c r="A17" s="278" t="str">
         <f>CONCATENATE(C17,H17,I17)</f>
         <v>2.6 Qarz oluvchi tomonidan to‘lov jadvalida ko‘rsatilgan muddatdan oldin xamda to‘lov jadvalida ko‘rsatilgan oylik kredit qarzdorligini so‘ndirish miqdoridan ko‘p miqdorda to‘lovni amalga oshirib, to‘langan pul mablag‘larini asosiy kredit qarzdorligini so‘ndirishga yo‘naltirilishini so‘ralganda qarz oluvchining kredit qarzdorligini so‘ndirish uchun to‘lagan pul mablag‘laridan kredit qarzdorligi to‘langan oy uchun to‘lov jadvali bo‘yicha so‘ndirilishi lozim bo‘lgan foiz qarzdorligi summasi, to‘lov jadvalida foiz qarzdorligi so‘ndirilishi ko‘rsatilgan muddatga qadar tashkilotning xisob raqamida saqlanib to‘lov jadvalida ko‘rsatilgan sanada oylik foiz qarzdorligini so‘ndirishga yo‘naltiriladi.
 2.6.1. Qarz oluvchi tomonidan olingan mikroqarzni va undan foydalanganlik uchun foizlarni qaytarish bo‘yicha muddati o‘tgan qarzdorlik hosil bo‘lganda Qarz oluvchi tomonidan ko‘rsatilgan qarzdorlikni to‘lash hisobiga to‘lanadigan summalar quyidagi tartibda hisobga olinadi:</v>
       </c>
-      <c r="B17" s="277"/>
+      <c r="B17" s="278"/>
       <c r="C17" s="132" t="s">
         <v>331</v>
       </c>
@@ -14380,31 +14381,31 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="100.5" customHeight="1">
-      <c r="A18" s="279" t="s">
+      <c r="A18" s="283" t="s">
         <v>370</v>
       </c>
-      <c r="B18" s="279"/>
+      <c r="B18" s="283"/>
     </row>
     <row r="19" spans="1:11" ht="36" customHeight="1">
-      <c r="A19" s="277" t="str">
+      <c r="A19" s="278" t="str">
         <f>"2.7. Qarz oluvchi Mikromoliya tashkilotining "&amp;malumot!B65&amp;" bo‘yicha asosiy summasi, hisoblangan foizlarni, penya va boshqa moliyaviy talablarini ham naqd pul shaklida, ham naqdsiz shaklda qaytarib beradi."</f>
         <v>2.7. Qarz oluvchi Mikromoliya tashkilotining mikroqarz bo‘yicha asosiy summasi, hisoblangan foizlarni, penya va boshqa moliyaviy talablarini ham naqd pul shaklida, ham naqdsiz shaklda qaytarib beradi.</v>
       </c>
-      <c r="B19" s="277"/>
+      <c r="B19" s="278"/>
     </row>
     <row r="20" spans="1:11" ht="48.75" customHeight="1">
-      <c r="A20" s="277" t="str">
+      <c r="A20" s="278" t="str">
         <f>"2.8. Qarz oluvchi "&amp;malumot!B65&amp;" miqdorini muddatidan oldin qaytarish, shuningdek, bu haqida Mikromoliya tashkilotini albatta ogohlantirgan holda ulardan aniq foydalangan muddat uchun hisoblangan foizlarni to‘lash huquqiga ega."</f>
         <v>2.8. Qarz oluvchi mikroqarz miqdorini muddatidan oldin qaytarish, shuningdek, bu haqida Mikromoliya tashkilotini albatta ogohlantirgan holda ulardan aniq foydalangan muddat uchun hisoblangan foizlarni to‘lash huquqiga ega.</v>
       </c>
-      <c r="B20" s="277"/>
+      <c r="B20" s="278"/>
     </row>
     <row r="21" spans="1:11" ht="98.25" customHeight="1">
-      <c r="A21" s="281" t="str">
+      <c r="A21" s="288" t="str">
         <f>CONCATENATE(C21,H21,I21)</f>
         <v>2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikroqarzlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga olingan Markaziy bank Boshqaruvining 28.09.2019 y. 24/5-son qarori bilan tasdiqlangan), qarz yuki ko‘rsatkichi har bir qarz oluvchiga qarz beruvchi tomonidan mikroqarz ajratishda uning summasi va qarz oluvchining amaldagi kredit (mikroqarz) shartnomalari bo‘yicha asosiy qarz qoldig‘i yig‘indisi bazaviy hisoblash miqdorining 50 baravaridan oshganda hisoblanadi.</v>
       </c>
-      <c r="B21" s="281"/>
+      <c r="B21" s="288"/>
       <c r="C21" s="4" t="str">
         <f>"2.9. Qarz oluvchi jismoniy shaxslarning kreditlar ("&amp;malumot!B65&amp;"lar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga "</f>
         <v xml:space="preserve">2.9. Qarz oluvchi jismoniy shaxslarning kreditlar (mikroqarzlar) bo‘yicha qarz yukini hisoblash tartibi, qarz yukining ruxsat etilgan miqdori, shuningdek qarz yuki o‘sishini cheklash to‘g‘risidagi Nizomga muvofiq (O’zbekiston Respublikasi Adliya vazirligi tomonidan 19.12.2019 y. 3205-son bilan ro‘yxatga </v>
@@ -14426,70 +14427,70 @@
       <c r="B22" s="280"/>
     </row>
     <row r="23" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A23" s="277" t="str">
+      <c r="A23" s="278" t="str">
         <f>"3.1. Ushbu Shartnoma bo‘yicha taqdim etilgan "&amp;malumot!C64&amp;" quyidagi garov bilan ta'minlanadi:"</f>
         <v>3.1. Ushbu Shartnoma bo‘yicha taqdim etilgan Mikroqarz quyidagi garov bilan ta'minlanadi:</v>
       </c>
-      <c r="B23" s="277"/>
+      <c r="B23" s="278"/>
     </row>
     <row r="24" spans="1:11" ht="130.5" customHeight="1">
-      <c r="A24" s="278" t="str">
+      <c r="A24" s="286" t="str">
         <f>IF(malumot!B109=malumot!C109,shartnoma!A28,IF(malumot!B109=malumot!D109,shartnoma!A25,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B24" s="278"/>
+      <c r="B24" s="286"/>
     </row>
     <row r="25" spans="1:11" ht="129" hidden="1" customHeight="1">
-      <c r="A25" s="277" t="str">
+      <c r="A25" s="278" t="str">
         <f>IF(malumot!B98=malumot!C98,shartnoma!A27,IF(malumot!B98=malumot!D98,shartnoma!A26,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B25" s="277"/>
+      <c r="B25" s="278"/>
     </row>
     <row r="26" spans="1:11" ht="129.75" hidden="1" customHeight="1">
-      <c r="A26" s="278" t="str">
+      <c r="A26" s="286" t="str">
         <f>"3.1.1. "&amp;malumot!N132&amp;" tomonidan "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;malumot!C129&amp;" manzilida joylashgan, "&amp;malumot!E132&amp;" bo'lgan, "&amp;malumot!E131&amp;" ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  "&amp;malumot!C123&amp;"ga tegishli va kelishilgan garov qiymati "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B144&amp;") so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B26" s="278"/>
+      <c r="B26" s="286"/>
     </row>
     <row r="27" spans="1:11" ht="131.25" hidden="1" customHeight="1">
-      <c r="A27" s="277" t="str">
+      <c r="A27" s="278" t="str">
         <f>"3.1.1. "&amp;malumot!N132&amp;" tomonidan "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;malumot!C129&amp;" manzilida joylashgan, "&amp;malumot!E132&amp;" bo'lgan, "&amp;malumot!E131&amp;" ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  "&amp;malumot!C123&amp;"ga tegishli va kelishilgan garov qiymati "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B144&amp;") so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON manzilida joylashgan, yer uchastkasi maydoni - , umumiy maydoni - 72,13, yashash maydoni - 37,39 bo'lgan, 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulk (bundan keyin “Garov predmeti”), egalik huquqiga ko'ra  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garovning aniq shartlari tegishli tarzda notarial tasdiqlangan garov shartnomasi bilan belgilangan.</v>
       </c>
-      <c r="B27" s="277"/>
+      <c r="B27" s="278"/>
     </row>
     <row r="28" spans="1:11" ht="114" hidden="1" customHeight="1">
-      <c r="A28" s="278" t="str">
+      <c r="A28" s="286" t="str">
         <f>IF(malumot!B98=malumot!C98,A29,IF(malumot!B98=malumot!D98,A30,0))</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B28" s="278"/>
+      <c r="B28" s="286"/>
       <c r="K28" s="4" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="114.75" hidden="1" customHeight="1">
-      <c r="A29" s="278" t="str">
+      <c r="A29" s="286" t="str">
         <f>"3.1.1. "&amp;malumot!N132&amp;" tomonidan "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;malumot!B140&amp;" rangli, ishlab chiqarilgan yili – "&amp;malumot!B141&amp;" yil,  dvigatel raqami "&amp;malumot!B137&amp;", shassi - "&amp;malumot!B138&amp;",  kuzov turi - "&amp;malumot!B134&amp;", kuzov raqami №"&amp;malumot!B135&amp;", davlat raqam belgisi "&amp;malumot!B132&amp;" bo'lgan "&amp;malumot!B131&amp;" rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  "&amp;malumot!B123&amp;"ga tegishli va kelishilgan garov qiymati "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B144&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “Garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B29" s="278"/>
+      <c r="B29" s="286"/>
     </row>
     <row r="30" spans="1:11" ht="20.25" hidden="1" customHeight="1">
-      <c r="A30" s="283" t="str">
+      <c r="A30" s="287" t="str">
         <f>"3.1.1. "&amp;malumot!N132&amp;" tomonidan "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq "&amp;malumot!B140&amp;" rangli, ishlab chiqarilgan yili – "&amp;malumot!B141&amp;" yil,  dvigatel raqami "&amp;malumot!B137&amp;", shassi - "&amp;malumot!B138&amp;",  kuzov turi - "&amp;malumot!B134&amp;", kuzov raqami №"&amp;malumot!B135&amp;", davlat raqam belgisi "&amp;malumot!B132&amp;" bo'lgan "&amp;malumot!B131&amp;" rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  "&amp;malumot!B123&amp;"ga tegishli va kelishilgan garov qiymati "&amp;malumot!B149&amp;" yil "&amp;malumot!B151&amp;" "&amp;malumot!B150&amp;"da imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B144&amp;") so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi."</f>
         <v>3.1.1. Mikromoliya tashkiloti va Qarz oluvchi tomonidan 2025 yil 11 martda imzolangan 1-sonli navbatdagi garov predmeti qiymatini tasdiqlash dalolatnomasiga muvofiq OQ BELIY rangli, ishlab chiqarilgan yili – 2014 yil,  dvigatel raqami JL466Q1%E61H022801, shassi - URINDIKLAR SONI 5TA,  kuzov turi - YUK BORTLI TENT, kuzov raqami №LSCAB23D8EG228387, davlat raqam belgisi 80T312WA bo'lgan CHANGAN CHANGAN SC 1027SB rusumli avtomashinasi (bundan keyin “navbatdagi garov predmeti”), egalik huquqiga ega  NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli va kelishilgan garov qiymati 2025 yil 11 martda imzolangan 1-sonli Garov predmeti qiymatini tasdiqlash dalolatnomasiga muvifiq 40 500 000,00 (qirq million besh yuz ming so'm) so'mni tashkil qiladi. Garov garovining aniq shartlari tegishli notarial rasmiylashtirilgan garov shartnomasi bilan belgilanadi.</v>
       </c>
-      <c r="B30" s="283"/>
+      <c r="B30" s="287"/>
     </row>
     <row r="31" spans="1:11" ht="117" customHeight="1">
-      <c r="A31" s="282" t="str">
+      <c r="A31" s="285" t="str">
         <f>CONCATENATE(A32,B32)</f>
         <v>3.2. Qonun hujjatlariga muvofiq rasmiylashtirilgan, “Garov predmeti” hisoblangan notarial tasdiqlangan garov shartnomasi, shu jumladan “Garov predmeti”ga taʼqiq quyilganligi tasdiqlovchi xujjat Qarz oluvchi tomonidan ushbu shartnoma tuzilgandan so‘ng 10 bank kuni mobaynida Mikromoliya tashkilotiga taqdim etilishi lozim. Garov shartnomasi belgilangan muddatda taqdim etilmagan hollarda, Mikromoliya tashkiloti Qarz oluvchining manziliga yozma bildirishnoma yuborish orqali mikroqarz berishni rad etish va / yoki ushbu shartnomani bir tomonlama bekor qilish huquqiga egadir. Bunda ushbu shartnoma Qarz oluvchi tomonidan talabnoma olingan vaqtda yoki talabnoma pochta  xizmati orqali yuborilgandan keyin uchinchi kuni bekor qilingan hisoblanadi.</v>
       </c>
-      <c r="B31" s="282"/>
+      <c r="B31" s="285"/>
     </row>
     <row r="32" spans="1:11" ht="94.5" hidden="1">
       <c r="A32" s="136" t="s">
@@ -14510,37 +14511,37 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="73.5" customHeight="1">
-      <c r="A34" s="282" t="s">
+      <c r="A34" s="285" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="282"/>
+      <c r="B34" s="285"/>
     </row>
     <row r="35" spans="1:8" ht="84" customHeight="1">
-      <c r="A35" s="282" t="s">
+      <c r="A35" s="285" t="s">
         <v>312</v>
       </c>
-      <c r="B35" s="282"/>
+      <c r="B35" s="285"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="284" t="s">
+      <c r="A37" s="282" t="s">
         <v>311</v>
       </c>
-      <c r="B37" s="284"/>
+      <c r="B37" s="282"/>
       <c r="C37" s="63"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="277" t="s">
+      <c r="A38" s="278" t="s">
         <v>310</v>
       </c>
-      <c r="B38" s="277"/>
+      <c r="B38" s="278"/>
     </row>
     <row r="39" spans="1:8" ht="114" customHeight="1">
-      <c r="A39" s="282" t="str">
+      <c r="A39" s="285" t="str">
         <f>CONCATENATE(C39,H39)</f>
         <v>4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan mikroqarz summasini berilishini to‘liq yoki qisman rad etish.
 4.1.2 “Mikromoliya Tashkiloti” qarz oluvchining nomidagi barcha plastik kartalaridan, xozirgi kunda mavjud va bundan so‘ng ochiladigan barcha xisob raqamlaridan (talab qilib olguncha, depozit jamg‘arib boriladigan plastik va boshqa istalgan xisob raqamlaridan) kredit to‘lovini kredit qaytarish jadvaliga asosan oyning kredit qarzdorligi qaytarilishi ko‘rsatilgan kuni akseptsiz tarzda yechib olish xuquqiga ega.Usbu bandda belgilangan harakatlarni amalga oshirish uchun bo‘lgan barcha xarajatlar Qarz oluvchi xisobidan qoplanadi</v>
       </c>
-      <c r="B39" s="282"/>
+      <c r="B39" s="285"/>
       <c r="C39" s="4" t="str">
         <f>"4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan "&amp;malumot!B65&amp;""</f>
         <v>4.1.1. Ushbu Shartnomada ko‘rsatilgan asoslar bo‘yicha Qarz oluvchiga Shartnomada ko‘zda tutilgan mikroqarz</v>
@@ -14550,105 +14551,105 @@
       </c>
     </row>
     <row r="40" spans="1:8" ht="39" customHeight="1">
-      <c r="A40" s="282" t="str">
+      <c r="A40" s="285" t="str">
         <f>"4.1.2.1. "&amp;malumot!C64&amp;" bo‘yicha qolgan barcha qarzdorlik, foiz to‘lovlarining muddatidan oldin qaytarilishini talab qilish, shuningdek, quyidagi holatlardan biri yuzaga kelganda undirishni garov ta'minotiga qaratish:"</f>
         <v>4.1.2.1. Mikroqarz bo‘yicha qolgan barcha qarzdorlik, foiz to‘lovlarining muddatidan oldin qaytarilishini talab qilish, shuningdek, quyidagi holatlardan biri yuzaga kelganda undirishni garov ta'minotiga qaratish:</v>
       </c>
-      <c r="B40" s="282"/>
+      <c r="B40" s="285"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="282" t="s">
+      <c r="A41" s="285" t="s">
         <v>313</v>
       </c>
-      <c r="B41" s="282"/>
+      <c r="B41" s="285"/>
     </row>
     <row r="42" spans="1:8" ht="33" customHeight="1">
-      <c r="A42" s="282" t="str">
+      <c r="A42" s="285" t="str">
         <f>"b) "&amp;malumot!B65&amp;" summasiga hisoblanadigan asosiy qarz bo‘yicha muddati o‘tgan qarzdorlik va/yoki foizlarning yuzaga kelishi;"</f>
         <v>b) mikroqarz summasiga hisoblanadigan asosiy qarz bo‘yicha muddati o‘tgan qarzdorlik va/yoki foizlarning yuzaga kelishi;</v>
       </c>
-      <c r="B42" s="282"/>
+      <c r="B42" s="285"/>
     </row>
     <row r="43" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A43" s="282" t="s">
+      <c r="A43" s="285" t="s">
         <v>314</v>
       </c>
-      <c r="B43" s="282"/>
+      <c r="B43" s="285"/>
     </row>
     <row r="44" spans="1:8" ht="52.5" customHeight="1">
-      <c r="A44" s="282" t="s">
+      <c r="A44" s="285" t="s">
         <v>315</v>
       </c>
-      <c r="B44" s="282"/>
+      <c r="B44" s="285"/>
     </row>
     <row r="45" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A45" s="282" t="s">
+      <c r="A45" s="285" t="s">
         <v>316</v>
       </c>
-      <c r="B45" s="282"/>
+      <c r="B45" s="285"/>
     </row>
     <row r="46" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A46" s="282" t="str">
+      <c r="A46" s="285" t="str">
         <f>"f) Qarz oluvchi "&amp;malumot!B65&amp;" summasini olish uchun Mikromoliya tashkilotiga "&amp;malumot!B65&amp;" taqdim etilishi to‘g‘risida ijobiy qaror qabul qilinishi uchun muhim hisoblangan masalalar bo‘yicha yolg‘on yoki to‘liq bo‘lmagan ma'lumotlarni taqdim etganligi aniqlanganda."</f>
         <v>f) Qarz oluvchi mikroqarz summasini olish uchun Mikromoliya tashkilotiga mikroqarz taqdim etilishi to‘g‘risida ijobiy qaror qabul qilinishi uchun muhim hisoblangan masalalar bo‘yicha yolg‘on yoki to‘liq bo‘lmagan ma'lumotlarni taqdim etganligi aniqlanganda.</v>
       </c>
-      <c r="B46" s="282"/>
+      <c r="B46" s="285"/>
     </row>
     <row r="47" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A47" s="282" t="s">
+      <c r="A47" s="285" t="s">
         <v>309</v>
       </c>
-      <c r="B47" s="282"/>
+      <c r="B47" s="285"/>
     </row>
     <row r="48" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A48" s="282" t="s">
+      <c r="A48" s="285" t="s">
         <v>308</v>
       </c>
-      <c r="B48" s="282"/>
+      <c r="B48" s="285"/>
       <c r="C48" s="136"/>
     </row>
     <row r="49" spans="1:8" ht="84.75" customHeight="1">
-      <c r="A49" s="277" t="s">
+      <c r="A49" s="278" t="s">
         <v>307</v>
       </c>
-      <c r="B49" s="277"/>
+      <c r="B49" s="278"/>
       <c r="C49" s="136"/>
     </row>
     <row r="50" spans="1:8" ht="70.5" customHeight="1">
-      <c r="A50" s="277" t="s">
+      <c r="A50" s="278" t="s">
         <v>306</v>
       </c>
-      <c r="B50" s="277"/>
+      <c r="B50" s="278"/>
       <c r="C50" s="136"/>
     </row>
     <row r="51" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A51" s="277" t="str">
+      <c r="A51" s="278" t="str">
         <f>"4.1.7. Qarz oluvchini oldindan ogohlantirmasdan "&amp;malumot!B65&amp;"ni qaytarish uchun haqiqatdan ham garov ta'minoti mavjudligini tekshirishni amalga oshirish."</f>
         <v>4.1.7. Qarz oluvchini oldindan ogohlantirmasdan mikroqarzni qaytarish uchun haqiqatdan ham garov ta'minoti mavjudligini tekshirishni amalga oshirish.</v>
       </c>
-      <c r="B51" s="277"/>
+      <c r="B51" s="278"/>
       <c r="C51" s="136"/>
     </row>
     <row r="52" spans="1:8" ht="33" customHeight="1">
-      <c r="A52" s="277" t="s">
+      <c r="A52" s="278" t="s">
         <v>317</v>
       </c>
-      <c r="B52" s="277"/>
+      <c r="B52" s="278"/>
       <c r="C52" s="136"/>
     </row>
     <row r="53" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A53" s="277" t="s">
+      <c r="A53" s="278" t="s">
         <v>305</v>
       </c>
-      <c r="B53" s="277"/>
+      <c r="B53" s="278"/>
       <c r="C53" s="136"/>
     </row>
     <row r="54" spans="1:8" ht="50.25" customHeight="1">
-      <c r="A54" s="277" t="str">
+      <c r="A54" s="278" t="str">
         <f>CONCATENATE(C54,H54)</f>
         <v>4.1.10. Qarz oluvchi taqdim etilgan mikroqarzdan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan holatlarda, bu haqda Qarz oluvchini yozma ravishda xabardor qilib, Shartnoma bir tomonlama bekor qilish. Yozma xabarni jo‘natish sanasi uni taqdim etish yoki pochta orqali jo‘natish sanasi hisoblanadi.</v>
       </c>
-      <c r="B54" s="277"/>
+      <c r="B54" s="278"/>
       <c r="C54" s="136" t="str">
         <f>"4.1.10. Qarz oluvchi taqdim etilgan "&amp;malumot!B65&amp;"dan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan"</f>
         <v>4.1.10. Qarz oluvchi taqdim etilgan mikroqarzdan Shartnoma tuzilgan kundan boshlab 1 (bir) oy davomida foydalanmagan</v>
@@ -14658,11 +14659,11 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="19.5" customHeight="1">
-      <c r="A55" s="277" t="str">
+      <c r="A55" s="278" t="str">
         <f>"4.1.11. Oldingi "&amp;malumot!B65&amp;" to‘liq to‘lanmagunga qadar yangi "&amp;malumot!B65&amp;" berishni rad etish."</f>
         <v>4.1.11. Oldingi mikroqarz to‘liq to‘lanmagunga qadar yangi mikroqarz berishni rad etish.</v>
       </c>
-      <c r="B55" s="277"/>
+      <c r="B55" s="278"/>
       <c r="C55" s="136"/>
     </row>
     <row r="57" spans="1:8">
@@ -14673,87 +14674,87 @@
       <c r="C57" s="135"/>
     </row>
     <row r="58" spans="1:8">
-      <c r="A58" s="285" t="s">
+      <c r="A58" s="284" t="s">
         <v>303</v>
       </c>
-      <c r="B58" s="285"/>
+      <c r="B58" s="284"/>
       <c r="C58" s="137"/>
     </row>
     <row r="59" spans="1:8" ht="36" customHeight="1">
-      <c r="A59" s="277" t="str">
+      <c r="A59" s="278" t="str">
         <f>"5.1.1. Ushbu shartnomada nazarda tutilgan shartlar bo‘yicha "&amp;malumot!B65&amp;" olish, shuningdek, Mikromoliya tashkiloti tomonidan ko‘rsatiladigan pullik xizmatlardan foydalanish."</f>
         <v>5.1.1. Ushbu shartnomada nazarda tutilgan shartlar bo‘yicha mikroqarz olish, shuningdek, Mikromoliya tashkiloti tomonidan ko‘rsatiladigan pullik xizmatlardan foydalanish.</v>
       </c>
-      <c r="B59" s="277"/>
+      <c r="B59" s="278"/>
       <c r="C59" s="136"/>
     </row>
     <row r="60" spans="1:8" ht="36.75" customHeight="1">
-      <c r="A60" s="277" t="str">
+      <c r="A60" s="278" t="str">
         <f>"5.1.2. Shartnoma tuzilgan kundan boshlab 2 (ikki) hafta mobaynida Mikromoliya tashkilotiga bu haqda yozma xabarnoma yo‘llash orqali "&amp;malumot!B65&amp;"ning foydalanilmagan summasidan voz kechish."</f>
         <v>5.1.2. Shartnoma tuzilgan kundan boshlab 2 (ikki) hafta mobaynida Mikromoliya tashkilotiga bu haqda yozma xabarnoma yo‘llash orqali mikroqarzning foydalanilmagan summasidan voz kechish.</v>
       </c>
-      <c r="B60" s="277"/>
+      <c r="B60" s="278"/>
       <c r="C60" s="136"/>
     </row>
     <row r="61" spans="1:8" ht="17.25" customHeight="1">
-      <c r="A61" s="277" t="str">
+      <c r="A61" s="278" t="str">
         <f>"5.1.3. "&amp;malumot!C64&amp;" xizmatlari ko‘rsatish qoidalari bilan tanishish."</f>
         <v>5.1.3. Mikroqarz xizmatlari ko‘rsatish qoidalari bilan tanishish.</v>
       </c>
-      <c r="B61" s="277"/>
+      <c r="B61" s="278"/>
       <c r="C61" s="136"/>
     </row>
     <row r="62" spans="1:8" ht="36" customHeight="1">
-      <c r="A62" s="277" t="str">
+      <c r="A62" s="278" t="str">
         <f>"5.1.4. O‘z huquq va majburiyatlari, shu jumladan "&amp;malumot!B65&amp;" xizmatlari ko‘rsatish bilan bog‘liq barcha xarajatlar haqida aniq va to‘liq ma'lumot olish."</f>
         <v>5.1.4. O‘z huquq va majburiyatlari, shu jumladan mikroqarz xizmatlari ko‘rsatish bilan bog‘liq barcha xarajatlar haqida aniq va to‘liq ma'lumot olish.</v>
       </c>
-      <c r="B62" s="277"/>
+      <c r="B62" s="278"/>
       <c r="C62" s="136"/>
     </row>
     <row r="63" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A63" s="277" t="s">
+      <c r="A63" s="278" t="s">
         <v>318</v>
       </c>
-      <c r="B63" s="277"/>
+      <c r="B63" s="278"/>
       <c r="C63" s="136"/>
     </row>
     <row r="64" spans="1:8">
-      <c r="A64" s="285" t="s">
+      <c r="A64" s="284" t="s">
         <v>302</v>
       </c>
-      <c r="B64" s="285"/>
+      <c r="B64" s="284"/>
       <c r="C64" s="137"/>
     </row>
     <row r="65" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A65" s="277" t="str">
+      <c r="A65" s="278" t="str">
         <f>"5.2.1. Mikromoliya tashkilotining birinchi talabi bilan zarur hujjatlar, shuningdek "&amp;malumot!B65&amp;"dan foydalanishning butun davri davomida uning moliyaviy holati va to‘lash qobiliyatiga tegishli bo‘lgan ma'lumotlarni taqdim etish."</f>
         <v>5.2.1. Mikromoliya tashkilotining birinchi talabi bilan zarur hujjatlar, shuningdek mikroqarzdan foydalanishning butun davri davomida uning moliyaviy holati va to‘lash qobiliyatiga tegishli bo‘lgan ma'lumotlarni taqdim etish.</v>
       </c>
-      <c r="B65" s="277"/>
+      <c r="B65" s="278"/>
       <c r="C65" s="136"/>
     </row>
     <row r="66" spans="1:8" ht="39.75" customHeight="1">
-      <c r="A66" s="277" t="s">
+      <c r="A66" s="278" t="s">
         <v>319</v>
       </c>
-      <c r="B66" s="277"/>
+      <c r="B66" s="278"/>
       <c r="C66" s="136"/>
     </row>
     <row r="67" spans="1:8" ht="27" customHeight="1">
-      <c r="A67" s="277" t="str">
+      <c r="A67" s="278" t="str">
         <f>"5.2.3. To‘lov jadvaliga muvofiq "&amp;malumot!B65&amp;", shuningdek hisoblangan foizlar to‘lovlarini amalga oshirish."</f>
         <v>5.2.3. To‘lov jadvaliga muvofiq mikroqarz, shuningdek hisoblangan foizlar to‘lovlarini amalga oshirish.</v>
       </c>
-      <c r="B67" s="277"/>
+      <c r="B67" s="278"/>
       <c r="C67" s="136"/>
     </row>
     <row r="68" spans="1:8" ht="84" customHeight="1">
-      <c r="A68" s="277" t="str">
+      <c r="A68" s="278" t="str">
         <f>CONCATENATE(C68,H68)</f>
         <v>5.2.4. Mikromoliya tashkiloti vakillariga o‘zlarining moliyaviy holati, yashash joyini tekshirishga, Mikromoliya tashkiloti foydasiga garovga qo‘yilgan mol-mulk saqlanishini tekshirishga ruxsat berish, shuningdek Qarz oluvchi ob'ektlaridan istalganiga tashrif buyurish va har qanday bino, inshoot, mol-mulk, asbob-uskunalar, tovarlar va xizmatlar, shuningdek ularning mikroqarz mablag‘lari hisobiga moliyalashtirilgan hujjatlarni ko‘zdan kechirish va Mikromoliya tashkiloti tomonidan ushbu huquqni amalga oshirishga to‘sqinlik qilmaslik majburiyatini oladi.</v>
       </c>
-      <c r="B68" s="277"/>
+      <c r="B68" s="278"/>
       <c r="C68" s="136" t="s">
         <v>336</v>
       </c>
@@ -14763,52 +14764,52 @@
       </c>
     </row>
     <row r="69" spans="1:8" ht="49.5" customHeight="1">
-      <c r="A69" s="277" t="s">
+      <c r="A69" s="278" t="s">
         <v>320</v>
       </c>
-      <c r="B69" s="277"/>
+      <c r="B69" s="278"/>
       <c r="C69" s="136"/>
     </row>
     <row r="70" spans="1:8" ht="36" customHeight="1">
-      <c r="A70" s="277" t="str">
+      <c r="A70" s="278" t="str">
         <f>"5.2.6. Quyidagi holatlarda Mikromoliya tashkilotning birinchi talabi bilan "&amp;malumot!B65&amp;" qaytarilishi bo‘yicha qo‘shimcha garov ta'minotini taqdim etish: "</f>
         <v xml:space="preserve">5.2.6. Quyidagi holatlarda Mikromoliya tashkilotning birinchi talabi bilan mikroqarz qaytarilishi bo‘yicha qo‘shimcha garov ta'minotini taqdim etish: </v>
       </c>
-      <c r="B70" s="277"/>
+      <c r="B70" s="278"/>
       <c r="C70" s="136"/>
     </row>
     <row r="71" spans="1:8" ht="51.75" customHeight="1">
-      <c r="A71" s="279" t="s">
+      <c r="A71" s="283" t="s">
         <v>337</v>
       </c>
-      <c r="B71" s="279"/>
+      <c r="B71" s="283"/>
       <c r="C71" s="139"/>
     </row>
     <row r="72" spans="1:8" ht="71.25" customHeight="1">
-      <c r="A72" s="277" t="str">
+      <c r="A72" s="278" t="str">
         <f>"5.2.7. Sud qarori asosida Qarz oluvchi – jismoniy shaxsning muomalaga layoqatsizligi yoki muomalaga layoqati cheklangan yoxud to‘lash qobiliyatiga ega emasligi (bankrotligi) tan olinganda, uning vasiysi yoki homiysi "&amp;malumot!B65&amp;"ning asosiy summa bo‘yicha qarzdorlikni "&amp;malumot!B65&amp;"dan aniq foydalanish muddati uchun foizlar bilan kechiktirmasdan to‘liq to‘lashi shart."</f>
         <v>5.2.7. Sud qarori asosida Qarz oluvchi – jismoniy shaxsning muomalaga layoqatsizligi yoki muomalaga layoqati cheklangan yoxud to‘lash qobiliyatiga ega emasligi (bankrotligi) tan olinganda, uning vasiysi yoki homiysi mikroqarzning asosiy summa bo‘yicha qarzdorlikni mikroqarzdan aniq foydalanish muddati uchun foizlar bilan kechiktirmasdan to‘liq to‘lashi shart.</v>
       </c>
-      <c r="B72" s="277"/>
+      <c r="B72" s="278"/>
       <c r="C72" s="136"/>
     </row>
     <row r="73" spans="1:8" ht="33.75" customHeight="1">
-      <c r="A73" s="277" t="str">
+      <c r="A73" s="278" t="str">
         <f>"5.2.8. Mikromoliya tashkilotining "&amp;malumot!B65&amp;" umumiy summasi va hisoblangan foizlarni muddatidan oldin qaytarish to‘g‘risidagi talabini kechiktirmasdan bajarish."</f>
         <v>5.2.8. Mikromoliya tashkilotining mikroqarz umumiy summasi va hisoblangan foizlarni muddatidan oldin qaytarish to‘g‘risidagi talabini kechiktirmasdan bajarish.</v>
       </c>
-      <c r="B73" s="277"/>
+      <c r="B73" s="278"/>
       <c r="C73" s="136"/>
       <c r="H73" s="4" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="68.25" customHeight="1">
-      <c r="A74" s="277" t="str">
+      <c r="A74" s="278" t="str">
         <f>CONCATENATE(C74,H74)</f>
         <v>5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan mikroqarz bo‘yicha (asosiy qarz, foizlar va boshqalar) qarzdorlikni majburiy va/yoki muddatidan oldin qaytarish bo‘yicha qabul qilingan choralar bilan bog‘liq bo‘lgan barcha xarajatlari va zararlarni qoplash, shuningdek ushbu shartnoma doirasida unidruvni taqdim etilgan garov ta'minotiga qaratish.</v>
       </c>
-      <c r="B74" s="277"/>
+      <c r="B74" s="278"/>
       <c r="C74" s="136" t="str">
         <f>"5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan "&amp;malumot!B65&amp;" bo‘yicha (asosiy qarz, foizlar va boshqalar)"</f>
         <v>5.2.9. Mikromoliya tashkilotining talabi bo‘yicha Mikromoliya tashkiloti ko‘rgan, shu jumladan mikroqarz bo‘yicha (asosiy qarz, foizlar va boshqalar)</v>
@@ -14821,18 +14822,18 @@
       <c r="A75" s="61"/>
     </row>
     <row r="76" spans="1:8">
-      <c r="A76" s="284" t="s">
+      <c r="A76" s="282" t="s">
         <v>301</v>
       </c>
-      <c r="B76" s="284"/>
+      <c r="B76" s="282"/>
       <c r="C76" s="138"/>
     </row>
     <row r="77" spans="1:8" ht="98.25" customHeight="1">
-      <c r="A77" s="277" t="str">
+      <c r="A77" s="278" t="str">
         <f>CONCATENATE(C77,H77)</f>
         <v>6.1. Mikromoliya tashkiloti tomonidan Qarz oluvchiga pul mablag‘larini ajratib berish bo‘yicha o‘z zimmasiga olgan majburiyatlarning Shartnomaning 1.1.-bandida keltirilgan summa va muddatlarda bajarilmaslik yoki tegishli tarzda bajarilmaslik holatlarida Mikromoliya tashkiloti muddatidan o‘tgan har bir kalendar kun uchun kechiktirilgan to‘lov summasining 0,1% miqdorida, biroq ushbu Shartnomaning 1.1.-bandida ko‘rsatilgan mikroqarz miqdori umumiy summasining 50% dan ko‘p bo‘lmagan miqdorda penya ko‘rinishidagi neustoyka to‘lash majburiyatini o‘z zimmasiga oladi.</v>
       </c>
-      <c r="B77" s="277"/>
+      <c r="B77" s="278"/>
       <c r="C77" s="136" t="s">
         <v>339</v>
       </c>
@@ -14842,117 +14843,117 @@
       </c>
     </row>
     <row r="78" spans="1:8" ht="37.5" customHeight="1">
-      <c r="A78" s="277" t="s">
+      <c r="A78" s="278" t="s">
         <v>300</v>
       </c>
-      <c r="B78" s="277"/>
+      <c r="B78" s="278"/>
       <c r="C78" s="136"/>
     </row>
     <row r="79" spans="1:8" ht="35.25" customHeight="1">
-      <c r="A79" s="277" t="s">
+      <c r="A79" s="278" t="s">
         <v>299</v>
       </c>
-      <c r="B79" s="277"/>
+      <c r="B79" s="278"/>
       <c r="C79" s="136"/>
     </row>
     <row r="80" spans="1:8" ht="33" customHeight="1">
-      <c r="A80" s="277" t="s">
+      <c r="A80" s="278" t="s">
         <v>298</v>
       </c>
-      <c r="B80" s="277"/>
+      <c r="B80" s="278"/>
       <c r="C80" s="136"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="286" t="s">
+      <c r="A82" s="279" t="s">
         <v>297</v>
       </c>
-      <c r="B82" s="286"/>
+      <c r="B82" s="279"/>
       <c r="C82" s="57"/>
     </row>
     <row r="83" spans="1:3" ht="145.5" customHeight="1">
-      <c r="A83" s="277" t="s">
+      <c r="A83" s="278" t="s">
         <v>296</v>
       </c>
-      <c r="B83" s="277"/>
+      <c r="B83" s="278"/>
       <c r="C83" s="136"/>
     </row>
     <row r="84" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A84" s="277" t="s">
+      <c r="A84" s="278" t="s">
         <v>340</v>
       </c>
-      <c r="B84" s="277"/>
+      <c r="B84" s="278"/>
       <c r="C84" s="136"/>
     </row>
     <row r="85" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A85" s="277" t="s">
+      <c r="A85" s="278" t="s">
         <v>295</v>
       </c>
-      <c r="B85" s="277"/>
+      <c r="B85" s="278"/>
       <c r="C85" s="136"/>
     </row>
     <row r="86" spans="1:3" ht="36" customHeight="1">
-      <c r="A86" s="277" t="s">
+      <c r="A86" s="278" t="s">
         <v>294</v>
       </c>
-      <c r="B86" s="277"/>
+      <c r="B86" s="278"/>
       <c r="C86" s="136"/>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="286" t="s">
+      <c r="A88" s="279" t="s">
         <v>293</v>
       </c>
-      <c r="B88" s="286"/>
+      <c r="B88" s="279"/>
       <c r="C88" s="57"/>
     </row>
     <row r="89" spans="1:3" ht="99.75" customHeight="1">
-      <c r="A89" s="277" t="s">
+      <c r="A89" s="278" t="s">
         <v>353</v>
       </c>
-      <c r="B89" s="277"/>
+      <c r="B89" s="278"/>
       <c r="C89" s="136"/>
     </row>
     <row r="90" spans="1:3" ht="36.75" customHeight="1">
-      <c r="A90" s="277" t="s">
+      <c r="A90" s="278" t="s">
         <v>321</v>
       </c>
-      <c r="B90" s="277"/>
+      <c r="B90" s="278"/>
       <c r="C90" s="136"/>
     </row>
     <row r="91" spans="1:3" ht="52.5" customHeight="1">
-      <c r="A91" s="277" t="str">
+      <c r="A91" s="278" t="str">
         <f>"8.2. Mikromoliya tashkiloti sud organlariga murojaat qilganidan keyin Qarz oluvchi tomonidan "&amp;malumot!B65&amp;" bo‘yicha muddati o‘tgan qarzdorlikning to‘lanishi Mikromoliya tashkilotning "&amp;malumot!B65&amp;" bo‘yicha qarzdorlikni muddatidan avval undirish, shu jumladan undiruvni garovdagi mol-mulkka qaratish yo‘li bilan undirish huquqidan mahrum qilmaydi."</f>
         <v>8.2. Mikromoliya tashkiloti sud organlariga murojaat qilganidan keyin Qarz oluvchi tomonidan mikroqarz bo‘yicha muddati o‘tgan qarzdorlikning to‘lanishi Mikromoliya tashkilotning mikroqarz bo‘yicha qarzdorlikni muddatidan avval undirish, shu jumladan undiruvni garovdagi mol-mulkka qaratish yo‘li bilan undirish huquqidan mahrum qilmaydi.</v>
       </c>
-      <c r="B91" s="277"/>
+      <c r="B91" s="278"/>
       <c r="C91" s="136"/>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="287" t="s">
+      <c r="A93" s="281" t="s">
         <v>292</v>
       </c>
-      <c r="B93" s="287"/>
+      <c r="B93" s="281"/>
       <c r="C93" s="62"/>
     </row>
     <row r="94" spans="1:3" ht="20.25" customHeight="1">
-      <c r="A94" s="277" t="s">
+      <c r="A94" s="278" t="s">
         <v>291</v>
       </c>
-      <c r="B94" s="277"/>
+      <c r="B94" s="278"/>
       <c r="C94" s="136"/>
     </row>
     <row r="95" spans="1:3" ht="33.75" customHeight="1">
-      <c r="A95" s="277" t="str">
+      <c r="A95" s="278" t="str">
         <f>"9.2. Shartnomaning amal qilish muddati Qarz oluvchi "&amp;malumot!B65&amp;"ni to‘liq qaytargan, hisoblangan foizlar, penya va boshqa pul majburiyatlarini to‘lagan kunda yakunlanadi."</f>
         <v>9.2. Shartnomaning amal qilish muddati Qarz oluvchi mikroqarzni to‘liq qaytargan, hisoblangan foizlar, penya va boshqa pul majburiyatlarini to‘lagan kunda yakunlanadi.</v>
       </c>
-      <c r="B95" s="277"/>
+      <c r="B95" s="278"/>
       <c r="C95" s="136"/>
     </row>
     <row r="96" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A96" s="277" t="s">
+      <c r="A96" s="278" t="s">
         <v>290</v>
       </c>
-      <c r="B96" s="277"/>
+      <c r="B96" s="278"/>
       <c r="C96" s="136"/>
     </row>
     <row r="98" spans="1:3">
@@ -14963,85 +14964,85 @@
       <c r="C98" s="56"/>
     </row>
     <row r="99" spans="1:3" ht="82.5" customHeight="1">
-      <c r="A99" s="277" t="s">
+      <c r="A99" s="278" t="s">
         <v>288</v>
       </c>
-      <c r="B99" s="277"/>
+      <c r="B99" s="278"/>
       <c r="C99" s="136"/>
     </row>
     <row r="100" spans="1:3" ht="66" customHeight="1">
-      <c r="A100" s="277" t="s">
+      <c r="A100" s="278" t="s">
         <v>287</v>
       </c>
-      <c r="B100" s="277"/>
+      <c r="B100" s="278"/>
       <c r="C100" s="136"/>
     </row>
     <row r="101" spans="1:3" ht="48" customHeight="1">
-      <c r="A101" s="277" t="s">
+      <c r="A101" s="278" t="s">
         <v>286</v>
       </c>
-      <c r="B101" s="277"/>
+      <c r="B101" s="278"/>
       <c r="C101" s="136"/>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="286" t="s">
+      <c r="A103" s="279" t="s">
         <v>285</v>
       </c>
-      <c r="B103" s="286"/>
+      <c r="B103" s="279"/>
       <c r="C103" s="126"/>
     </row>
     <row r="104" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A104" s="277" t="s">
+      <c r="A104" s="278" t="s">
         <v>284</v>
       </c>
-      <c r="B104" s="277"/>
+      <c r="B104" s="278"/>
       <c r="C104" s="136"/>
     </row>
     <row r="105" spans="1:3" ht="34.5" customHeight="1">
-      <c r="A105" s="277" t="s">
+      <c r="A105" s="278" t="s">
         <v>283</v>
       </c>
-      <c r="B105" s="277"/>
+      <c r="B105" s="278"/>
       <c r="C105" s="136"/>
     </row>
     <row r="106" spans="1:3" ht="66.75" customHeight="1">
-      <c r="A106" s="277" t="s">
+      <c r="A106" s="278" t="s">
         <v>282</v>
       </c>
-      <c r="B106" s="277"/>
+      <c r="B106" s="278"/>
       <c r="C106" s="136"/>
     </row>
     <row r="107" spans="1:3" ht="51" customHeight="1">
-      <c r="A107" s="277" t="s">
+      <c r="A107" s="278" t="s">
         <v>281</v>
       </c>
-      <c r="B107" s="277"/>
+      <c r="B107" s="278"/>
       <c r="C107" s="136"/>
     </row>
     <row r="108" spans="1:3" ht="37.5" customHeight="1">
-      <c r="A108" s="277" t="s">
+      <c r="A108" s="278" t="s">
         <v>280</v>
       </c>
-      <c r="B108" s="277"/>
+      <c r="B108" s="278"/>
       <c r="C108" s="136"/>
     </row>
     <row r="109" spans="1:3" ht="38.25" customHeight="1">
-      <c r="A109" s="277" t="s">
+      <c r="A109" s="278" t="s">
         <v>279</v>
       </c>
-      <c r="B109" s="277"/>
+      <c r="B109" s="278"/>
       <c r="C109" s="136"/>
     </row>
     <row r="110" spans="1:3" ht="21" customHeight="1">
-      <c r="A110" s="277" t="s">
+      <c r="A110" s="278" t="s">
         <v>278</v>
       </c>
-      <c r="B110" s="277"/>
+      <c r="B110" s="278"/>
       <c r="C110" s="136"/>
     </row>
     <row r="111" spans="1:3" ht="32.25" customHeight="1">
-      <c r="A111" s="277"/>
-      <c r="B111" s="277"/>
+      <c r="A111" s="278"/>
+      <c r="B111" s="278"/>
       <c r="C111" s="136"/>
     </row>
     <row r="112" spans="1:3">
@@ -15049,10 +15050,10 @@
       <c r="B112" s="213"/>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="289" t="s">
+      <c r="A113" s="277" t="s">
         <v>322</v>
       </c>
-      <c r="B113" s="289"/>
+      <c r="B113" s="277"/>
       <c r="C113" s="62"/>
     </row>
     <row r="114" spans="1:3">
@@ -15146,14 +15147,14 @@
       <c r="B125" s="199"/>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="288" t="str">
+      <c r="A126" s="276" t="str">
         <f>malumot!A167</f>
         <v>Olmaliq filiali boshlig'i</v>
       </c>
       <c r="B126" s="195"/>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="288"/>
+      <c r="A127" s="276"/>
       <c r="B127" s="201" t="str">
         <f>""&amp;malumot!B7&amp;"     __________________"</f>
         <v>A.A.NUTFULLAYEV     __________________</v>
@@ -15188,61 +15189,34 @@
     </row>
   </sheetData>
   <mergeCells count="99">
-    <mergeCell ref="A126:A127"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A107:B107"/>
-    <mergeCell ref="A108:B108"/>
-    <mergeCell ref="A109:B109"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A111:B111"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A103:B103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:B105"/>
-    <mergeCell ref="A106:B106"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:B96"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A99:B99"/>
-    <mergeCell ref="A100:B100"/>
-    <mergeCell ref="A90:B90"/>
-    <mergeCell ref="A91:B91"/>
-    <mergeCell ref="A93:B93"/>
-    <mergeCell ref="A94:B94"/>
-    <mergeCell ref="A84:B84"/>
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A88:B88"/>
-    <mergeCell ref="A89:B89"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:B79"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A82:B82"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A76:B76"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A68:B68"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A70:B70"/>
-    <mergeCell ref="A71:B71"/>
-    <mergeCell ref="A72:B72"/>
-    <mergeCell ref="A63:B63"/>
-    <mergeCell ref="A64:B64"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:B67"/>
-    <mergeCell ref="A58:B58"/>
-    <mergeCell ref="A59:B59"/>
-    <mergeCell ref="A60:B60"/>
-    <mergeCell ref="A61:B61"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A52:B52"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="A55:B55"/>
-    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A34:B34"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A48:B48"/>
     <mergeCell ref="A49:B49"/>
@@ -15259,34 +15233,61 @@
     <mergeCell ref="A39:B39"/>
     <mergeCell ref="A38:B38"/>
     <mergeCell ref="A37:B37"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A19:B19"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A52:B52"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="A55:B55"/>
+    <mergeCell ref="A57:B57"/>
+    <mergeCell ref="A58:B58"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A60:B60"/>
+    <mergeCell ref="A61:B61"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A63:B63"/>
+    <mergeCell ref="A64:B64"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:B67"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A76:B76"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A70:B70"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A72:B72"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:B79"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A82:B82"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A90:B90"/>
+    <mergeCell ref="A91:B91"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A94:B94"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A88:B88"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A100:B100"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A103:B103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A106:B106"/>
+    <mergeCell ref="A126:A127"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A108:B108"/>
+    <mergeCell ref="A109:B109"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A111:B111"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.51181102362204722" bottom="0.43307086614173229" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15558,13 +15559,6 @@
     <row r="34" s="26" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -15575,6 +15569,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15589,7 +15590,7 @@
   </sheetPr>
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
@@ -15846,13 +15847,6 @@
     <row r="34" s="26" customFormat="1"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A17:H17"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="A11:H11"/>
-    <mergeCell ref="A12:H12"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="A2:H3"/>
     <mergeCell ref="A13:H13"/>
@@ -15863,6 +15857,13 @@
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:D9"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A17:H17"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A12:H12"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -15891,13 +15892,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="389" t="s">
+      <c r="A2" s="385" t="s">
         <v>235</v>
       </c>
-      <c r="B2" s="389"/>
-      <c r="C2" s="389"/>
-      <c r="D2" s="389"/>
-      <c r="E2" s="389"/>
+      <c r="B2" s="385"/>
+      <c r="C2" s="385"/>
+      <c r="D2" s="385"/>
+      <c r="E2" s="385"/>
     </row>
     <row r="3" spans="1:5">
       <c r="E3" s="108" t="str">
@@ -15906,194 +15907,194 @@
       </c>
     </row>
     <row r="5" spans="1:5" s="110" customFormat="1" ht="27" customHeight="1">
-      <c r="A5" s="393" t="s">
+      <c r="A5" s="389" t="s">
         <v>236</v>
       </c>
-      <c r="B5" s="394"/>
-      <c r="C5" s="390" t="str">
+      <c r="B5" s="390"/>
+      <c r="C5" s="386" t="str">
         <f>malumot!B8</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="D5" s="391"/>
-      <c r="E5" s="392"/>
+      <c r="D5" s="387"/>
+      <c r="E5" s="388"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A7" s="395" t="s">
+      <c r="A7" s="391" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="396"/>
-      <c r="C7" s="397"/>
+      <c r="B7" s="392"/>
+      <c r="C7" s="393"/>
       <c r="D7" s="111" t="s">
         <v>132</v>
       </c>
       <c r="E7" s="111"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="398"/>
-      <c r="B8" s="399"/>
-      <c r="C8" s="400"/>
+      <c r="A8" s="394"/>
+      <c r="B8" s="395"/>
+      <c r="C8" s="396"/>
       <c r="D8" s="111" t="s">
         <v>240</v>
       </c>
       <c r="E8" s="111"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A9" s="386" t="s">
+      <c r="A9" s="397" t="s">
         <v>237</v>
       </c>
-      <c r="B9" s="386"/>
-      <c r="C9" s="386"/>
+      <c r="B9" s="397"/>
+      <c r="C9" s="397"/>
       <c r="D9" s="111" t="s">
         <v>132</v>
       </c>
       <c r="E9" s="111"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="386"/>
-      <c r="B10" s="386"/>
-      <c r="C10" s="386"/>
+      <c r="A10" s="397"/>
+      <c r="B10" s="397"/>
+      <c r="C10" s="397"/>
       <c r="D10" s="111" t="s">
         <v>240</v>
       </c>
       <c r="E10" s="111"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A11" s="386" t="s">
+      <c r="A11" s="397" t="s">
         <v>238</v>
       </c>
-      <c r="B11" s="386"/>
-      <c r="C11" s="386"/>
+      <c r="B11" s="397"/>
+      <c r="C11" s="397"/>
       <c r="D11" s="111" t="s">
         <v>132</v>
       </c>
       <c r="E11" s="111"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="386"/>
-      <c r="B12" s="386"/>
-      <c r="C12" s="386"/>
+      <c r="A12" s="397"/>
+      <c r="B12" s="397"/>
+      <c r="C12" s="397"/>
       <c r="D12" s="111" t="s">
         <v>240</v>
       </c>
       <c r="E12" s="111"/>
     </row>
     <row r="13" spans="1:5" ht="34.5" customHeight="1">
-      <c r="A13" s="387" t="s">
+      <c r="A13" s="398" t="s">
         <v>239</v>
       </c>
-      <c r="B13" s="387"/>
-      <c r="C13" s="387"/>
-      <c r="D13" s="387"/>
-      <c r="E13" s="387"/>
+      <c r="B13" s="398"/>
+      <c r="C13" s="398"/>
+      <c r="D13" s="398"/>
+      <c r="E13" s="398"/>
     </row>
     <row r="14" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A14" s="388"/>
-      <c r="B14" s="388"/>
-      <c r="C14" s="388"/>
-      <c r="D14" s="388"/>
-      <c r="E14" s="388"/>
+      <c r="A14" s="399"/>
+      <c r="B14" s="399"/>
+      <c r="C14" s="399"/>
+      <c r="D14" s="399"/>
+      <c r="E14" s="399"/>
     </row>
     <row r="15" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A15" s="388"/>
-      <c r="B15" s="388"/>
-      <c r="C15" s="388"/>
-      <c r="D15" s="388"/>
-      <c r="E15" s="388"/>
+      <c r="A15" s="399"/>
+      <c r="B15" s="399"/>
+      <c r="C15" s="399"/>
+      <c r="D15" s="399"/>
+      <c r="E15" s="399"/>
     </row>
     <row r="16" spans="1:5" ht="16.5" thickBot="1">
-      <c r="A16" s="388"/>
-      <c r="B16" s="388"/>
-      <c r="C16" s="388"/>
-      <c r="D16" s="388"/>
-      <c r="E16" s="388"/>
+      <c r="A16" s="399"/>
+      <c r="B16" s="399"/>
+      <c r="C16" s="399"/>
+      <c r="D16" s="399"/>
+      <c r="E16" s="399"/>
     </row>
     <row r="18" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A18" s="386" t="s">
+      <c r="A18" s="397" t="s">
         <v>241</v>
       </c>
-      <c r="B18" s="386"/>
-      <c r="C18" s="386"/>
+      <c r="B18" s="397"/>
+      <c r="C18" s="397"/>
       <c r="D18" s="111" t="s">
         <v>132</v>
       </c>
       <c r="E18" s="111"/>
     </row>
     <row r="19" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A19" s="386"/>
-      <c r="B19" s="386"/>
-      <c r="C19" s="386"/>
+      <c r="A19" s="397"/>
+      <c r="B19" s="397"/>
+      <c r="C19" s="397"/>
       <c r="D19" s="111" t="s">
         <v>240</v>
       </c>
       <c r="E19" s="111"/>
     </row>
     <row r="20" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A20" s="386" t="s">
+      <c r="A20" s="397" t="s">
         <v>242</v>
       </c>
-      <c r="B20" s="386"/>
-      <c r="C20" s="386"/>
+      <c r="B20" s="397"/>
+      <c r="C20" s="397"/>
       <c r="D20" s="111" t="s">
         <v>132</v>
       </c>
       <c r="E20" s="111"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A21" s="386"/>
-      <c r="B21" s="386"/>
-      <c r="C21" s="386"/>
+      <c r="A21" s="397"/>
+      <c r="B21" s="397"/>
+      <c r="C21" s="397"/>
       <c r="D21" s="111" t="s">
         <v>240</v>
       </c>
       <c r="E21" s="111"/>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1">
-      <c r="A23" s="387" t="s">
+      <c r="A23" s="398" t="s">
         <v>243</v>
       </c>
-      <c r="B23" s="387"/>
-      <c r="C23" s="387"/>
-      <c r="D23" s="387"/>
-      <c r="E23" s="387"/>
+      <c r="B23" s="398"/>
+      <c r="C23" s="398"/>
+      <c r="D23" s="398"/>
+      <c r="E23" s="398"/>
     </row>
     <row r="24" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A24" s="388"/>
-      <c r="B24" s="388"/>
-      <c r="C24" s="388"/>
-      <c r="D24" s="388"/>
-      <c r="E24" s="388"/>
+      <c r="A24" s="399"/>
+      <c r="B24" s="399"/>
+      <c r="C24" s="399"/>
+      <c r="D24" s="399"/>
+      <c r="E24" s="399"/>
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A25" s="388"/>
-      <c r="B25" s="388"/>
-      <c r="C25" s="388"/>
-      <c r="D25" s="388"/>
-      <c r="E25" s="388"/>
+      <c r="A25" s="399"/>
+      <c r="B25" s="399"/>
+      <c r="C25" s="399"/>
+      <c r="D25" s="399"/>
+      <c r="E25" s="399"/>
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1">
-      <c r="A26" s="388"/>
-      <c r="B26" s="388"/>
-      <c r="C26" s="388"/>
-      <c r="D26" s="388"/>
-      <c r="E26" s="388"/>
+      <c r="A26" s="399"/>
+      <c r="B26" s="399"/>
+      <c r="C26" s="399"/>
+      <c r="D26" s="399"/>
+      <c r="E26" s="399"/>
     </row>
     <row r="28" spans="1:8" ht="78.75" customHeight="1">
-      <c r="A28" s="385" t="s">
+      <c r="A28" s="400" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="385"/>
-      <c r="C28" s="385"/>
-      <c r="D28" s="385"/>
-      <c r="E28" s="385"/>
+      <c r="B28" s="400"/>
+      <c r="C28" s="400"/>
+      <c r="D28" s="400"/>
+      <c r="E28" s="400"/>
     </row>
     <row r="30" spans="1:8" ht="33" customHeight="1">
-      <c r="A30" s="385" t="s">
+      <c r="A30" s="400" t="s">
         <v>245</v>
       </c>
-      <c r="B30" s="385"/>
-      <c r="C30" s="385"/>
-      <c r="D30" s="385"/>
-      <c r="E30" s="385"/>
+      <c r="B30" s="400"/>
+      <c r="C30" s="400"/>
+      <c r="D30" s="400"/>
+      <c r="E30" s="400"/>
       <c r="F30" s="112"/>
       <c r="G30" s="112"/>
       <c r="H30" s="112"/>
@@ -16108,16 +16109,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C10"/>
-    <mergeCell ref="A11:C12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A14:E14"/>
     <mergeCell ref="A28:E28"/>
     <mergeCell ref="A30:E30"/>
     <mergeCell ref="A18:C19"/>
@@ -16126,6 +16117,16 @@
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A11:C12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -16156,117 +16157,117 @@
   <sheetData>
     <row r="3" spans="1:5" ht="16.5" customHeight="1"/>
     <row r="4" spans="1:5" ht="17.25" customHeight="1">
-      <c r="A4" s="290" t="str">
+      <c r="A4" s="291" t="str">
         <f>""&amp;malumot!B153&amp;" ijrochi direktorining
 "&amp;malumot!B171&amp;"dagi "&amp;malumot!B170&amp;"-sonli buyrug‘i"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktorining
 11 mart 2025 y.dagi № 23-AL-sonli buyrug‘i</v>
       </c>
-      <c r="B4" s="290"/>
-      <c r="C4" s="290"/>
-      <c r="D4" s="290"/>
-      <c r="E4" s="290"/>
+      <c r="B4" s="291"/>
+      <c r="C4" s="291"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="291"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="290"/>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
+      <c r="A5" s="291"/>
+      <c r="B5" s="291"/>
+      <c r="C5" s="291"/>
+      <c r="D5" s="291"/>
+      <c r="E5" s="291"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="290"/>
-      <c r="B6" s="290"/>
-      <c r="C6" s="290"/>
-      <c r="D6" s="290"/>
-      <c r="E6" s="290"/>
+      <c r="A6" s="291"/>
+      <c r="B6" s="291"/>
+      <c r="C6" s="291"/>
+      <c r="D6" s="291"/>
+      <c r="E6" s="291"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="291"/>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="A7" s="290"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
     </row>
     <row r="8" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A8" s="291" t="str">
+      <c r="A8" s="290" t="str">
         <f>"Men, Abduraximov Nadirbek Kamilevich "&amp;malumot!B153&amp;" ijrochi direktori, jismoniy shaxs "&amp;malumot!B10&amp;"ga quyidagi shartlarda "&amp;malumot!B65&amp;" berishni buyuraman:"</f>
         <v>Men, Abduraximov Nadirbek Kamilevich «CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktori, jismoniy shaxs NUTFULLAYEV AKBARJON AXMEDOVICHga quyidagi shartlarda mikroqarz berishni buyuraman:</v>
       </c>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
     </row>
     <row r="9" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A9" s="291" t="str">
+      <c r="A9" s="290" t="str">
         <f>kredit_ariza!A13:D13</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
     </row>
     <row r="10" spans="1:5" ht="21" customHeight="1">
-      <c r="A10" s="291" t="str">
+      <c r="A10" s="290" t="str">
         <f>kredit_ariza!A14:D14</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
     </row>
     <row r="11" spans="1:5" ht="27" customHeight="1">
-      <c r="A11" s="291" t="str">
+      <c r="A11" s="290" t="str">
         <f>kredit_ariza!A15:D15</f>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B11" s="291"/>
-      <c r="C11" s="291"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
     </row>
     <row r="12" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A12" s="291" t="str">
+      <c r="A12" s="290" t="str">
         <f>kredit_ariza!A16:D16</f>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B12" s="291"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
     </row>
     <row r="13" spans="1:5" ht="21.75" hidden="1" customHeight="1">
-      <c r="A13" s="291" t="str">
+      <c r="A13" s="290" t="str">
         <f>kredit_ariza!A17:D17</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B13" s="291"/>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
     </row>
     <row r="14" spans="1:5" hidden="1">
-      <c r="A14" s="291" t="str">
+      <c r="A14" s="290" t="str">
         <f>kredit_ariza!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
     </row>
     <row r="15" spans="1:5" ht="23.25" customHeight="1">
-      <c r="A15" s="291" t="str">
+      <c r="A15" s="290" t="str">
         <f>IF(malumot!B109="Avtotransport",buyruq!A14:E14,buyruq!A13:E13)</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B15" s="291"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="291"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
     </row>
     <row r="16" spans="1:5" ht="45.75" customHeight="1">
       <c r="A16" s="292" t="str">
@@ -16279,24 +16280,24 @@
       <c r="E16" s="292"/>
     </row>
     <row r="17" spans="1:5" ht="50.25" hidden="1" customHeight="1">
-      <c r="A17" s="291" t="str">
+      <c r="A17" s="290" t="str">
         <f>""&amp;malumot!C123&amp;"ga tegishli "&amp;malumot!C132&amp;" ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli 3 - xonali yakka tartibdagi uy-joy ko'rinishidagi ko'chmas mulkni quyidagi ma'lumotlarga muvofiq  garovga qabul qilinsin:</v>
       </c>
-      <c r="B17" s="291"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
     </row>
     <row r="18" spans="1:5" ht="47.25" hidden="1" customHeight="1">
-      <c r="A18" s="291" t="str">
+      <c r="A18" s="290" t="str">
         <f>""&amp;malumot!B123&amp;"ga tegishli "&amp;malumot!B131&amp;" ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:"</f>
         <v>NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli CHANGAN CHANGAN SC 1027SB ko'rinishidagi transport vositasini quyidagi ma'lumotlarga muvofiq garovga qabul qilinsin:</v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
     </row>
     <row r="19" spans="1:5" s="32" customFormat="1" ht="60" customHeight="1" outlineLevel="1">
       <c r="A19" s="34" t="str">
@@ -16344,44 +16345,44 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A21" s="291" t="str">
+      <c r="A21" s="290" t="str">
         <f>dalolatnoma!A22:E22</f>
         <v>-* ko'chmas mulk egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B21" s="291"/>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
     </row>
     <row r="22" spans="1:5" ht="20.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="291" t="str">
+      <c r="A22" s="290" t="str">
         <f>dalolatnoma!A23:E23</f>
         <v>-* reest raqami: 13.12.2020 yildan 1718238/R-A1419303</v>
       </c>
-      <c r="B22" s="291"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="291"/>
+      <c r="B22" s="290"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
     </row>
     <row r="23" spans="1:5" ht="36" customHeight="1" outlineLevel="1">
-      <c r="A23" s="291" t="str">
+      <c r="A23" s="290" t="str">
         <f>dalolatnoma!A24:E24</f>
         <v>-*  kadastr raqami: 16.12.2020 yildan №14:13:02:01:03:1179:0006:058</v>
       </c>
-      <c r="B23" s="291"/>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="290"/>
     </row>
     <row r="24" spans="1:5" ht="31.5" customHeight="1" outlineLevel="1">
-      <c r="A24" s="291" t="str">
+      <c r="A24" s="290" t="str">
         <f>dalolatnoma!A25:E25</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B24" s="291"/>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
     </row>
     <row r="25" spans="1:5">
       <c r="B25" s="194"/>
@@ -16408,6 +16409,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A16:E16"/>
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A4:E6"/>
@@ -16424,7 +16426,6 @@
     <mergeCell ref="A21:E21"/>
     <mergeCell ref="A15:E15"/>
     <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
@@ -16439,7 +16440,7 @@
   <dimension ref="A1:AH49"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A36" activeCellId="1" sqref="A35:XFD35 A36:XFD36"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16458,7 +16459,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="63.75" customHeight="1">
-      <c r="A1" s="296" t="str">
+      <c r="A1" s="295" t="str">
         <f>""&amp;malumot!B153&amp;"
 mikromoliya tashkiloti
 Kredit qo‘mitasining yig‘ilishi"</f>
@@ -16466,20 +16467,20 @@
 mikromoliya tashkiloti
 Kredit qo‘mitasining yig‘ilishi</v>
       </c>
-      <c r="B1" s="296"/>
-      <c r="C1" s="296"/>
-      <c r="D1" s="296"/>
-      <c r="E1" s="296"/>
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
     </row>
     <row r="2" spans="1:33" ht="29.25" customHeight="1">
-      <c r="A2" s="296" t="str">
+      <c r="A2" s="295" t="str">
         <f>""&amp;H7&amp;" protokolidan ko'chirma"</f>
         <v>№ 23-AL protokolidan ko'chirma</v>
       </c>
-      <c r="B2" s="296"/>
-      <c r="C2" s="296"/>
-      <c r="D2" s="296"/>
-      <c r="E2" s="296"/>
+      <c r="B2" s="295"/>
+      <c r="C2" s="295"/>
+      <c r="D2" s="295"/>
+      <c r="E2" s="295"/>
     </row>
     <row r="3" spans="1:33" ht="29.25" customHeight="1">
       <c r="A3" s="118" t="s">
@@ -16495,32 +16496,32 @@
     </row>
     <row r="4" spans="1:33" ht="29.25" customHeight="1">
       <c r="A4" s="249"/>
-      <c r="B4" s="296" t="s">
+      <c r="B4" s="295" t="s">
         <v>200</v>
       </c>
-      <c r="C4" s="296"/>
-      <c r="D4" s="296"/>
+      <c r="C4" s="295"/>
+      <c r="D4" s="295"/>
       <c r="E4" s="249"/>
     </row>
     <row r="5" spans="1:33" ht="36" customHeight="1">
-      <c r="A5" s="295" t="str">
+      <c r="A5" s="294" t="str">
         <f>"         "&amp;H8&amp;"."&amp;malumot!B5&amp;" ga "&amp;malumot!B65&amp;" berish masalasini ko‘rib chiqish to‘g‘risida."</f>
         <v xml:space="preserve">         1.NUTFULLAYEV AKBARJON AXMEDOVICH ga mikroqarz berish masalasini ko‘rib chiqish to‘g‘risida.</v>
       </c>
-      <c r="B5" s="295"/>
-      <c r="C5" s="295"/>
-      <c r="D5" s="295"/>
-      <c r="E5" s="295"/>
+      <c r="B5" s="294"/>
+      <c r="C5" s="294"/>
+      <c r="D5" s="294"/>
+      <c r="E5" s="294"/>
     </row>
     <row r="7" spans="1:33" ht="21" customHeight="1">
-      <c r="A7" s="291" t="str">
+      <c r="A7" s="290" t="str">
         <f>"      "&amp;H9&amp;" masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  "&amp;malumot!B5&amp;"ga "&amp;FIXED(malumot!B75)&amp;" ("&amp;malumot!B76&amp;") so‘m miqdorida, muddati "&amp;malumot!B81&amp;" ("&amp;malumot!B82&amp;") oyga va yillik 60 (Oltmish) foiz miqdorida "&amp;malumot!B65&amp;" berich bo‘yicha "&amp;malumot!B5&amp;"ning kredit arizasi va "&amp;malumot!B153&amp;"ning xulosasi bilan ishtirokchilarni tanishtirdi."</f>
         <v xml:space="preserve">      Birinchi masala yuzasidan: «Clever Mikromoliya Tashkiloti» MChJ mikromoliya tashkiloti kredit bo‘yicha menejeri  NUTFULLAYEV AKBARJON AXMEDOVICHga 27 000 000,00 (yigirma yetti million so'm) so‘m miqdorida, muddati 36 (o'ttiz olti) oyga va yillik 60 (Oltmish) foiz miqdorida mikroqarz berich bo‘yicha NUTFULLAYEV AKBARJON AXMEDOVICHning kredit arizasi va «CLEVER MIKROMOLIYA TASHKILOTI» MChJning xulosasi bilan ishtirokchilarni tanishtirdi.</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
       <c r="G7" s="254" t="s">
         <v>255</v>
       </c>
@@ -16530,11 +16531,11 @@
       </c>
     </row>
     <row r="8" spans="1:33">
-      <c r="A8" s="291"/>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
+      <c r="A8" s="290"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
       <c r="G8" s="254" t="s">
         <v>256</v>
       </c>
@@ -16618,11 +16619,11 @@
       </c>
     </row>
     <row r="9" spans="1:33" ht="24" customHeight="1">
-      <c r="A9" s="291"/>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
+      <c r="A9" s="290"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
       <c r="G9" s="254" t="s">
         <v>257</v>
       </c>
@@ -16707,25 +16708,25 @@
       </c>
     </row>
     <row r="10" spans="1:33" ht="10.5" hidden="1" customHeight="1">
-      <c r="A10" s="291"/>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
+      <c r="A10" s="290"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
     </row>
     <row r="11" spans="1:33" ht="9" hidden="1" customHeight="1">
-      <c r="A11" s="291"/>
-      <c r="B11" s="291"/>
-      <c r="C11" s="291"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="A11" s="290"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
     </row>
     <row r="12" spans="1:33" ht="3" hidden="1" customHeight="1">
-      <c r="A12" s="291"/>
-      <c r="B12" s="291"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="A12" s="290"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
     </row>
     <row r="13" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="14" spans="1:33" ht="15.75" customHeight="1">
@@ -16740,14 +16741,14 @@
     </row>
     <row r="15" spans="1:33" ht="7.5" customHeight="1"/>
     <row r="16" spans="1:33" ht="57" customHeight="1">
-      <c r="A16" s="291" t="str">
+      <c r="A16" s="290" t="str">
         <f>xulosa!A18:E18</f>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan umumiy maydoni - 72,13  va yashash maydoni - 37,39 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" customHeight="1">
       <c r="C17" s="255" t="s">
@@ -16763,93 +16764,93 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1">
-      <c r="A18" s="291" t="str">
+      <c r="A18" s="290" t="str">
         <f>CONCATENATE(H9,E17)</f>
         <v>Birinchi masala yuzasidan berilgan ma’lumotlarni muhokama qilib, Kredit qo‘mitasi a’zolariga taqdim etilgan zarur hujjatlarni o‘rganib, majlisda ishtirok etgan Kredit qo‘mitasi a’zolarining taklif va mulohazalarini inobatga olgan holda «CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasi</v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
     </row>
     <row r="19" spans="1:5" ht="24" customHeight="1">
-      <c r="A19" s="297" t="s">
+      <c r="A19" s="296" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="297"/>
-      <c r="C19" s="297"/>
-      <c r="D19" s="297"/>
-      <c r="E19" s="297"/>
+      <c r="B19" s="296"/>
+      <c r="C19" s="296"/>
+      <c r="D19" s="296"/>
+      <c r="E19" s="296"/>
     </row>
     <row r="20" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A20" s="291" t="str">
+      <c r="A20" s="290" t="str">
         <f>"       "&amp;malumot!B5&amp;"ga quyidagi shartlarda "&amp;malumot!B65&amp;" berish masalasi ma’qullansin:"</f>
         <v xml:space="preserve">       NUTFULLAYEV AKBARJON AXMEDOVICHga quyidagi shartlarda mikroqarz berish masalasi ma’qullansin:</v>
       </c>
-      <c r="B20" s="291"/>
-      <c r="C20" s="291"/>
-      <c r="D20" s="291"/>
-      <c r="E20" s="291"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="290"/>
     </row>
     <row r="21" spans="1:5" s="256" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A21" s="295" t="str">
+      <c r="A21" s="294" t="str">
         <f>"1. "&amp;malumot!C64&amp;" summasi: "&amp;FIXED(malumot!B75)&amp;" ("&amp;malumot!B76&amp;") so'm."</f>
         <v>1. Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B21" s="295"/>
-      <c r="C21" s="295"/>
-      <c r="D21" s="295"/>
-      <c r="E21" s="295"/>
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
     </row>
     <row r="22" spans="1:5" s="256" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A22" s="295" t="str">
+      <c r="A22" s="294" t="str">
         <f>"2. "&amp;malumot!C64&amp;" muddati: "&amp;malumot!B81&amp;" ("&amp;malumot!B82&amp;") oy "</f>
         <v xml:space="preserve">2. Mikroqarz muddati: 36 (o'ttiz olti) oy </v>
       </c>
-      <c r="B22" s="295"/>
-      <c r="C22" s="295"/>
-      <c r="D22" s="295"/>
-      <c r="E22" s="295"/>
+      <c r="B22" s="294"/>
+      <c r="C22" s="294"/>
+      <c r="D22" s="294"/>
+      <c r="E22" s="294"/>
     </row>
     <row r="23" spans="1:5" s="256" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A23" s="295" t="str">
+      <c r="A23" s="294" t="str">
         <f>"3. "&amp;malumot!C64&amp;"dan foydalanganlik uchun foiz stavkasi:yillik "&amp;malumot!B85&amp;"% ("&amp;malumot!B86&amp;") foiz."</f>
         <v>3. Mikroqarzdan foydalanganlik uchun foiz stavkasi:yillik 60% (Oltmish) foiz.</v>
       </c>
-      <c r="B23" s="295"/>
-      <c r="C23" s="295"/>
-      <c r="D23" s="295"/>
-      <c r="E23" s="295"/>
+      <c r="B23" s="294"/>
+      <c r="C23" s="294"/>
+      <c r="D23" s="294"/>
+      <c r="E23" s="294"/>
     </row>
     <row r="24" spans="1:5" s="256" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A24" s="295" t="str">
+      <c r="A24" s="294" t="str">
         <f>"4. "&amp;malumot!C64&amp;" bo‘yicha asosiy qarz va foizlarni to‘lash:"</f>
         <v>4. Mikroqarz bo‘yicha asosiy qarz va foizlarni to‘lash:</v>
       </c>
-      <c r="B24" s="295"/>
-      <c r="C24" s="295"/>
-      <c r="D24" s="295"/>
-      <c r="E24" s="295"/>
+      <c r="B24" s="294"/>
+      <c r="C24" s="294"/>
+      <c r="D24" s="294"/>
+      <c r="E24" s="294"/>
     </row>
     <row r="25" spans="1:5" s="256" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A25" s="295" t="str">
+      <c r="A25" s="294" t="str">
         <f>kredit_ariza!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B25" s="295"/>
-      <c r="C25" s="295"/>
-      <c r="D25" s="295"/>
-      <c r="E25" s="295"/>
+      <c r="B25" s="294"/>
+      <c r="C25" s="294"/>
+      <c r="D25" s="294"/>
+      <c r="E25" s="294"/>
     </row>
     <row r="26" spans="1:5" ht="48" customHeight="1">
-      <c r="A26" s="291" t="str">
+      <c r="A26" s="290" t="str">
         <f>"5. "&amp;malumot!C64&amp;" bo‘yicha garov  "&amp;xulosa!A29:E29&amp;""</f>
         <v>5. Mikroqarz bo‘yicha garov   -   NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli ko'chmas mulk shaklida 3 - xonali yakka tartibdagi uy-joy, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON, quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B26" s="291"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
-      <c r="E26" s="291"/>
+      <c r="B26" s="290"/>
+      <c r="C26" s="290"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="290"/>
     </row>
     <row r="27" spans="1:5" ht="40.5" customHeight="1">
       <c r="A27" s="250" t="str">
@@ -16897,44 +16898,44 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A29" s="291" t="str">
+      <c r="A29" s="290" t="str">
         <f>dalolatnoma!A22:E22</f>
         <v>-* ko'chmas mulk egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B29" s="291"/>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="291"/>
+      <c r="B29" s="290"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
     </row>
     <row r="30" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A30" s="291" t="str">
+      <c r="A30" s="290" t="str">
         <f>dalolatnoma!A23:E23</f>
         <v>-* reest raqami: 13.12.2020 yildan 1718238/R-A1419303</v>
       </c>
-      <c r="B30" s="291"/>
-      <c r="C30" s="291"/>
-      <c r="D30" s="291"/>
-      <c r="E30" s="291"/>
+      <c r="B30" s="290"/>
+      <c r="C30" s="290"/>
+      <c r="D30" s="290"/>
+      <c r="E30" s="290"/>
     </row>
     <row r="31" spans="1:5" ht="22.5" customHeight="1">
-      <c r="A31" s="291" t="str">
+      <c r="A31" s="290" t="str">
         <f>dalolatnoma!A24:E24</f>
         <v>-*  kadastr raqami: 16.12.2020 yildan №14:13:02:01:03:1179:0006:058</v>
       </c>
-      <c r="B31" s="291"/>
-      <c r="C31" s="291"/>
-      <c r="D31" s="291"/>
-      <c r="E31" s="291"/>
+      <c r="B31" s="290"/>
+      <c r="C31" s="290"/>
+      <c r="D31" s="290"/>
+      <c r="E31" s="290"/>
     </row>
     <row r="32" spans="1:5" ht="25.5" customHeight="1">
-      <c r="A32" s="291" t="str">
+      <c r="A32" s="290" t="str">
         <f>dalolatnoma!A25:E25</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B32" s="291"/>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="291"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
     </row>
     <row r="33" spans="1:5" ht="12" customHeight="1">
       <c r="A33" s="248"/>
@@ -16944,14 +16945,14 @@
       <c r="E33" s="248"/>
     </row>
     <row r="34" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A34" s="291" t="str">
+      <c r="A34" s="290" t="str">
         <f>"6. Boshqa shartlar – "&amp;IF(malumot!B109=malumot!B110,"avtotransport vositasi",IF(malumot!B109=malumot!C110,"ko'chmas mulk",0))&amp;" shaklida garov ta'minlangandan keyin "&amp;malumot!B65&amp;" berish."</f>
         <v>6. Boshqa shartlar – ko'chmas mulk shaklida garov ta'minlangandan keyin mikroqarz berish.</v>
       </c>
-      <c r="B34" s="291"/>
-      <c r="C34" s="291"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="291"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="269"/>
@@ -16975,13 +16976,13 @@
       <c r="E37" s="269"/>
     </row>
     <row r="39" spans="1:5" ht="29.25" customHeight="1">
-      <c r="A39" s="293" t="s">
+      <c r="A39" s="297" t="s">
         <v>259</v>
       </c>
-      <c r="B39" s="293"/>
-      <c r="C39" s="293"/>
-      <c r="D39" s="293"/>
-      <c r="E39" s="293"/>
+      <c r="B39" s="297"/>
+      <c r="C39" s="297"/>
+      <c r="D39" s="297"/>
+      <c r="E39" s="297"/>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="263"/>
@@ -16991,11 +16992,11 @@
       <c r="E40" s="263"/>
     </row>
     <row r="41" spans="1:5" ht="37.5" customHeight="1">
-      <c r="A41" s="294" t="str">
+      <c r="A41" s="293" t="str">
         <f>malumot!B153&amp;" ijrochi direktori"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ ijrochi direktori</v>
       </c>
-      <c r="B41" s="294"/>
+      <c r="B41" s="293"/>
       <c r="C41" s="258"/>
       <c r="D41" s="259" t="s">
         <v>419</v>
@@ -17062,6 +17063,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A39:E39"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A31:E31"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A41:B41"/>
     <mergeCell ref="A22:E22"/>
     <mergeCell ref="A1:E1"/>
@@ -17078,13 +17086,6 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A24:E24"/>
     <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A39:E39"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A34:E34"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="72" orientation="portrait" verticalDpi="300" r:id="rId1"/>
@@ -17131,10 +17132,10 @@
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
       <c r="D1" s="73"/>
-      <c r="E1" s="307" t="s">
+      <c r="E1" s="298" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="307"/>
+      <c r="F1" s="298"/>
     </row>
     <row r="2" spans="1:22">
       <c r="A2" s="73"/>
@@ -17160,14 +17161,14 @@
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:22" ht="19.5" customHeight="1">
-      <c r="A4" s="308" t="s">
+      <c r="A4" s="299" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="308"/>
-      <c r="C4" s="308"/>
-      <c r="D4" s="308"/>
-      <c r="E4" s="308"/>
-      <c r="F4" s="308"/>
+      <c r="B4" s="299"/>
+      <c r="C4" s="299"/>
+      <c r="D4" s="299"/>
+      <c r="E4" s="299"/>
+      <c r="F4" s="299"/>
       <c r="H4" s="76"/>
       <c r="I4" s="76"/>
       <c r="J4" s="76"/>
@@ -17180,25 +17181,25 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="309" t="s">
+      <c r="A6" s="300" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="310" t="s">
+      <c r="B6" s="301" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="310" t="s">
+      <c r="C6" s="301" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="311" t="s">
+      <c r="D6" s="302" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="311"/>
-      <c r="F6" s="311"/>
+      <c r="E6" s="302"/>
+      <c r="F6" s="302"/>
     </row>
     <row r="7" spans="1:22" s="11" customFormat="1">
-      <c r="A7" s="309"/>
-      <c r="B7" s="310"/>
-      <c r="C7" s="310"/>
+      <c r="A7" s="300"/>
+      <c r="B7" s="301"/>
+      <c r="C7" s="301"/>
       <c r="D7" s="78" t="s">
         <v>11</v>
       </c>
@@ -19931,187 +19932,201 @@
       <c r="F49" s="306"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="303" t="e">
+      <c r="A50" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="303"/>
-      <c r="C50" s="303"/>
-      <c r="D50" s="303" t="e">
+      <c r="B50" s="307"/>
+      <c r="C50" s="307"/>
+      <c r="D50" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="303"/>
-      <c r="F50" s="303"/>
+      <c r="E50" s="307"/>
+      <c r="F50" s="307"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="299" t="e">
+      <c r="A51" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="299"/>
-      <c r="C51" s="299"/>
-      <c r="D51" s="299" t="e">
+      <c r="B51" s="303"/>
+      <c r="C51" s="303"/>
+      <c r="D51" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="299"/>
-      <c r="F51" s="299"/>
+      <c r="E51" s="303"/>
+      <c r="F51" s="303"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="299" t="e">
+      <c r="A52" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="299"/>
-      <c r="C52" s="299"/>
-      <c r="D52" s="299" t="str">
+      <c r="B52" s="303"/>
+      <c r="C52" s="303"/>
+      <c r="D52" s="303" t="str">
         <f>"паспорт серии "&amp;malumot!B16&amp;", "&amp;malumot!B20&amp;""</f>
         <v>паспорт серии AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E52" s="299"/>
-      <c r="F52" s="299"/>
+      <c r="E52" s="303"/>
+      <c r="F52" s="303"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="299" t="e">
+      <c r="A53" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="299"/>
-      <c r="C53" s="299"/>
-      <c r="D53" s="299"/>
-      <c r="E53" s="299"/>
-      <c r="F53" s="299"/>
+      <c r="B53" s="303"/>
+      <c r="C53" s="303"/>
+      <c r="D53" s="303"/>
+      <c r="E53" s="303"/>
+      <c r="F53" s="303"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="299" t="e">
+      <c r="A54" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="299"/>
-      <c r="C54" s="299"/>
-      <c r="D54" s="299" t="e">
+      <c r="B54" s="303"/>
+      <c r="C54" s="303"/>
+      <c r="D54" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="299"/>
-      <c r="F54" s="299"/>
+      <c r="E54" s="303"/>
+      <c r="F54" s="303"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="299" t="e">
+      <c r="A55" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="299"/>
-      <c r="C55" s="299"/>
-      <c r="D55" s="299" t="e">
+      <c r="B55" s="303"/>
+      <c r="C55" s="303"/>
+      <c r="D55" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="299"/>
-      <c r="F55" s="299"/>
+      <c r="E55" s="303"/>
+      <c r="F55" s="303"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="299" t="e">
+      <c r="A56" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="299"/>
-      <c r="C56" s="299"/>
-      <c r="D56" s="299" t="e">
+      <c r="B56" s="303"/>
+      <c r="C56" s="303"/>
+      <c r="D56" s="303" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="299"/>
-      <c r="F56" s="299"/>
+      <c r="E56" s="303"/>
+      <c r="F56" s="303"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="299"/>
-      <c r="B57" s="299"/>
-      <c r="C57" s="299"/>
-      <c r="D57" s="299"/>
-      <c r="E57" s="299"/>
-      <c r="F57" s="299"/>
+      <c r="A57" s="303"/>
+      <c r="B57" s="303"/>
+      <c r="C57" s="303"/>
+      <c r="D57" s="303"/>
+      <c r="E57" s="303"/>
+      <c r="F57" s="303"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="303" t="e">
+      <c r="A58" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="303"/>
-      <c r="C58" s="303"/>
-      <c r="D58" s="303" t="e">
+      <c r="B58" s="307"/>
+      <c r="C58" s="307"/>
+      <c r="D58" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="303"/>
-      <c r="F58" s="303"/>
+      <c r="E58" s="307"/>
+      <c r="F58" s="307"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="303"/>
-      <c r="B59" s="303"/>
-      <c r="C59" s="303"/>
-      <c r="D59" s="303"/>
-      <c r="E59" s="303"/>
-      <c r="F59" s="303"/>
+      <c r="A59" s="307"/>
+      <c r="B59" s="307"/>
+      <c r="C59" s="307"/>
+      <c r="D59" s="307"/>
+      <c r="E59" s="307"/>
+      <c r="F59" s="307"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="303" t="e">
+      <c r="A60" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="303"/>
-      <c r="C60" s="303"/>
-      <c r="D60" s="303" t="e">
+      <c r="B60" s="307"/>
+      <c r="C60" s="307"/>
+      <c r="D60" s="307" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="303"/>
-      <c r="F60" s="303"/>
+      <c r="E60" s="307"/>
+      <c r="F60" s="307"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="299"/>
-      <c r="B61" s="299"/>
-      <c r="C61" s="299"/>
-      <c r="D61" s="299"/>
-      <c r="E61" s="299"/>
-      <c r="F61" s="299"/>
+      <c r="A61" s="303"/>
+      <c r="B61" s="303"/>
+      <c r="C61" s="303"/>
+      <c r="D61" s="303"/>
+      <c r="E61" s="303"/>
+      <c r="F61" s="303"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="300"/>
-      <c r="B62" s="300"/>
-      <c r="C62" s="300"/>
-      <c r="D62" s="301" t="e">
+      <c r="A62" s="309"/>
+      <c r="B62" s="309"/>
+      <c r="C62" s="309"/>
+      <c r="D62" s="310" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E62" s="301"/>
-      <c r="F62" s="301"/>
+      <c r="E62" s="310"/>
+      <c r="F62" s="310"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="302"/>
-      <c r="B63" s="302"/>
-      <c r="C63" s="302"/>
-      <c r="D63" s="302"/>
-      <c r="E63" s="302"/>
-      <c r="F63" s="302"/>
+      <c r="A63" s="311"/>
+      <c r="B63" s="311"/>
+      <c r="C63" s="311"/>
+      <c r="D63" s="311"/>
+      <c r="E63" s="311"/>
+      <c r="F63" s="311"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="298"/>
-      <c r="B64" s="298"/>
-      <c r="C64" s="298"/>
-      <c r="D64" s="298"/>
-      <c r="E64" s="298"/>
-      <c r="F64" s="298"/>
+      <c r="A64" s="308"/>
+      <c r="B64" s="308"/>
+      <c r="C64" s="308"/>
+      <c r="D64" s="308"/>
+      <c r="E64" s="308"/>
+      <c r="F64" s="308"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -20126,26 +20141,12 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
@@ -21330,10 +21331,10 @@
       <c r="B1" s="32"/>
       <c r="C1" s="32"/>
       <c r="D1" s="32"/>
-      <c r="E1" s="319" t="s">
+      <c r="E1" s="312" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="319"/>
+      <c r="F1" s="312"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="32"/>
@@ -21355,36 +21356,36 @@
       <c r="F3" s="32"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="320" t="s">
+      <c r="A4" s="313" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="320"/>
-      <c r="C4" s="320"/>
-      <c r="D4" s="320"/>
-      <c r="E4" s="320"/>
-      <c r="F4" s="320"/>
+      <c r="B4" s="313"/>
+      <c r="C4" s="313"/>
+      <c r="D4" s="313"/>
+      <c r="E4" s="313"/>
+      <c r="F4" s="313"/>
     </row>
     <row r="5" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="6" spans="1:8">
-      <c r="A6" s="321" t="s">
+      <c r="A6" s="314" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="322" t="s">
+      <c r="B6" s="315" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="322" t="s">
+      <c r="C6" s="315" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="323" t="s">
+      <c r="D6" s="316" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="323"/>
-      <c r="F6" s="323"/>
+      <c r="E6" s="316"/>
+      <c r="F6" s="316"/>
     </row>
     <row r="7" spans="1:8" s="11" customFormat="1">
-      <c r="A7" s="321"/>
-      <c r="B7" s="322"/>
-      <c r="C7" s="322"/>
+      <c r="A7" s="314"/>
+      <c r="B7" s="315"/>
+      <c r="C7" s="315"/>
       <c r="D7" s="12" t="s">
         <v>11</v>
       </c>
@@ -22622,217 +22623,231 @@
       <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:8" ht="47.25" customHeight="1">
-      <c r="A46" s="291" t="s">
+      <c r="A46" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="B46" s="291"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
-      <c r="F46" s="291"/>
+      <c r="B46" s="290"/>
+      <c r="C46" s="290"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="290"/>
+      <c r="F46" s="290"/>
     </row>
     <row r="47" spans="1:8" ht="7.5" customHeight="1"/>
     <row r="48" spans="1:8">
-      <c r="A48" s="317" t="e">
+      <c r="A48" s="318" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B48" s="317"/>
-      <c r="C48" s="317"/>
-      <c r="D48" s="317" t="e">
+      <c r="B48" s="318"/>
+      <c r="C48" s="318"/>
+      <c r="D48" s="318" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E48" s="317"/>
-      <c r="F48" s="317"/>
+      <c r="E48" s="318"/>
+      <c r="F48" s="318"/>
     </row>
     <row r="49" spans="1:6" ht="11.25" customHeight="1">
-      <c r="A49" s="318"/>
-      <c r="B49" s="318"/>
-      <c r="C49" s="318"/>
-      <c r="D49" s="318"/>
-      <c r="E49" s="318"/>
-      <c r="F49" s="318"/>
+      <c r="A49" s="319"/>
+      <c r="B49" s="319"/>
+      <c r="C49" s="319"/>
+      <c r="D49" s="319"/>
+      <c r="E49" s="319"/>
+      <c r="F49" s="319"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1">
-      <c r="A50" s="290" t="e">
+      <c r="A50" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B50" s="290"/>
-      <c r="C50" s="290"/>
-      <c r="D50" s="290" t="e">
+      <c r="B50" s="291"/>
+      <c r="C50" s="291"/>
+      <c r="D50" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E50" s="290"/>
-      <c r="F50" s="290"/>
+      <c r="E50" s="291"/>
+      <c r="F50" s="291"/>
     </row>
     <row r="51" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A51" s="313" t="e">
+      <c r="A51" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B51" s="313"/>
-      <c r="C51" s="313"/>
-      <c r="D51" s="313" t="e">
+      <c r="B51" s="317"/>
+      <c r="C51" s="317"/>
+      <c r="D51" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E51" s="313"/>
-      <c r="F51" s="313"/>
+      <c r="E51" s="317"/>
+      <c r="F51" s="317"/>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="313" t="e">
+      <c r="A52" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B52" s="313"/>
-      <c r="C52" s="313"/>
-      <c r="D52" s="313" t="str">
+      <c r="B52" s="317"/>
+      <c r="C52" s="317"/>
+      <c r="D52" s="317" t="str">
         <f>"паспорт серии "&amp;malumot!B16&amp;", "&amp;malumot!B20&amp;""</f>
         <v>паспорт серии AA 9481167, BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan</v>
       </c>
-      <c r="E52" s="313"/>
-      <c r="F52" s="313"/>
+      <c r="E52" s="317"/>
+      <c r="F52" s="317"/>
     </row>
     <row r="53" spans="1:6" ht="32.25" customHeight="1">
-      <c r="A53" s="313" t="e">
+      <c r="A53" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B53" s="313"/>
-      <c r="C53" s="313"/>
-      <c r="D53" s="313"/>
-      <c r="E53" s="313"/>
-      <c r="F53" s="313"/>
+      <c r="B53" s="317"/>
+      <c r="C53" s="317"/>
+      <c r="D53" s="317"/>
+      <c r="E53" s="317"/>
+      <c r="F53" s="317"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="313" t="e">
+      <c r="A54" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B54" s="313"/>
-      <c r="C54" s="313"/>
-      <c r="D54" s="313" t="e">
+      <c r="B54" s="317"/>
+      <c r="C54" s="317"/>
+      <c r="D54" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E54" s="313"/>
-      <c r="F54" s="313"/>
+      <c r="E54" s="317"/>
+      <c r="F54" s="317"/>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="313" t="e">
+      <c r="A55" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B55" s="313"/>
-      <c r="C55" s="313"/>
-      <c r="D55" s="313" t="e">
+      <c r="B55" s="317"/>
+      <c r="C55" s="317"/>
+      <c r="D55" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E55" s="313"/>
-      <c r="F55" s="313"/>
+      <c r="E55" s="317"/>
+      <c r="F55" s="317"/>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="313" t="e">
+      <c r="A56" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B56" s="313"/>
-      <c r="C56" s="313"/>
-      <c r="D56" s="313" t="e">
+      <c r="B56" s="317"/>
+      <c r="C56" s="317"/>
+      <c r="D56" s="317" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="313"/>
-      <c r="F56" s="313"/>
+      <c r="E56" s="317"/>
+      <c r="F56" s="317"/>
     </row>
     <row r="57" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A57" s="313"/>
-      <c r="B57" s="313"/>
-      <c r="C57" s="313"/>
-      <c r="D57" s="313"/>
-      <c r="E57" s="313"/>
-      <c r="F57" s="313"/>
+      <c r="A57" s="317"/>
+      <c r="B57" s="317"/>
+      <c r="C57" s="317"/>
+      <c r="D57" s="317"/>
+      <c r="E57" s="317"/>
+      <c r="F57" s="317"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="290" t="e">
+      <c r="A58" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B58" s="290"/>
-      <c r="C58" s="290"/>
-      <c r="D58" s="290" t="e">
+      <c r="B58" s="291"/>
+      <c r="C58" s="291"/>
+      <c r="D58" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E58" s="290"/>
-      <c r="F58" s="290"/>
+      <c r="E58" s="291"/>
+      <c r="F58" s="291"/>
     </row>
     <row r="59" spans="1:6" ht="7.5" customHeight="1">
-      <c r="A59" s="290"/>
-      <c r="B59" s="290"/>
-      <c r="C59" s="290"/>
-      <c r="D59" s="290"/>
-      <c r="E59" s="290"/>
-      <c r="F59" s="290"/>
+      <c r="A59" s="291"/>
+      <c r="B59" s="291"/>
+      <c r="C59" s="291"/>
+      <c r="D59" s="291"/>
+      <c r="E59" s="291"/>
+      <c r="F59" s="291"/>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="290" t="e">
+      <c r="A60" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="B60" s="290"/>
-      <c r="C60" s="290"/>
-      <c r="D60" s="290" t="e">
+      <c r="B60" s="291"/>
+      <c r="C60" s="291"/>
+      <c r="D60" s="291" t="e">
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E60" s="290"/>
-      <c r="F60" s="290"/>
+      <c r="E60" s="291"/>
+      <c r="F60" s="291"/>
     </row>
     <row r="61" spans="1:6" ht="8.25" customHeight="1">
-      <c r="A61" s="313"/>
-      <c r="B61" s="313"/>
-      <c r="C61" s="313"/>
-      <c r="D61" s="313"/>
-      <c r="E61" s="313"/>
-      <c r="F61" s="313"/>
+      <c r="A61" s="317"/>
+      <c r="B61" s="317"/>
+      <c r="C61" s="317"/>
+      <c r="D61" s="317"/>
+      <c r="E61" s="317"/>
+      <c r="F61" s="317"/>
     </row>
     <row r="62" spans="1:6" ht="30" customHeight="1">
-      <c r="A62" s="314"/>
-      <c r="B62" s="314"/>
-      <c r="C62" s="314"/>
-      <c r="D62" s="315"/>
-      <c r="E62" s="315"/>
-      <c r="F62" s="315"/>
+      <c r="A62" s="321"/>
+      <c r="B62" s="321"/>
+      <c r="C62" s="321"/>
+      <c r="D62" s="322"/>
+      <c r="E62" s="322"/>
+      <c r="F62" s="322"/>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="316"/>
-      <c r="B63" s="316"/>
-      <c r="C63" s="316"/>
-      <c r="D63" s="316"/>
-      <c r="E63" s="316"/>
-      <c r="F63" s="316"/>
+      <c r="A63" s="323"/>
+      <c r="B63" s="323"/>
+      <c r="C63" s="323"/>
+      <c r="D63" s="323"/>
+      <c r="E63" s="323"/>
+      <c r="F63" s="323"/>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="312"/>
-      <c r="B64" s="312"/>
-      <c r="C64" s="312"/>
-      <c r="D64" s="312"/>
-      <c r="E64" s="312"/>
-      <c r="F64" s="312"/>
+      <c r="A64" s="320"/>
+      <c r="B64" s="320"/>
+      <c r="C64" s="320"/>
+      <c r="D64" s="320"/>
+      <c r="E64" s="320"/>
+      <c r="F64" s="320"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:F55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:F56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:F57"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="D54:F54"/>
     <mergeCell ref="A46:F46"/>
@@ -22847,26 +22862,12 @@
     <mergeCell ref="A52:C52"/>
     <mergeCell ref="D52:F53"/>
     <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="B8:B43">
     <cfRule type="cellIs" dxfId="4" priority="4" operator="lessThan">
@@ -22896,7 +22897,7 @@
   <dimension ref="A1:E67"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A47" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+      <selection activeCell="A67" sqref="A67:D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -22908,149 +22909,149 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="36" customHeight="1">
-      <c r="A1" s="290" t="str">
+      <c r="A1" s="291" t="str">
         <f>""&amp;malumot!B153&amp;"
 mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ
 mikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B1" s="290"/>
-      <c r="C1" s="290"/>
-      <c r="D1" s="290"/>
-      <c r="E1" s="290"/>
+      <c r="B1" s="291"/>
+      <c r="C1" s="291"/>
+      <c r="D1" s="291"/>
+      <c r="E1" s="291"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="291"/>
-      <c r="B2" s="291"/>
-      <c r="C2" s="291"/>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
+      <c r="A2" s="290"/>
+      <c r="B2" s="290"/>
+      <c r="C2" s="290"/>
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="290" t="s">
+      <c r="A3" s="291" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="290"/>
-      <c r="C3" s="290"/>
-      <c r="D3" s="290"/>
-      <c r="E3" s="290"/>
+      <c r="B3" s="291"/>
+      <c r="C3" s="291"/>
+      <c r="D3" s="291"/>
+      <c r="E3" s="291"/>
     </row>
     <row r="4" spans="1:5" ht="19.5" customHeight="1">
-      <c r="A4" s="291" t="str">
+      <c r="A4" s="290" t="str">
         <f>"Mijozning to'liq ismi sharifi: "&amp;malumot!B5&amp;""</f>
         <v>Mijozning to'liq ismi sharifi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B4" s="291"/>
-      <c r="C4" s="291"/>
-      <c r="D4" s="291"/>
-      <c r="E4" s="291"/>
+      <c r="B4" s="290"/>
+      <c r="C4" s="290"/>
+      <c r="D4" s="290"/>
+      <c r="E4" s="290"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="291" t="str">
+      <c r="A5" s="290" t="str">
         <f>"Tug'ilgan sanasi: "&amp;malumot!B15&amp;""</f>
         <v>Tug'ilgan sanasi: 14.09.1989 y</v>
       </c>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
     </row>
     <row r="6" spans="1:5" ht="31.5" customHeight="1">
-      <c r="A6" s="291" t="str">
+      <c r="A6" s="290" t="str">
         <f>"Pasport seriyasi "&amp;malumot!B16&amp;" "&amp;malumot!B20&amp;", amal qilish muddati - "&amp;malumot!B21&amp;""</f>
         <v>Pasport seriyasi AA 9481167 BUXORO VILOYATI BUXORO SHAHAR IIB tomonidan 24.04.2015 yilda berilgan, amal qilish muddati - 23.04.2025 y.</v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
     </row>
     <row r="7" spans="1:5" ht="39.75" customHeight="1">
-      <c r="A7" s="291" t="str">
+      <c r="A7" s="290" t="str">
         <f>"Ro‘yxatdan o‘tgan manzili: "&amp;malumot!B28&amp;", mo'ljal: "&amp;malumot!B26&amp;""</f>
         <v>Ro‘yxatdan o‘tgan manzili: BUXORO VILOYATI BUXORO SHAHAR TADBIRKOR KO'CHASI 12-UY, mo'ljal: GOR VODAKANAL</v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
     </row>
     <row r="8" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A8" s="291" t="str">
+      <c r="A8" s="290" t="str">
         <f>"Ish joyi: "&amp;malumot!B52&amp;" lavozimi "&amp;malumot!B49&amp;"da "&amp;malumot!B44&amp;""</f>
         <v>Ish joyi:  lavozimi Yakka tartibdagi tadbirkorda Yakka tartibdagi tadbirkor</v>
       </c>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="291"/>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
+      <c r="A9" s="290"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="290" t="str">
+      <c r="A10" s="291" t="str">
         <f>"Mijoz tomonidan so’ralgan "&amp;malumot!B65&amp;" shartlari:"</f>
         <v>Mijoz tomonidan so’ralgan mikroqarz shartlari:</v>
       </c>
-      <c r="B10" s="290"/>
-      <c r="C10" s="290"/>
-      <c r="D10" s="290"/>
-      <c r="E10" s="290"/>
+      <c r="B10" s="291"/>
+      <c r="C10" s="291"/>
+      <c r="D10" s="291"/>
+      <c r="E10" s="291"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="291" t="str">
+      <c r="A11" s="290" t="str">
         <f>kredit_ariza!A13:D13</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B11" s="291"/>
-      <c r="C11" s="291"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="291" t="str">
+      <c r="A12" s="290" t="str">
         <f>kredit_ariza!A14:D14</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B12" s="291"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="291" t="str">
+      <c r="A13" s="290" t="str">
         <f>kredit_ariza!A15:D15</f>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B13" s="291"/>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="291" t="str">
+      <c r="A14" s="290" t="str">
         <f>kredit_ariza!A16:D16</f>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
     </row>
     <row r="15" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A15" s="291" t="str">
+      <c r="A15" s="290" t="str">
         <f>kredit_ariza!A19:D19</f>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B15" s="291"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="291"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
     </row>
     <row r="16" spans="1:5" ht="14.25" customHeight="1">
       <c r="A16" s="292" t="str">
@@ -23063,83 +23064,83 @@
       <c r="E16" s="292"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="291" t="str">
+      <c r="A17" s="290" t="str">
         <f>kredit_ariza!A21:D21</f>
         <v>Mikroqarz ta’minoti::</v>
       </c>
-      <c r="B17" s="291"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
     </row>
     <row r="18" spans="1:5" ht="83.25" customHeight="1">
-      <c r="A18" s="291" t="str">
+      <c r="A18" s="290" t="str">
         <f>kredit_ariza!A22:D22</f>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan umumiy maydoni - 72,13  va yashash maydoni - 37,39 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="290" t="s">
+      <c r="A19" s="291" t="s">
         <v>203</v>
       </c>
-      <c r="B19" s="290"/>
-      <c r="C19" s="290"/>
-      <c r="D19" s="290"/>
-      <c r="E19" s="290"/>
+      <c r="B19" s="291"/>
+      <c r="C19" s="291"/>
+      <c r="D19" s="291"/>
+      <c r="E19" s="291"/>
     </row>
     <row r="20" spans="1:5" ht="21" customHeight="1">
-      <c r="A20" s="291" t="str">
+      <c r="A20" s="290" t="str">
         <f>"Anketaga muvofiq "&amp;malumot!B9&amp;"ning o‘rtacha oylik daromadi  "&amp;FIXED(malumot!B60)&amp;" so‘mni tashkil etdi."</f>
         <v>Anketaga muvofiq A.A.NUTFULLAYEVning o‘rtacha oylik daromadi  10 000 000,00 so‘mni tashkil etdi.</v>
       </c>
-      <c r="B20" s="291"/>
-      <c r="C20" s="291"/>
-      <c r="D20" s="291"/>
-      <c r="E20" s="291"/>
+      <c r="B20" s="290"/>
+      <c r="C20" s="290"/>
+      <c r="D20" s="290"/>
+      <c r="E20" s="290"/>
     </row>
     <row r="21" spans="1:5" ht="27" customHeight="1">
-      <c r="A21" s="291" t="str">
+      <c r="A21" s="290" t="str">
         <f>"Mijozning o'rtacha oylik xarajatlari "&amp;FIXED(mijoz_anketasi!F27)&amp;" so'mni tashkil etdi"</f>
         <v>Mijozning o'rtacha oylik xarajatlari 1 650 000,00 so'mni tashkil etdi</v>
       </c>
-      <c r="B21" s="291"/>
-      <c r="C21" s="291"/>
-      <c r="D21" s="291"/>
-      <c r="E21" s="291"/>
+      <c r="B21" s="290"/>
+      <c r="C21" s="290"/>
+      <c r="D21" s="290"/>
+      <c r="E21" s="290"/>
     </row>
     <row r="22" spans="1:5" ht="24.75" customHeight="1">
-      <c r="A22" s="291" t="str">
+      <c r="A22" s="290" t="str">
         <f>IF(malumot!B77=malumot!C77,xulosa!A23:E23,xulosa!A24:E24)</f>
         <v>Mikroqarz shartnomasi bo'yicha birinchi oy uchun to'lov 2 051 917,76 so'mni tashkil etadi.</v>
       </c>
-      <c r="B22" s="291"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="291"/>
+      <c r="B22" s="290"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
     </row>
     <row r="23" spans="1:5" ht="19.5" hidden="1" customHeight="1">
-      <c r="A23" s="291" t="str">
+      <c r="A23" s="290" t="str">
         <f>""&amp;malumot!C64&amp;" shartnomasi bo'yicha birinchi oy uchun to'lov "&amp;FIXED(malumot!B90)&amp;" so'mni tashkil etadi."</f>
         <v>Mikroqarz shartnomasi bo'yicha birinchi oy uchun to'lov 2 051 917,76 so'mni tashkil etadi.</v>
       </c>
-      <c r="B23" s="291"/>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="290"/>
     </row>
     <row r="24" spans="1:5" ht="19.5" hidden="1" customHeight="1">
-      <c r="A24" s="291" t="str">
+      <c r="A24" s="290" t="str">
         <f>""&amp;malumot!C64&amp;" bo‘yicha oylik "&amp;malumot!B77&amp;" to‘lovi miqdori "&amp;FIXED(malumot!B90)&amp;" so‘mni tashkil etadi."</f>
         <v>Mikroqarz bo‘yicha oylik differensial to‘lovi miqdori 2 051 917,76 so‘mni tashkil etadi.</v>
       </c>
-      <c r="B24" s="291"/>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
     </row>
     <row r="25" spans="1:5" ht="56.25" hidden="1" customHeight="1">
       <c r="A25" s="292" t="s">
@@ -23151,44 +23152,44 @@
       <c r="E25" s="292"/>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="290" t="str">
+      <c r="A26" s="291" t="str">
         <f>""&amp;malumot!C64&amp;" bo’yicha ta’minot:"</f>
         <v>Mikroqarz bo’yicha ta’minot:</v>
       </c>
-      <c r="B26" s="290"/>
-      <c r="C26" s="290"/>
-      <c r="D26" s="290"/>
-      <c r="E26" s="290"/>
+      <c r="B26" s="291"/>
+      <c r="C26" s="291"/>
+      <c r="D26" s="291"/>
+      <c r="E26" s="291"/>
     </row>
     <row r="27" spans="1:5" ht="31.5" hidden="1" customHeight="1">
-      <c r="A27" s="291" t="str">
+      <c r="A27" s="290" t="str">
         <f>" - "&amp;malumot!B123&amp;" ga mulk huquqi asosida tegishli avtotransport vositasi "&amp;malumot!B131&amp;" , quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> - NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli avtotransport vositasi CHANGAN CHANGAN SC 1027SB , quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B27" s="291"/>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
-      <c r="E27" s="291"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="290"/>
     </row>
     <row r="28" spans="1:5" ht="67.5" hidden="1" customHeight="1">
-      <c r="A28" s="291" t="str">
+      <c r="A28" s="290" t="str">
         <f>" -   "&amp;malumot!C123&amp;" ga mulk huquqi asosida tegishli ko'chmas mulk shaklida "&amp;malumot!C132&amp;", manzili: "&amp;malumot!C129&amp;", quyidagi tafsilotlarga muvofiq:"</f>
         <v xml:space="preserve"> -   NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli ko'chmas mulk shaklida 3 - xonali yakka tartibdagi uy-joy, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON, quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B28" s="291"/>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="291"/>
+      <c r="B28" s="290"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
     </row>
     <row r="29" spans="1:5" ht="44.25" customHeight="1">
-      <c r="A29" s="291" t="str">
+      <c r="A29" s="290" t="str">
         <f>IF(malumot!B109="Avtotransport",xulosa!A27:E27,xulosa!A28:E28)</f>
         <v xml:space="preserve"> -   NUTFULLAYEV AKBARJON AXMEDOVICH ga mulk huquqi asosida tegishli ko'chmas mulk shaklida 3 - xonali yakka tartibdagi uy-joy, manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON, quyidagi tafsilotlarga muvofiq:</v>
       </c>
-      <c r="B29" s="291"/>
-      <c r="C29" s="291"/>
-      <c r="D29" s="291"/>
-      <c r="E29" s="291"/>
+      <c r="B29" s="290"/>
+      <c r="C29" s="290"/>
+      <c r="D29" s="290"/>
+      <c r="E29" s="290"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="47.25" customHeight="1" outlineLevel="1">
       <c r="A30" s="34" t="str">
@@ -23236,170 +23237,170 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A32" s="291" t="str">
+      <c r="A32" s="290" t="str">
         <f>dalolatnoma!A22</f>
         <v>-* ko'chmas mulk egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B32" s="291"/>
-      <c r="C32" s="291"/>
-      <c r="D32" s="291"/>
-      <c r="E32" s="291"/>
+      <c r="B32" s="290"/>
+      <c r="C32" s="290"/>
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
     </row>
     <row r="33" spans="1:5" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A33" s="291" t="str">
+      <c r="A33" s="290" t="str">
         <f>dalolatnoma!A23</f>
         <v>-* reest raqami: 13.12.2020 yildan 1718238/R-A1419303</v>
       </c>
-      <c r="B33" s="291"/>
-      <c r="C33" s="291"/>
-      <c r="D33" s="291"/>
-      <c r="E33" s="291"/>
+      <c r="B33" s="290"/>
+      <c r="C33" s="290"/>
+      <c r="D33" s="290"/>
+      <c r="E33" s="290"/>
     </row>
     <row r="34" spans="1:5" ht="33" customHeight="1" outlineLevel="1">
-      <c r="A34" s="291" t="str">
+      <c r="A34" s="290" t="str">
         <f>dalolatnoma!A24</f>
         <v>-*  kadastr raqami: 16.12.2020 yildan №14:13:02:01:03:1179:0006:058</v>
       </c>
-      <c r="B34" s="291"/>
-      <c r="C34" s="291"/>
-      <c r="D34" s="291"/>
-      <c r="E34" s="291"/>
+      <c r="B34" s="290"/>
+      <c r="C34" s="290"/>
+      <c r="D34" s="290"/>
+      <c r="E34" s="290"/>
     </row>
     <row r="35" spans="1:5" ht="15" customHeight="1" outlineLevel="1">
-      <c r="A35" s="291" t="str">
+      <c r="A35" s="290" t="str">
         <f>dalolatnoma!A25</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B35" s="291"/>
-      <c r="C35" s="291"/>
-      <c r="D35" s="291"/>
-      <c r="E35" s="291"/>
+      <c r="B35" s="290"/>
+      <c r="C35" s="290"/>
+      <c r="D35" s="290"/>
+      <c r="E35" s="290"/>
     </row>
     <row r="36" spans="1:5" ht="9" customHeight="1">
-      <c r="A36" s="291"/>
-      <c r="B36" s="291"/>
-      <c r="C36" s="291"/>
-      <c r="D36" s="291"/>
-      <c r="E36" s="291"/>
+      <c r="A36" s="290"/>
+      <c r="B36" s="290"/>
+      <c r="C36" s="290"/>
+      <c r="D36" s="290"/>
+      <c r="E36" s="290"/>
     </row>
     <row r="37" spans="1:5" ht="39" customHeight="1">
-      <c r="A37" s="290" t="str">
+      <c r="A37" s="291" t="str">
         <f>""&amp;malumot!B153&amp;"
 mikromoliya tashkilotining Xulosasi"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ
 mikromoliya tashkilotining Xulosasi</v>
       </c>
-      <c r="B37" s="290"/>
-      <c r="C37" s="290"/>
-      <c r="D37" s="290"/>
-      <c r="E37" s="290"/>
+      <c r="B37" s="291"/>
+      <c r="C37" s="291"/>
+      <c r="D37" s="291"/>
+      <c r="E37" s="291"/>
     </row>
     <row r="38" spans="1:5" ht="48" customHeight="1">
-      <c r="A38" s="291" t="str">
+      <c r="A38" s="290" t="str">
         <f>""&amp;malumot!B153&amp;" kredit qo‘mitasining xulosasiga quyidagi shartlarda "&amp;malumot!B10&amp;"ga "&amp;malumot!B65&amp;" berish masalasi kiritiladi:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ kredit qo‘mitasining xulosasiga quyidagi shartlarda NUTFULLAYEV AKBARJON AXMEDOVICHga mikroqarz berish masalasi kiritiladi:</v>
       </c>
-      <c r="B38" s="291"/>
-      <c r="C38" s="291"/>
-      <c r="D38" s="291"/>
-      <c r="E38" s="291"/>
+      <c r="B38" s="290"/>
+      <c r="C38" s="290"/>
+      <c r="D38" s="290"/>
+      <c r="E38" s="290"/>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="291" t="str">
+      <c r="A39" s="290" t="str">
         <f>A11</f>
         <v>Mikroqarz summasi: 27 000 000,00 (yigirma yetti million so'm) so'm.</v>
       </c>
-      <c r="B39" s="291"/>
-      <c r="C39" s="291"/>
-      <c r="D39" s="291"/>
-      <c r="E39" s="291"/>
+      <c r="B39" s="290"/>
+      <c r="C39" s="290"/>
+      <c r="D39" s="290"/>
+      <c r="E39" s="290"/>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="291" t="str">
+      <c r="A40" s="290" t="str">
         <f t="shared" ref="A40:A46" si="0">A12</f>
         <v>Mikroqarz muddati: 36 (o'ttiz olti) oy.</v>
       </c>
-      <c r="B40" s="291"/>
-      <c r="C40" s="291"/>
-      <c r="D40" s="291"/>
-      <c r="E40" s="291"/>
+      <c r="B40" s="290"/>
+      <c r="C40" s="290"/>
+      <c r="D40" s="290"/>
+      <c r="E40" s="290"/>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="291" t="str">
+      <c r="A41" s="290" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarzdan foydalanganlik uchun foiz stavkasi: yillik  60% (Oltmish) foiz</v>
       </c>
-      <c r="B41" s="291"/>
-      <c r="C41" s="291"/>
-      <c r="D41" s="291"/>
-      <c r="E41" s="291"/>
+      <c r="B41" s="290"/>
+      <c r="C41" s="290"/>
+      <c r="D41" s="290"/>
+      <c r="E41" s="290"/>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="291" t="str">
+      <c r="A42" s="290" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarz bo'yicha asosiy qarz va foizlarni to'lash:</v>
       </c>
-      <c r="B42" s="291"/>
-      <c r="C42" s="291"/>
-      <c r="D42" s="291"/>
-      <c r="E42" s="291"/>
+      <c r="B42" s="290"/>
+      <c r="C42" s="290"/>
+      <c r="D42" s="290"/>
+      <c r="E42" s="290"/>
     </row>
     <row r="43" spans="1:5" ht="20.25" customHeight="1">
-      <c r="A43" s="291" t="str">
+      <c r="A43" s="290" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> - mikroqarz shartnomasi bo'yicha har oy differensial to'lovlari amalga oshiriladi</v>
       </c>
-      <c r="B43" s="291"/>
-      <c r="C43" s="291"/>
-      <c r="D43" s="291"/>
-      <c r="E43" s="291"/>
+      <c r="B43" s="290"/>
+      <c r="C43" s="290"/>
+      <c r="D43" s="290"/>
+      <c r="E43" s="290"/>
     </row>
     <row r="44" spans="1:5" ht="26.25" customHeight="1">
-      <c r="A44" s="291" t="str">
+      <c r="A44" s="290" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve">   </v>
       </c>
-      <c r="B44" s="291"/>
-      <c r="C44" s="291"/>
-      <c r="D44" s="291"/>
-      <c r="E44" s="291"/>
+      <c r="B44" s="290"/>
+      <c r="C44" s="290"/>
+      <c r="D44" s="290"/>
+      <c r="E44" s="290"/>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="291" t="str">
+      <c r="A45" s="290" t="str">
         <f t="shared" si="0"/>
         <v>Mikroqarz ta’minoti::</v>
       </c>
-      <c r="B45" s="291"/>
-      <c r="C45" s="291"/>
-      <c r="D45" s="291"/>
-      <c r="E45" s="291"/>
+      <c r="B45" s="290"/>
+      <c r="C45" s="290"/>
+      <c r="D45" s="290"/>
+      <c r="E45" s="290"/>
     </row>
     <row r="46" spans="1:5" ht="72" customHeight="1">
-      <c r="A46" s="291" t="str">
+      <c r="A46" s="290" t="str">
         <f t="shared" si="0"/>
         <v xml:space="preserve"> Egalik huquqi NUTFULLAYEV AKBARJON AXMEDOVICHga tegishli bo'lgan umumiy maydoni - 72,13  va yashash maydoni - 37,39 3 - xonali yakka tartibdagi uy-joy, SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON </v>
       </c>
-      <c r="B46" s="291"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
+      <c r="B46" s="290"/>
+      <c r="C46" s="290"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="290"/>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="291"/>
-      <c r="B47" s="291"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
-      <c r="E47" s="291"/>
+      <c r="A47" s="290"/>
+      <c r="B47" s="290"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="290"/>
     </row>
     <row r="48" spans="1:5" ht="36.75" customHeight="1">
-      <c r="A48" s="291" t="str">
+      <c r="A48" s="290" t="str">
         <f>""&amp;malumot!B153&amp;" mikromoliya tashkilotining xulosasi  "&amp;TEXT(malumot!B2,"ДД.ММ.ГГГГ")&amp;" y. tayyorlangan"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi  11.03.2025 y. tayyorlangan</v>
       </c>
-      <c r="B48" s="291"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="291"/>
-      <c r="E48" s="291"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="290"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="118"/>
@@ -23409,21 +23410,21 @@
       <c r="E49" s="18"/>
     </row>
     <row r="50" spans="1:5">
-      <c r="A50" s="291"/>
-      <c r="B50" s="291"/>
-      <c r="C50" s="291"/>
-      <c r="D50" s="291"/>
-      <c r="E50" s="291"/>
+      <c r="A50" s="290"/>
+      <c r="B50" s="290"/>
+      <c r="C50" s="290"/>
+      <c r="D50" s="290"/>
+      <c r="E50" s="290"/>
     </row>
     <row r="51" spans="1:5" ht="47.25" customHeight="1">
-      <c r="A51" s="291" t="str">
+      <c r="A51" s="290" t="str">
         <f>""&amp;malumot!B153&amp;" mikromoliya tashkilotining Kredit qo‘mitasi a’zolari "&amp;malumot!B153&amp;" mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:"</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining Kredit qo‘mitasi a’zolari «CLEVER MIKROMOLIYA TASHKILOTI» MChJ mikromoliya tashkilotining xulosasi va Mijoz tomonidan taqdim etilgan ma’lumotlar bilan tanishdilar:</v>
       </c>
-      <c r="B51" s="291"/>
-      <c r="C51" s="291"/>
-      <c r="D51" s="291"/>
-      <c r="E51" s="291"/>
+      <c r="B51" s="290"/>
+      <c r="C51" s="290"/>
+      <c r="D51" s="290"/>
+      <c r="E51" s="290"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="188"/>
@@ -23548,6 +23549,41 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:E8"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A29:E29"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="B53:D53"/>
     <mergeCell ref="A51:E51"/>
     <mergeCell ref="A38:E38"/>
@@ -23562,41 +23598,6 @@
     <mergeCell ref="A47:E47"/>
     <mergeCell ref="A48:E48"/>
     <mergeCell ref="A50:E50"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="A34:E34"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
-    <mergeCell ref="A32:E32"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="A25:E25"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:E8"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A26:E26"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="84" orientation="portrait" r:id="rId1"/>
@@ -23613,8 +23614,8 @@
   </sheetPr>
   <dimension ref="A2:F64"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A45" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A31" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" outlineLevelRow="1"/>
@@ -23628,7 +23629,7 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:5">
-      <c r="A2" s="320" t="str">
+      <c r="A2" s="313" t="str">
         <f>"GAROV PREDMETI QIYMATINI KELISHISH 
 №"&amp;malumot!B147&amp;" SONLI DALOLATNOMASI
  "</f>
@@ -23636,10 +23637,10 @@
 №1 SONLI DALOLATNOMASI
  </v>
       </c>
-      <c r="B2" s="320"/>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
+      <c r="B2" s="313"/>
+      <c r="C2" s="313"/>
+      <c r="D2" s="313"/>
+      <c r="E2" s="313"/>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="35"/>
@@ -23661,161 +23662,161 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="9" customHeight="1">
-      <c r="A5" s="291"/>
-      <c r="B5" s="291"/>
-      <c r="C5" s="291"/>
-      <c r="D5" s="291"/>
-      <c r="E5" s="291"/>
+      <c r="A5" s="290"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
     </row>
     <row r="6" spans="1:5" ht="76.5" customHeight="1">
-      <c r="A6" s="291" t="str">
+      <c r="A6" s="290" t="str">
         <f>IF(malumot!B109="avtotransport",dalolatnoma!A10:E10,dalolatnoma!A7:E7)</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B6" s="291"/>
-      <c r="C6" s="291"/>
-      <c r="D6" s="291"/>
-      <c r="E6" s="291"/>
+      <c r="B6" s="290"/>
+      <c r="C6" s="290"/>
+      <c r="D6" s="290"/>
+      <c r="E6" s="290"/>
     </row>
     <row r="7" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A7" s="291" t="str">
+      <c r="A7" s="290" t="str">
         <f>IF(malumot!B99="ha",dalolatnoma!A9:E9,dalolatnoma!A8:E8)</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B7" s="291"/>
-      <c r="C7" s="291"/>
-      <c r="D7" s="291"/>
-      <c r="E7" s="291"/>
+      <c r="B7" s="290"/>
+      <c r="C7" s="290"/>
+      <c r="D7" s="290"/>
+      <c r="E7" s="290"/>
     </row>
     <row r="8" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A8" s="291" t="str">
+      <c r="A8" s="290" t="str">
         <f>""&amp;malumot!B153&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;malumot!A156&amp;" "&amp;malumot!B156&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;malumot!B5&amp;" (2-tomon) va garov egasi "&amp;malumot!C123&amp;" (3-tomon) "&amp;malumot!B74&amp;" "&amp;malumot!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;malumot!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B8" s="291"/>
-      <c r="C8" s="291"/>
-      <c r="D8" s="291"/>
-      <c r="E8" s="291"/>
+      <c r="B8" s="290"/>
+      <c r="C8" s="290"/>
+      <c r="D8" s="290"/>
+      <c r="E8" s="290"/>
     </row>
     <row r="9" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A9" s="291" t="str">
+      <c r="A9" s="290" t="str">
         <f>""&amp;malumot!B153&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;malumot!A156&amp;" "&amp;malumot!B156&amp;", va O‘zbekiston Respublikasi fuqarosi  "&amp;malumot!B5&amp;" (2-tomon) va garov egasi "&amp;malumot!C123&amp;" (3-tomon) "&amp;malumot!B74&amp;" "&amp;malumot!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;malumot!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. "</f>
         <v xml:space="preserve">«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, va O‘zbekiston Respublikasi fuqarosi  NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garov egasi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) 11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi. </v>
       </c>
-      <c r="B9" s="291"/>
-      <c r="C9" s="291"/>
-      <c r="D9" s="291"/>
-      <c r="E9" s="291"/>
+      <c r="B9" s="290"/>
+      <c r="C9" s="290"/>
+      <c r="D9" s="290"/>
+      <c r="E9" s="290"/>
     </row>
     <row r="10" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A10" s="291" t="str">
+      <c r="A10" s="290" t="str">
         <f>IF(malumot!B99="ha",dalolatnoma!A12:E12,dalolatnoma!A11:E11)</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi va garovga beruvchi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) o’rtalarida, 11 mart 2025 y.dan № 23-AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B10" s="291"/>
-      <c r="C10" s="291"/>
-      <c r="D10" s="291"/>
-      <c r="E10" s="291"/>
+      <c r="B10" s="290"/>
+      <c r="C10" s="290"/>
+      <c r="D10" s="290"/>
+      <c r="E10" s="290"/>
     </row>
     <row r="11" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A11" s="291" t="str">
+      <c r="A11" s="290" t="str">
         <f>""&amp;malumot!B153&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;malumot!A156&amp;" "&amp;malumot!B156&amp;", O‘zbekiston Respublikasi fuqarosi "&amp;malumot!B5&amp;" (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi "&amp;malumot!B123&amp;" (3-tomon) o’rtalarida, "&amp;malumot!B74&amp;"-sonli "&amp;malumot!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;malumot!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) va garovga beruvchi O‘zbekiston Respublikasi fuqarosi NUTFULLAYEV AKBARJON AXMEDOVICH (3-tomon) o’rtalarida, 11 mart 2025 y.dan № 23-AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 3-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B11" s="291"/>
-      <c r="C11" s="291"/>
-      <c r="D11" s="291"/>
-      <c r="E11" s="291"/>
+      <c r="B11" s="290"/>
+      <c r="C11" s="290"/>
+      <c r="D11" s="290"/>
+      <c r="E11" s="290"/>
     </row>
     <row r="12" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A12" s="291" t="str">
+      <c r="A12" s="290" t="str">
         <f>""&amp;malumot!B153&amp;"ning (1-tomon) vakili bo‘lgan  "&amp;malumot!A156&amp;" "&amp;malumot!B156&amp;", O‘zbekiston Respublikasi fuqarosi va garovga beruvchi "&amp;malumot!B5&amp;" (2-tomon) o’rtalarida, "&amp;malumot!B74&amp;"-sonli "&amp;malumot!C64&amp;" shartnomasiga muvofiq 1-tomon 2-tomonga berilgan "&amp;malumot!B65&amp;" bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi."</f>
         <v>«CLEVER MIKROMOLIYA TASHKILOTI» MChJning (1-tomon) vakili bo‘lgan  Olmaliq filiali boshlig'i V. Yerjanov, O‘zbekiston Respublikasi fuqarosi va garovga beruvchi NUTFULLAYEV AKBARJON AXMEDOVICH (2-tomon) o’rtalarida, 11 mart 2025 y.dan № 23-AL-sonli Mikroqarz shartnomasiga muvofiq 1-tomon 2-tomonga berilgan mikroqarz bo‘yicha ta’minot sifatida taqdim etilgan, 2-tomonga mulk huquqi asosida tegishli bo‘lgan mulkning garov qiymatini kelishish muzokaralari o’tkazildi.</v>
       </c>
-      <c r="B12" s="291"/>
-      <c r="C12" s="291"/>
-      <c r="D12" s="291"/>
-      <c r="E12" s="291"/>
+      <c r="B12" s="290"/>
+      <c r="C12" s="290"/>
+      <c r="D12" s="290"/>
+      <c r="E12" s="290"/>
     </row>
     <row r="13" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A13" s="291" t="str">
+      <c r="A13" s="290" t="str">
         <f>"Garov predmeti sifatida "&amp;malumot!B131&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B13" s="291"/>
-      <c r="C13" s="291"/>
-      <c r="D13" s="291"/>
-      <c r="E13" s="291"/>
+      <c r="B13" s="290"/>
+      <c r="C13" s="290"/>
+      <c r="D13" s="290"/>
+      <c r="E13" s="290"/>
     </row>
     <row r="14" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A14" s="291" t="str">
+      <c r="A14" s="290" t="str">
         <f>"Garov predmeti sifatida "&amp;malumot!B131&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:"</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B14" s="291"/>
-      <c r="C14" s="291"/>
-      <c r="D14" s="291"/>
-      <c r="E14" s="291"/>
+      <c r="B14" s="290"/>
+      <c r="C14" s="290"/>
+      <c r="D14" s="290"/>
+      <c r="E14" s="290"/>
     </row>
     <row r="15" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A15" s="291" t="str">
+      <c r="A15" s="290" t="str">
         <f>IF(malumot!B99="ha",dalolatnoma!A14:E14,dalolatnoma!A13:E13)</f>
         <v>Garov predmeti sifatida CHANGAN CHANGAN SC 1027SB, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega avtotransport vositasi taqdim etiladi:</v>
       </c>
-      <c r="B15" s="291"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="291"/>
-      <c r="E15" s="291"/>
+      <c r="B15" s="290"/>
+      <c r="C15" s="290"/>
+      <c r="D15" s="290"/>
+      <c r="E15" s="290"/>
     </row>
     <row r="16" spans="1:5" ht="88.5" hidden="1" customHeight="1">
-      <c r="A16" s="291" t="str">
+      <c r="A16" s="290" t="str">
         <f>"Garov predmeti sifatida "&amp;malumot!C132&amp;", 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B16" s="291"/>
-      <c r="C16" s="291"/>
-      <c r="D16" s="291"/>
-      <c r="E16" s="291"/>
+      <c r="B16" s="290"/>
+      <c r="C16" s="290"/>
+      <c r="D16" s="290"/>
+      <c r="E16" s="290"/>
     </row>
     <row r="17" spans="1:5" ht="13.5" hidden="1" customHeight="1">
-      <c r="A17" s="291" t="str">
+      <c r="A17" s="290" t="str">
         <f>"Garov predmeti sifatida "&amp;malumot!C132&amp;", 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:"</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 3-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B17" s="291"/>
-      <c r="C17" s="291"/>
-      <c r="D17" s="291"/>
-      <c r="E17" s="291"/>
+      <c r="B17" s="290"/>
+      <c r="C17" s="290"/>
+      <c r="D17" s="290"/>
+      <c r="E17" s="290"/>
     </row>
     <row r="18" spans="1:5" ht="11.25" hidden="1" customHeight="1">
-      <c r="A18" s="291" t="str">
+      <c r="A18" s="290" t="str">
         <f>IF(malumot!B99="ha",dalolatnoma!A16:E16,dalolatnoma!A17:E17)</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B18" s="291"/>
-      <c r="C18" s="291"/>
-      <c r="D18" s="291"/>
-      <c r="E18" s="291"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="290"/>
+      <c r="D18" s="290"/>
+      <c r="E18" s="290"/>
     </row>
     <row r="19" spans="1:5" ht="32.25" customHeight="1">
-      <c r="A19" s="291" t="str">
+      <c r="A19" s="290" t="str">
         <f>IF(malumot!B109="Avtotransport",dalolatnoma!A15:E15,dalolatnoma!A18:E18)</f>
         <v>Garov predmeti sifatida 3 - xonali yakka tartibdagi uy-joy, 2-tomonga egalik huquqi tegishli bo'lgan, quyidagi tafsilotlarga ega ko'chmas mulk taqdim etiladi:</v>
       </c>
-      <c r="B19" s="291"/>
-      <c r="C19" s="291"/>
-      <c r="D19" s="291"/>
-      <c r="E19" s="291"/>
+      <c r="B19" s="290"/>
+      <c r="C19" s="290"/>
+      <c r="D19" s="290"/>
+      <c r="E19" s="290"/>
     </row>
     <row r="20" spans="1:5" ht="48" customHeight="1" outlineLevel="1">
       <c r="A20" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="B20" s="325" t="str">
+      <c r="B20" s="330" t="str">
         <f>IF(malumot!B109=malumot!C109,"Kuzov turi  va kuzov raqami*","Foydali maydoni")</f>
         <v>Foydali maydoni</v>
       </c>
-      <c r="C20" s="326"/>
+      <c r="C20" s="331"/>
       <c r="D20" s="34" t="str">
         <f>IF(malumot!B109=malumot!C109,"Dvigatel va shassi raqami*","Yashash maydoni")</f>
         <v>Yashash maydoni</v>
@@ -23830,11 +23831,11 @@
         <f>IF(malumot!B109=malumot!C109,malumot!B131,malumot!C131)</f>
         <v>3 - xonali yakka tartibdagi uy-joy</v>
       </c>
-      <c r="B21" s="322" t="str">
+      <c r="B21" s="315" t="str">
         <f>IF(malumot!B109=malumot!C109,malumot!B133,CONCATENATE(malumot!F136," ","kv.m"))</f>
         <v>34,74 kv.m</v>
       </c>
-      <c r="C21" s="322"/>
+      <c r="C21" s="315"/>
       <c r="D21" s="12" t="str">
         <f>IF(malumot!B109=malumot!C109,malumot!B136,malumot!E139)</f>
         <v>37,39 kv.m</v>
@@ -23845,79 +23846,79 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="17.25" customHeight="1" outlineLevel="1">
-      <c r="A22" s="291" t="str">
+      <c r="A22" s="290" t="str">
         <f>"-* "&amp;IF(malumot!B109=malumot!C109,"avtotransport "&amp;"egasi: "&amp;malumot!B123&amp;"","ko'chmas mulk"&amp;" egasi: "&amp;malumot!B123&amp;"")</f>
         <v>-* ko'chmas mulk egasi: NUTFULLAYEV AKBARJON AXMEDOVICH</v>
       </c>
-      <c r="B22" s="291"/>
-      <c r="C22" s="291"/>
-      <c r="D22" s="291"/>
-      <c r="E22" s="291"/>
+      <c r="B22" s="290"/>
+      <c r="C22" s="290"/>
+      <c r="D22" s="290"/>
+      <c r="E22" s="290"/>
     </row>
     <row r="23" spans="1:5" outlineLevel="1">
-      <c r="A23" s="291" t="str">
+      <c r="A23" s="290" t="str">
         <f>IF(malumot!B109=malumot!C109,"-* texnik pasport: "&amp;malumot!B130&amp;"","-* reest raqami: "&amp;malumot!C130&amp;"")</f>
         <v>-* reest raqami: 13.12.2020 yildan 1718238/R-A1419303</v>
       </c>
-      <c r="B23" s="291"/>
-      <c r="C23" s="291"/>
-      <c r="D23" s="291"/>
-      <c r="E23" s="291"/>
+      <c r="B23" s="290"/>
+      <c r="C23" s="290"/>
+      <c r="D23" s="290"/>
+      <c r="E23" s="290"/>
     </row>
     <row r="24" spans="1:5" s="147" customFormat="1" outlineLevel="1">
-      <c r="A24" s="291" t="str">
+      <c r="A24" s="290" t="str">
         <f>IF(malumot!B109=malumot!C109,"-* roʻyxatdan oʻtgan manzili/garaj manzili: "&amp;malumot!B128&amp;"","-*  kadastr raqami: "&amp;malumot!C133&amp;"")</f>
         <v>-*  kadastr raqami: 16.12.2020 yildan №14:13:02:01:03:1179:0006:058</v>
       </c>
-      <c r="B24" s="291"/>
-      <c r="C24" s="291"/>
-      <c r="D24" s="291"/>
-      <c r="E24" s="291"/>
+      <c r="B24" s="290"/>
+      <c r="C24" s="290"/>
+      <c r="D24" s="290"/>
+      <c r="E24" s="290"/>
     </row>
     <row r="25" spans="1:5" ht="27" customHeight="1" outlineLevel="1">
-      <c r="A25" s="291" t="str">
+      <c r="A25" s="290" t="str">
         <f>IF(malumot!B109=malumot!C109,"-* davlat raqami: "&amp;malumot!B132&amp;"","-* manzili: "&amp;malumot!C129&amp;"")</f>
         <v>-* manzili: SAMARQAND VILOYATI TAYLOQ TUMANI CHAROG'BON MFY YANGI TAYLOQ QISHLOG'I 6 TURAR JOY 12 QAVAT 58 XONADON</v>
       </c>
-      <c r="B25" s="291"/>
-      <c r="C25" s="291"/>
-      <c r="D25" s="291"/>
-      <c r="E25" s="291"/>
+      <c r="B25" s="290"/>
+      <c r="C25" s="290"/>
+      <c r="D25" s="290"/>
+      <c r="E25" s="290"/>
     </row>
     <row r="26" spans="1:5" ht="65.25" customHeight="1">
-      <c r="A26" s="291" t="str">
+      <c r="A26" s="290" t="str">
         <f>IF(malumot!B99="ha",dalolatnoma!A28:E28,dalolatnoma!A27:E27)</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B26" s="291"/>
-      <c r="C26" s="291"/>
-      <c r="D26" s="291"/>
-      <c r="E26" s="291"/>
+      <c r="B26" s="290"/>
+      <c r="C26" s="290"/>
+      <c r="D26" s="290"/>
+      <c r="E26" s="290"/>
     </row>
     <row r="27" spans="1:5" ht="66" hidden="1" customHeight="1">
-      <c r="A27" s="291" t="str">
+      <c r="A27" s="290" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;malumot!B74&amp;" "&amp;malumot!B65&amp;" shartnomasi bo‘yicha berilgan "&amp;malumot!B65&amp;" bo‘yicha  
 "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B143&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № 23-AL mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B27" s="291"/>
-      <c r="C27" s="291"/>
-      <c r="D27" s="291"/>
-      <c r="E27" s="291"/>
+      <c r="B27" s="290"/>
+      <c r="C27" s="290"/>
+      <c r="D27" s="290"/>
+      <c r="E27" s="290"/>
     </row>
     <row r="28" spans="1:5" ht="58.5" hidden="1" customHeight="1">
-      <c r="A28" s="291" t="str">
+      <c r="A28" s="290" t="str">
         <f>"Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  "&amp;malumot!B74&amp;" "&amp;malumot!C64&amp;" shartnomasi bo‘yicha berilgan "&amp;malumot!B65&amp;" bo‘yicha  
 "&amp;FIXED(malumot!B142,2)&amp;" ("&amp;malumot!B143&amp;") so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::"</f>
         <v>Tomonlar o’rtasida o’tkazilgan muzokaralar natijalariga ko‘ra, 2-tomon ta’minot sifatida quyidagi tafsilotlarga ega bo’lgan garov predmetini taqdim etadi, 1-tomon esa ushbu garov predmetini  11 mart 2025 y.dan № 23-AL Mikroqarz shartnomasi bo‘yicha berilgan mikroqarz bo‘yicha  
 40 500 000,00 (qirq million besh yuz ming so'm) so’m bo‘lgan kelishilgan garov qiymatida qabul qiladi::</v>
       </c>
-      <c r="B28" s="291"/>
-      <c r="C28" s="291"/>
-      <c r="D28" s="291"/>
-      <c r="E28" s="291"/>
+      <c r="B28" s="290"/>
+      <c r="C28" s="290"/>
+      <c r="D28" s="290"/>
+      <c r="E28" s="290"/>
     </row>
     <row r="29" spans="1:5" ht="51.75" customHeight="1" outlineLevel="1">
       <c r="A29" s="34" t="s">
@@ -24004,7 +24005,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E33" s="329" t="str">
+      <c r="E33" s="326" t="str">
         <f>""&amp;FIXED(malumot!C142,2)&amp;" ("&amp;malumot!B143&amp;")"</f>
         <v>40 500 000,00 (qirq million besh yuz ming so'm)</v>
       </c>
@@ -24014,7 +24015,7 @@
       <c r="B34" s="98"/>
       <c r="C34" s="98"/>
       <c r="D34" s="98"/>
-      <c r="E34" s="330"/>
+      <c r="E34" s="327"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A35" s="12" t="e">
@@ -24033,7 +24034,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E35" s="330"/>
+      <c r="E35" s="327"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A36" s="12" t="e">
@@ -24052,7 +24053,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E36" s="330"/>
+      <c r="E36" s="327"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A37" s="12" t="e">
@@ -24071,7 +24072,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E37" s="330"/>
+      <c r="E37" s="327"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A38" s="12" t="e">
@@ -24090,7 +24091,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E38" s="330"/>
+      <c r="E38" s="327"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A39" s="12" t="e">
@@ -24109,7 +24110,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E39" s="330"/>
+      <c r="E39" s="327"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A40" s="12" t="e">
@@ -24128,7 +24129,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E40" s="330"/>
+      <c r="E40" s="327"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A41" s="12" t="e">
@@ -24147,7 +24148,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E41" s="330"/>
+      <c r="E41" s="327"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A42" s="12" t="e">
@@ -24166,7 +24167,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E42" s="330"/>
+      <c r="E42" s="327"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A43" s="12" t="e">
@@ -24185,7 +24186,7 @@
         <f>#REF!</f>
         <v>#REF!</v>
       </c>
-      <c r="E43" s="331"/>
+      <c r="E43" s="328"/>
     </row>
     <row r="44" spans="1:5" s="32" customFormat="1" ht="15.75" hidden="1" customHeight="1" outlineLevel="1">
       <c r="A44" s="34" t="e">
@@ -24217,7 +24218,7 @@
       <c r="E45" s="11"/>
     </row>
     <row r="46" spans="1:5" ht="93.75" hidden="1" customHeight="1">
-      <c r="A46" s="291" t="str">
+      <c r="A46" s="290" t="str">
         <f>"“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
 "&amp;'Данные для послед. Залога'!W2&amp;""</f>
         <v>“Birinchi talabga ko‘ra, yuqoridagi avtomobil Mikrokredit shartnomasi bo‘yicha garovga qo‘yilgan edi::
@@ -24242,29 +24243,29 @@
 0
 0</v>
       </c>
-      <c r="B46" s="291"/>
-      <c r="C46" s="291"/>
-      <c r="D46" s="291"/>
-      <c r="E46" s="291"/>
+      <c r="B46" s="290"/>
+      <c r="C46" s="290"/>
+      <c r="D46" s="290"/>
+      <c r="E46" s="290"/>
     </row>
     <row r="47" spans="1:5" ht="42" customHeight="1">
-      <c r="A47" s="291" t="s">
+      <c r="A47" s="290" t="s">
         <v>208</v>
       </c>
-      <c r="B47" s="291"/>
-      <c r="C47" s="291"/>
-      <c r="D47" s="291"/>
-      <c r="E47" s="291"/>
+      <c r="B47" s="290"/>
+      <c r="C47" s="290"/>
+      <c r="D47" s="290"/>
+      <c r="E47" s="290"/>
     </row>
     <row r="48" spans="1:5" ht="35.25" customHeight="1">
-      <c r="A48" s="291" t="str">
+      <c r="A48" s="290" t="str">
         <f>"Shunday qilib, garov predmetining kelishilgan garov qiymati  "&amp;FIXED(malumot!B142)&amp;" ("&amp;malumot!B143&amp;") so‘mni tashkil etadi."</f>
         <v>Shunday qilib, garov predmetining kelishilgan garov qiymati  40 500 000,00 (qirq million besh yuz ming so'm) so‘mni tashkil etadi.</v>
       </c>
-      <c r="B48" s="291"/>
-      <c r="C48" s="291"/>
-      <c r="D48" s="291"/>
-      <c r="E48" s="291"/>
+      <c r="B48" s="290"/>
+      <c r="C48" s="290"/>
+      <c r="D48" s="290"/>
+      <c r="E48" s="290"/>
     </row>
     <row r="49" spans="1:6" ht="35.25" hidden="1" customHeight="1">
       <c r="A49" s="14"/>
@@ -24280,11 +24281,11 @@
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="328" t="s">
+      <c r="A50" s="325" t="s">
         <v>209</v>
       </c>
-      <c r="B50" s="328"/>
-      <c r="C50" s="328"/>
+      <c r="B50" s="325"/>
+      <c r="C50" s="325"/>
       <c r="D50" s="17"/>
       <c r="E50" s="17"/>
     </row>
@@ -24319,9 +24320,9 @@
       <c r="E53" s="47"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="328"/>
-      <c r="B54" s="328"/>
-      <c r="C54" s="328"/>
+      <c r="A54" s="325"/>
+      <c r="B54" s="325"/>
+      <c r="C54" s="325"/>
       <c r="D54" s="47"/>
       <c r="E54" s="47"/>
     </row>
@@ -24355,45 +24356,45 @@
       <c r="E57" s="292"/>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="328" t="s">
+      <c r="A58" s="325" t="s">
         <v>210</v>
       </c>
-      <c r="B58" s="328"/>
-      <c r="C58" s="328"/>
+      <c r="B58" s="325"/>
+      <c r="C58" s="325"/>
       <c r="D58" s="292"/>
       <c r="E58" s="292"/>
     </row>
     <row r="59" spans="1:6" ht="31.5" customHeight="1">
-      <c r="A59" s="328" t="s">
+      <c r="A59" s="325" t="s">
         <v>211</v>
       </c>
-      <c r="B59" s="328"/>
-      <c r="C59" s="328"/>
-      <c r="D59" s="328" t="str">
+      <c r="B59" s="325"/>
+      <c r="C59" s="325"/>
+      <c r="D59" s="325" t="str">
         <f>"_______________  "&amp;malumot!B7&amp;""</f>
         <v>_______________  A.A.NUTFULLAYEV</v>
       </c>
-      <c r="E59" s="328"/>
+      <c r="E59" s="325"/>
     </row>
     <row r="60" spans="1:6" ht="12.75" customHeight="1">
       <c r="A60" s="292"/>
       <c r="B60" s="292"/>
       <c r="C60" s="292"/>
-      <c r="D60" s="327" t="str">
+      <c r="D60" s="329" t="str">
         <f>IF(malumot!B99="да","",malumot!B124)</f>
         <v>A.A.NUTFULLAYEV</v>
       </c>
-      <c r="E60" s="327"/>
+      <c r="E60" s="329"/>
     </row>
     <row r="61" spans="1:6" ht="17.25" hidden="1" customHeight="1">
-      <c r="A61" s="328" t="str">
+      <c r="A61" s="325" t="str">
         <f>+IF(malumot!B99="ha"," ","3-tomondan:")</f>
         <v xml:space="preserve"> </v>
       </c>
-      <c r="B61" s="328"/>
-      <c r="C61" s="328"/>
-      <c r="D61" s="328"/>
-      <c r="E61" s="328"/>
+      <c r="B61" s="325"/>
+      <c r="C61" s="325"/>
+      <c r="D61" s="325"/>
+      <c r="E61" s="325"/>
       <c r="F61" s="10" t="str">
         <f>IF(malumot!B100=malumot!D100,B7,"")</f>
         <v/>
@@ -24406,11 +24407,11 @@
       </c>
       <c r="B62" s="292"/>
       <c r="C62" s="292"/>
-      <c r="D62" s="328" t="str">
+      <c r="D62" s="325" t="str">
         <f>"_______________  "&amp;malumot!B118&amp;""</f>
         <v>_______________  A.A.NUTFULLAYEV</v>
       </c>
-      <c r="E62" s="328"/>
+      <c r="E62" s="325"/>
     </row>
     <row r="63" spans="1:6" ht="63.75" hidden="1" customHeight="1">
       <c r="A63" s="154" t="str">
@@ -24426,20 +24427,34 @@
       <c r="E63" s="292"/>
     </row>
     <row r="64" spans="1:6" ht="6.75" customHeight="1">
-      <c r="D64" s="314"/>
-      <c r="E64" s="314"/>
+      <c r="D64" s="321"/>
+      <c r="E64" s="321"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A46:E46"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="E33:E43"/>
-    <mergeCell ref="A28:E28"/>
-    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A14:E14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A17:E17"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
     <mergeCell ref="D64:E64"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A11:E11"/>
@@ -24456,29 +24471,15 @@
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="A54:C54"/>
     <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A14:E14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A17:E17"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="A19:E19"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A46:E46"/>
+    <mergeCell ref="A47:E47"/>
+    <mergeCell ref="E33:E43"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="A48:E48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
